--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419D0CB6-46F3-4D32-ADE6-664E10092561}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2829EA-806F-44A2-86ED-5F8CF9473115}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01907184-E4B6-4CFA-BE0E-F8E4D3335086}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1396CDC6-0018-4789-A79D-07620321D671}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1239,7 +1239,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05975AF-CE51-4201-9F68-A63B42E94591}">
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO4" sqref="AO4:AO34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1396CDC6-0018-4789-A79D-07620321D671}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C35853-630C-46D4-81F0-B31E6AC7633D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="225">
   <si>
     <t>sheet名</t>
   </si>
@@ -403,156 +403,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主舰等级I</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰等级II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰等级III</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰等级IV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰等级V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰等级VI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰等级VII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰等级VIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰等级IX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰等级X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮等级I</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮等级II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮等级III</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮等级IV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮等级V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮等级VI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮等级VII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮等级VIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮等级IX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮等级X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮等级I</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮等级II</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮等级III</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮等级IV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮等级V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮等级VI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮等级VII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮等级VIII</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮等级IX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮等级X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰突破I</t>
-  </si>
-  <si>
-    <t>主舰突破II</t>
-  </si>
-  <si>
-    <t>主舰突破III</t>
-  </si>
-  <si>
-    <t>主舰突破IV</t>
-  </si>
-  <si>
-    <t>主舰突破V</t>
-  </si>
-  <si>
-    <t>主舰突破VI</t>
-  </si>
-  <si>
-    <t>主舰突破VII</t>
-  </si>
-  <si>
-    <t>主舰突破VIII</t>
-  </si>
-  <si>
-    <t>主舰突破IX</t>
-  </si>
-  <si>
-    <t>主舰突破X</t>
-  </si>
-  <si>
     <t>attr[1].slot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -662,6 +512,322 @@
   </si>
   <si>
     <t>rowId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过10关</t>
+  </si>
+  <si>
+    <t>通过20关</t>
+  </si>
+  <si>
+    <t>通过30关</t>
+  </si>
+  <si>
+    <t>通过40关</t>
+  </si>
+  <si>
+    <t>通过50关</t>
+  </si>
+  <si>
+    <t>通过60关</t>
+  </si>
+  <si>
+    <t>通过80关</t>
+  </si>
+  <si>
+    <t>通过100关</t>
+  </si>
+  <si>
+    <t>通过125关</t>
+  </si>
+  <si>
+    <t>通过150关</t>
+  </si>
+  <si>
+    <t>通过175关</t>
+  </si>
+  <si>
+    <t>通过200关</t>
+  </si>
+  <si>
+    <t>通过225关</t>
+  </si>
+  <si>
+    <t>通过250关</t>
+  </si>
+  <si>
+    <t>通过275关</t>
+  </si>
+  <si>
+    <t>通过300关</t>
+  </si>
+  <si>
+    <t>通过325关</t>
+  </si>
+  <si>
+    <t>通过350关</t>
+  </si>
+  <si>
+    <t>通过375关</t>
+  </si>
+  <si>
+    <t>通过400关</t>
+  </si>
+  <si>
+    <t>通过425关</t>
+  </si>
+  <si>
+    <t>通过450关</t>
+  </si>
+  <si>
+    <t>通过475关</t>
+  </si>
+  <si>
+    <t>通过500关</t>
+  </si>
+  <si>
+    <t>通过550关</t>
+  </si>
+  <si>
+    <t>通过600关</t>
+  </si>
+  <si>
+    <t>通过650关</t>
+  </si>
+  <si>
+    <t>通过700关</t>
+  </si>
+  <si>
+    <t>通过750关</t>
+  </si>
+  <si>
+    <t>通过800关</t>
+  </si>
+  <si>
+    <t>通过第1章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第3章</t>
+  </si>
+  <si>
+    <t>通过第4章</t>
+  </si>
+  <si>
+    <t>通过第5章</t>
+  </si>
+  <si>
+    <t>通过第6章</t>
+  </si>
+  <si>
+    <t>通过第2章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第8章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第10章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第12章第5关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第15章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第17章第5关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第20章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第20章第5关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第25章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第27章第5关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第30章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第32章第5关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第35章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第37章第5关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第40章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第42章第5关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第45章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第47章第5关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第50章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第55章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第60章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第65章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第70章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第75章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第80章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰10级</t>
+  </si>
+  <si>
+    <t>主舰升到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币20K</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把导弹炮升到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把激光炮升到10级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片总等级2级</t>
+  </si>
+  <si>
+    <t>主舰1突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮1突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮1突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰3突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮3突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮3突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰进阶达到3级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰进阶达到1阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰进阶达到2阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片总等级达到2阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮进阶达到1阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮进阶达到1阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮突破达到3阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光炮突破达到3阶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰4突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰进阶达到4级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币5M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体100级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体强化达到100级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰2突</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1204,22 +1370,22 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -1240,14 +1406,15 @@
   <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO4" sqref="AO4:AO34"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="9" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="9" width="18.125" customWidth="1"/>
     <col min="10" max="10" width="17.625" customWidth="1"/>
     <col min="11" max="11" width="18.125" customWidth="1"/>
     <col min="12" max="41" width="12" customWidth="1"/>
@@ -1255,7 +1422,7 @@
   <sheetData>
     <row r="1" spans="1:41" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>107</v>
@@ -1294,7 +1461,7 @@
         <v>96</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>95</v>
@@ -1309,7 +1476,7 @@
         <v>92</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>91</v>
@@ -1324,7 +1491,7 @@
         <v>88</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>87</v>
@@ -1339,7 +1506,7 @@
         <v>84</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="AD1" s="4" t="s">
         <v>83</v>
@@ -1354,7 +1521,7 @@
         <v>80</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="AI1" s="4" t="s">
         <v>79</v>
@@ -1369,7 +1536,7 @@
         <v>76</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="AN1" s="4" t="s">
         <v>75</v>
@@ -1505,7 +1672,7 @@
     </row>
     <row r="3" spans="1:41" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>66</v>
@@ -1544,7 +1711,7 @@
         <v>55</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>54</v>
@@ -1559,7 +1726,7 @@
         <v>51</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>50</v>
@@ -1574,7 +1741,7 @@
         <v>47</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>46</v>
@@ -1589,7 +1756,7 @@
         <v>43</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>42</v>
@@ -1604,7 +1771,7 @@
         <v>39</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="AI3" s="2" t="s">
         <v>38</v>
@@ -1619,7 +1786,7 @@
         <v>35</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AN3" s="2" t="s">
         <v>34</v>
@@ -1638,108 +1805,44 @@
       <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
-        <v>101010001</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="3">
-        <v>101020001</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="3">
-        <v>101030001</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="3">
-        <v>102010001</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M4" s="3">
-        <v>7</v>
-      </c>
-      <c r="N4" s="3">
-        <v>3</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="R4" s="3">
-        <v>1</v>
-      </c>
-      <c r="S4" s="3">
-        <v>3</v>
-      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="W4" s="3">
-        <v>1</v>
-      </c>
-      <c r="X4" s="3">
-        <v>3</v>
-      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>3</v>
-      </c>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>3</v>
-      </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>3</v>
-      </c>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
-      <c r="AO4" s="3">
-        <v>0</v>
-      </c>
+      <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1751,32 +1854,24 @@
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3">
-        <v>101010002</v>
+      <c r="D5" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="F5" s="3">
-        <v>101020002</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="3">
-        <v>101030002</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J5" s="3">
-        <v>102010002</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="M5" s="3">
         <v>7</v>
@@ -1789,7 +1884,7 @@
         <v>0.02</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R5" s="3">
         <v>1</v>
@@ -1802,7 +1897,7 @@
         <v>0.02</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W5" s="3">
         <v>1</v>
@@ -1815,7 +1910,7 @@
         <v>0.02</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB5" s="3">
         <v>1</v>
@@ -1828,7 +1923,7 @@
         <v>0.02</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG5" s="3">
         <v>1</v>
@@ -1841,7 +1936,7 @@
         <v>0.02</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL5" s="3">
         <v>1</v>
@@ -1864,32 +1959,32 @@
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3">
-        <v>101010003</v>
+      <c r="D6" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="3">
-        <v>101020003</v>
+        <v>172</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="3">
-        <v>101030003</v>
+        <v>199</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="3">
-        <v>102010003</v>
+        <v>202</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M6" s="3">
         <v>7</v>
@@ -1902,7 +1997,7 @@
         <v>0.05</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R6" s="3">
         <v>1</v>
@@ -1915,7 +2010,7 @@
         <v>0.05</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W6" s="3">
         <v>1</v>
@@ -1928,7 +2023,7 @@
         <v>0.05</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB6" s="3">
         <v>1</v>
@@ -1941,7 +2036,7 @@
         <v>0.05</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG6" s="3">
         <v>1</v>
@@ -1954,7 +2049,7 @@
         <v>0.05</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL6" s="3">
         <v>1</v>
@@ -1977,32 +2072,32 @@
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3">
-        <v>101010004</v>
+      <c r="D7" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="3">
-        <v>101020004</v>
+        <v>168</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="3">
-        <v>101030004</v>
+        <v>212</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="3">
-        <v>102010004</v>
+        <v>215</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M7" s="3">
         <v>7</v>
@@ -2015,7 +2110,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R7" s="3">
         <v>1</v>
@@ -2028,7 +2123,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W7" s="3">
         <v>1</v>
@@ -2041,7 +2136,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB7" s="3">
         <v>1</v>
@@ -2054,7 +2149,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG7" s="3">
         <v>1</v>
@@ -2067,7 +2162,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL7" s="3">
         <v>1</v>
@@ -2090,32 +2185,24 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3">
-        <v>101010005</v>
+      <c r="D8" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="3">
-        <v>101020005</v>
+        <v>169</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="3">
-        <v>101030005</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="3">
-        <v>102010005</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
@@ -2128,7 +2215,7 @@
         <v>0.1</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R8" s="3">
         <v>1</v>
@@ -2141,7 +2228,7 @@
         <v>0.1</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W8" s="3">
         <v>1</v>
@@ -2154,7 +2241,7 @@
         <v>0.1</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB8" s="3">
         <v>1</v>
@@ -2167,7 +2254,7 @@
         <v>0.1</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG8" s="3">
         <v>1</v>
@@ -2180,7 +2267,7 @@
         <v>0.1</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL8" s="3">
         <v>1</v>
@@ -2203,32 +2290,22 @@
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3">
-        <v>101010006</v>
+      <c r="D9" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="3">
-        <v>101020006</v>
+        <v>170</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="3">
-        <v>101030006</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J9" s="3">
-        <v>102010006</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M9" s="3">
         <v>7</v>
@@ -2241,7 +2318,7 @@
         <v>0.15</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R9" s="3">
         <v>1</v>
@@ -2254,7 +2331,7 @@
         <v>0.15</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W9" s="3">
         <v>1</v>
@@ -2267,7 +2344,7 @@
         <v>0.15</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB9" s="3">
         <v>1</v>
@@ -2280,7 +2357,7 @@
         <v>0.15</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG9" s="3">
         <v>1</v>
@@ -2293,7 +2370,7 @@
         <v>0.15</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL9" s="3">
         <v>1</v>
@@ -2316,32 +2393,32 @@
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3">
-        <v>101010007</v>
+      <c r="D10" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="3">
-        <v>101020007</v>
+        <v>171</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="3">
-        <v>101030007</v>
+        <v>211</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J10" s="3">
-        <v>102010007</v>
+        <v>217</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M10" s="3">
         <v>7</v>
@@ -2354,7 +2431,7 @@
         <v>0.2</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R10" s="3">
         <v>1</v>
@@ -2367,7 +2444,7 @@
         <v>0.2</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W10" s="3">
         <v>1</v>
@@ -2380,7 +2457,7 @@
         <v>0.2</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB10" s="3">
         <v>1</v>
@@ -2393,7 +2470,7 @@
         <v>0.2</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG10" s="3">
         <v>1</v>
@@ -2406,7 +2483,7 @@
         <v>0.2</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL10" s="3">
         <v>1</v>
@@ -2429,32 +2506,24 @@
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3">
-        <v>101010008</v>
+      <c r="D11" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="3">
-        <v>101020008</v>
+        <v>173</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="3">
-        <v>101030008</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J11" s="3">
-        <v>102010008</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>145</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M11" s="3">
         <v>7</v>
@@ -2467,7 +2536,7 @@
         <v>0.25</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R11" s="3">
         <v>1</v>
@@ -2480,7 +2549,7 @@
         <v>0.25</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W11" s="3">
         <v>1</v>
@@ -2493,7 +2562,7 @@
         <v>0.25</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB11" s="3">
         <v>1</v>
@@ -2506,7 +2575,7 @@
         <v>0.25</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG11" s="3">
         <v>1</v>
@@ -2519,7 +2588,7 @@
         <v>0.25</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL11" s="3">
         <v>1</v>
@@ -2542,32 +2611,28 @@
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3">
-        <v>101010009</v>
+      <c r="D12" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="3">
-        <v>101020009</v>
+        <v>174</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="3">
-        <v>101030009</v>
+        <v>221</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="3">
-        <v>102010009</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M12" s="3">
         <v>7</v>
@@ -2580,7 +2645,7 @@
         <v>0.35</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R12" s="3">
         <v>1</v>
@@ -2593,7 +2658,7 @@
         <v>0.35</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W12" s="3">
         <v>1</v>
@@ -2606,7 +2671,7 @@
         <v>0.35</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB12" s="3">
         <v>1</v>
@@ -2619,7 +2684,7 @@
         <v>0.35</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG12" s="3">
         <v>1</v>
@@ -2632,7 +2697,7 @@
         <v>0.35</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL12" s="3">
         <v>1</v>
@@ -2655,32 +2720,20 @@
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3">
-        <v>101010010</v>
+      <c r="D13" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M13" s="3">
         <v>7</v>
@@ -2693,7 +2746,7 @@
         <v>0.45</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R13" s="3">
         <v>1</v>
@@ -2706,7 +2759,7 @@
         <v>0.45</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W13" s="3">
         <v>1</v>
@@ -2719,7 +2772,7 @@
         <v>0.45</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB13" s="3">
         <v>1</v>
@@ -2732,7 +2785,7 @@
         <v>0.45</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG13" s="3">
         <v>1</v>
@@ -2745,7 +2798,7 @@
         <v>0.45</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL13" s="3">
         <v>1</v>
@@ -2768,32 +2821,20 @@
       <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3">
-        <v>101010010</v>
+      <c r="D14" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J14" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M14" s="3">
         <v>7</v>
@@ -2806,7 +2847,7 @@
         <v>0.5</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R14" s="3">
         <v>1</v>
@@ -2819,7 +2860,7 @@
         <v>0.5</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W14" s="3">
         <v>1</v>
@@ -2832,7 +2873,7 @@
         <v>0.5</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB14" s="3">
         <v>1</v>
@@ -2845,7 +2886,7 @@
         <v>0.5</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG14" s="3">
         <v>1</v>
@@ -2858,7 +2899,7 @@
         <v>0.5</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL14" s="3">
         <v>1</v>
@@ -2881,32 +2922,20 @@
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3">
-        <v>101010010</v>
+      <c r="D15" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M15" s="3">
         <v>7</v>
@@ -2919,7 +2948,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R15" s="3">
         <v>1</v>
@@ -2932,7 +2961,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W15" s="3">
         <v>1</v>
@@ -2945,7 +2974,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB15" s="3">
         <v>1</v>
@@ -2958,7 +2987,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG15" s="3">
         <v>1</v>
@@ -2971,7 +3000,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AK15" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL15" s="3">
         <v>1</v>
@@ -2994,32 +3023,20 @@
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3">
-        <v>101010010</v>
+      <c r="D16" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J16" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M16" s="3">
         <v>7</v>
@@ -3032,7 +3049,7 @@
         <v>0.6</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R16" s="3">
         <v>1</v>
@@ -3045,7 +3062,7 @@
         <v>0.6</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W16" s="3">
         <v>1</v>
@@ -3058,7 +3075,7 @@
         <v>0.6</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB16" s="3">
         <v>1</v>
@@ -3071,7 +3088,7 @@
         <v>0.6</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG16" s="3">
         <v>1</v>
@@ -3084,7 +3101,7 @@
         <v>0.6</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL16" s="3">
         <v>1</v>
@@ -3107,32 +3124,20 @@
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3">
-        <v>101010010</v>
+      <c r="D17" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M17" s="3">
         <v>7</v>
@@ -3145,7 +3150,7 @@
         <v>0.65</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R17" s="3">
         <v>1</v>
@@ -3158,7 +3163,7 @@
         <v>0.65</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W17" s="3">
         <v>1</v>
@@ -3171,7 +3176,7 @@
         <v>0.65</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB17" s="3">
         <v>1</v>
@@ -3184,7 +3189,7 @@
         <v>0.65</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG17" s="3">
         <v>1</v>
@@ -3197,7 +3202,7 @@
         <v>0.65</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL17" s="3">
         <v>1</v>
@@ -3220,32 +3225,20 @@
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3">
-        <v>101010010</v>
+      <c r="D18" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J18" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M18" s="3">
         <v>7</v>
@@ -3258,7 +3251,7 @@
         <v>0.7</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R18" s="3">
         <v>1</v>
@@ -3271,7 +3264,7 @@
         <v>0.7</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W18" s="3">
         <v>1</v>
@@ -3284,7 +3277,7 @@
         <v>0.7</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB18" s="3">
         <v>1</v>
@@ -3297,7 +3290,7 @@
         <v>0.7</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG18" s="3">
         <v>1</v>
@@ -3310,7 +3303,7 @@
         <v>0.7</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL18" s="3">
         <v>1</v>
@@ -3333,32 +3326,20 @@
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3">
-        <v>101010010</v>
+      <c r="D19" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J19" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M19" s="3">
         <v>7</v>
@@ -3371,7 +3352,7 @@
         <v>0.75</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R19" s="3">
         <v>1</v>
@@ -3384,7 +3365,7 @@
         <v>0.75</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W19" s="3">
         <v>1</v>
@@ -3397,7 +3378,7 @@
         <v>0.75</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB19" s="3">
         <v>1</v>
@@ -3410,7 +3391,7 @@
         <v>0.75</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG19" s="3">
         <v>1</v>
@@ -3423,7 +3404,7 @@
         <v>0.75</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL19" s="3">
         <v>1</v>
@@ -3446,32 +3427,20 @@
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3">
-        <v>101010010</v>
+      <c r="D20" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J20" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M20" s="3">
         <v>7</v>
@@ -3484,7 +3453,7 @@
         <v>0.8</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R20" s="3">
         <v>1</v>
@@ -3497,7 +3466,7 @@
         <v>0.8</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W20" s="3">
         <v>1</v>
@@ -3510,7 +3479,7 @@
         <v>0.8</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB20" s="3">
         <v>1</v>
@@ -3523,7 +3492,7 @@
         <v>0.8</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG20" s="3">
         <v>1</v>
@@ -3536,7 +3505,7 @@
         <v>0.8</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL20" s="3">
         <v>1</v>
@@ -3559,32 +3528,20 @@
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3">
-        <v>101010010</v>
+      <c r="D21" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M21" s="3">
         <v>7</v>
@@ -3597,7 +3554,7 @@
         <v>0.85</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R21" s="3">
         <v>1</v>
@@ -3610,7 +3567,7 @@
         <v>0.85</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W21" s="3">
         <v>1</v>
@@ -3623,7 +3580,7 @@
         <v>0.85</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB21" s="3">
         <v>1</v>
@@ -3636,7 +3593,7 @@
         <v>0.85</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG21" s="3">
         <v>1</v>
@@ -3649,7 +3606,7 @@
         <v>0.85</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL21" s="3">
         <v>1</v>
@@ -3672,32 +3629,20 @@
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3">
-        <v>101010010</v>
+      <c r="D22" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J22" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M22" s="3">
         <v>7</v>
@@ -3710,7 +3655,7 @@
         <v>0.9</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R22" s="3">
         <v>1</v>
@@ -3723,7 +3668,7 @@
         <v>0.9</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W22" s="3">
         <v>1</v>
@@ -3736,7 +3681,7 @@
         <v>0.9</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB22" s="3">
         <v>1</v>
@@ -3749,7 +3694,7 @@
         <v>0.9</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG22" s="3">
         <v>1</v>
@@ -3762,7 +3707,7 @@
         <v>0.9</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL22" s="3">
         <v>1</v>
@@ -3785,32 +3730,20 @@
       <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="3">
-        <v>101010010</v>
+      <c r="D23" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J23" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M23" s="3">
         <v>7</v>
@@ -3823,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R23" s="3">
         <v>1</v>
@@ -3836,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W23" s="3">
         <v>1</v>
@@ -3849,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB23" s="3">
         <v>1</v>
@@ -3862,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG23" s="3">
         <v>1</v>
@@ -3875,7 +3808,7 @@
         <v>1</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL23" s="3">
         <v>1</v>
@@ -3898,32 +3831,20 @@
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="3">
-        <v>101010010</v>
+      <c r="D24" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J24" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M24" s="3">
         <v>7</v>
@@ -3936,7 +3857,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R24" s="3">
         <v>1</v>
@@ -3949,7 +3870,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W24" s="3">
         <v>1</v>
@@ -3962,7 +3883,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB24" s="3">
         <v>1</v>
@@ -3975,7 +3896,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG24" s="3">
         <v>1</v>
@@ -3988,7 +3909,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL24" s="3">
         <v>1</v>
@@ -4011,32 +3932,20 @@
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="3">
-        <v>101010010</v>
+      <c r="D25" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J25" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M25" s="3">
         <v>7</v>
@@ -4049,7 +3958,7 @@
         <v>1.2</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R25" s="3">
         <v>1</v>
@@ -4062,7 +3971,7 @@
         <v>1.2</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W25" s="3">
         <v>1</v>
@@ -4075,7 +3984,7 @@
         <v>1.2</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB25" s="3">
         <v>1</v>
@@ -4088,7 +3997,7 @@
         <v>1.2</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG25" s="3">
         <v>1</v>
@@ -4101,7 +4010,7 @@
         <v>1.2</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL25" s="3">
         <v>1</v>
@@ -4124,32 +4033,20 @@
       <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3">
-        <v>101010010</v>
+      <c r="D26" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M26" s="3">
         <v>7</v>
@@ -4162,7 +4059,7 @@
         <v>1.3</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R26" s="3">
         <v>1</v>
@@ -4175,7 +4072,7 @@
         <v>1.3</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W26" s="3">
         <v>1</v>
@@ -4188,7 +4085,7 @@
         <v>1.3</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB26" s="3">
         <v>1</v>
@@ -4201,7 +4098,7 @@
         <v>1.3</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG26" s="3">
         <v>1</v>
@@ -4214,7 +4111,7 @@
         <v>1.3</v>
       </c>
       <c r="AK26" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL26" s="3">
         <v>1</v>
@@ -4237,32 +4134,20 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="3">
-        <v>101010010</v>
+      <c r="D27" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M27" s="3">
         <v>7</v>
@@ -4275,7 +4160,7 @@
         <v>1.4</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R27" s="3">
         <v>1</v>
@@ -4288,7 +4173,7 @@
         <v>1.4</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W27" s="3">
         <v>1</v>
@@ -4301,7 +4186,7 @@
         <v>1.4</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB27" s="3">
         <v>1</v>
@@ -4314,7 +4199,7 @@
         <v>1.4</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG27" s="3">
         <v>1</v>
@@ -4327,7 +4212,7 @@
         <v>1.4</v>
       </c>
       <c r="AK27" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL27" s="3">
         <v>1</v>
@@ -4350,32 +4235,20 @@
       <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="3">
-        <v>101010010</v>
+      <c r="D28" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J28" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M28" s="3">
         <v>7</v>
@@ -4388,7 +4261,7 @@
         <v>1.5</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R28" s="3">
         <v>1</v>
@@ -4401,7 +4274,7 @@
         <v>1.5</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W28" s="3">
         <v>1</v>
@@ -4414,7 +4287,7 @@
         <v>1.5</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB28" s="3">
         <v>1</v>
@@ -4427,7 +4300,7 @@
         <v>1.5</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG28" s="3">
         <v>1</v>
@@ -4440,7 +4313,7 @@
         <v>1.5</v>
       </c>
       <c r="AK28" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL28" s="3">
         <v>1</v>
@@ -4463,32 +4336,20 @@
       <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="3">
-        <v>101010010</v>
+      <c r="D29" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J29" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M29" s="3">
         <v>7</v>
@@ -4501,7 +4362,7 @@
         <v>1.6</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R29" s="3">
         <v>1</v>
@@ -4514,7 +4375,7 @@
         <v>1.6</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W29" s="3">
         <v>1</v>
@@ -4527,7 +4388,7 @@
         <v>1.6</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB29" s="3">
         <v>1</v>
@@ -4540,7 +4401,7 @@
         <v>1.6</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG29" s="3">
         <v>1</v>
@@ -4553,7 +4414,7 @@
         <v>1.6</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL29" s="3">
         <v>1</v>
@@ -4574,34 +4435,22 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="3">
-        <v>101010010</v>
+        <v>131</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J30" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M30" s="3">
         <v>7</v>
@@ -4614,7 +4463,7 @@
         <v>1.7</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R30" s="3">
         <v>1</v>
@@ -4627,7 +4476,7 @@
         <v>1.7</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W30" s="3">
         <v>1</v>
@@ -4640,7 +4489,7 @@
         <v>1.7</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB30" s="3">
         <v>1</v>
@@ -4653,7 +4502,7 @@
         <v>1.7</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG30" s="3">
         <v>1</v>
@@ -4666,7 +4515,7 @@
         <v>1.7</v>
       </c>
       <c r="AK30" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL30" s="3">
         <v>1</v>
@@ -4687,34 +4536,22 @@
         <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="3">
-        <v>101010010</v>
+        <v>132</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M31" s="3">
         <v>7</v>
@@ -4727,7 +4564,7 @@
         <v>1.8</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R31" s="3">
         <v>1</v>
@@ -4740,7 +4577,7 @@
         <v>1.8</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W31" s="3">
         <v>1</v>
@@ -4753,7 +4590,7 @@
         <v>1.8</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB31" s="3">
         <v>1</v>
@@ -4766,7 +4603,7 @@
         <v>1.8</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG31" s="3">
         <v>1</v>
@@ -4779,7 +4616,7 @@
         <v>1.8</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL31" s="3">
         <v>1</v>
@@ -4800,34 +4637,22 @@
         <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="3">
-        <v>101010010</v>
+        <v>133</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J32" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M32" s="3">
         <v>7</v>
@@ -4840,7 +4665,7 @@
         <v>1.9</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R32" s="3">
         <v>1</v>
@@ -4853,7 +4678,7 @@
         <v>1.9</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W32" s="3">
         <v>1</v>
@@ -4866,7 +4691,7 @@
         <v>1.9</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB32" s="3">
         <v>1</v>
@@ -4879,7 +4704,7 @@
         <v>1.9</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG32" s="3">
         <v>1</v>
@@ -4892,7 +4717,7 @@
         <v>1.9</v>
       </c>
       <c r="AK32" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL32" s="3">
         <v>1</v>
@@ -4913,34 +4738,22 @@
         <v>29</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="3">
-        <v>101010010</v>
+        <v>134</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H33" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J33" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M33" s="3">
         <v>7</v>
@@ -4953,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R33" s="3">
         <v>1</v>
@@ -4966,7 +4779,7 @@
         <v>2</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W33" s="3">
         <v>1</v>
@@ -4979,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB33" s="3">
         <v>1</v>
@@ -4992,7 +4805,7 @@
         <v>2</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG33" s="3">
         <v>1</v>
@@ -5005,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="AK33" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL33" s="3">
         <v>1</v>
@@ -5026,34 +4839,22 @@
         <v>30</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="3">
-        <v>101010010</v>
+        <v>135</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="3">
-        <v>101020010</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H34" s="3">
-        <v>101030010</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J34" s="3">
-        <v>102010010</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="3" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="M34" s="3">
         <v>7</v>
@@ -5066,7 +4867,7 @@
         <v>2.25</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="R34" s="3">
         <v>1</v>
@@ -5079,7 +4880,7 @@
         <v>2.25</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="W34" s="3">
         <v>1</v>
@@ -5092,7 +4893,7 @@
         <v>2.25</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="AB34" s="3">
         <v>1</v>
@@ -5105,7 +4906,7 @@
         <v>2.25</v>
       </c>
       <c r="AF34" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AG34" s="3">
         <v>1</v>
@@ -5118,7 +4919,7 @@
         <v>2.25</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="AL34" s="3">
         <v>1</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C35853-630C-46D4-81F0-B31E6AC7633D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64BF04-ADE0-45A9-A048-A2D22A048B53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="236">
   <si>
     <t>sheet名</t>
   </si>
@@ -828,6 +828,50 @@
   </si>
   <si>
     <t>主舰2突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[1].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[3].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[3].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[4].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[4].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[5].id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[5].valv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1403,24 +1447,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05975AF-CE51-4201-9F68-A63B42E94591}">
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AY34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="11" width="18.125" customWidth="1"/>
-    <col min="12" max="41" width="12" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
+    <col min="15" max="15" width="20.875" customWidth="1"/>
+    <col min="16" max="19" width="18.125" customWidth="1"/>
+    <col min="20" max="20" width="17.625" customWidth="1"/>
+    <col min="21" max="21" width="18.125" customWidth="1"/>
+    <col min="22" max="51" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>129</v>
       </c>
@@ -1431,121 +1486,151 @@
         <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -1556,58 +1641,58 @@
         <v>72</v>
       </c>
       <c r="D2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" t="s">
+        <v>235</v>
+      </c>
+      <c r="K2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L2" t="s">
+        <v>235</v>
+      </c>
+      <c r="M2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
+      <c r="P2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="Q2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="R2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
         <v>71</v>
       </c>
-      <c r="K2" t="s">
+      <c r="U2" t="s">
         <v>70</v>
-      </c>
-      <c r="L2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" t="s">
-        <v>67</v>
       </c>
       <c r="V2" t="s">
         <v>69</v>
@@ -1669,8 +1754,38 @@
       <c r="AO2" t="s">
         <v>67</v>
       </c>
+      <c r="AP2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>130</v>
       </c>
@@ -1680,122 +1795,132 @@
       <c r="C3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1843,8 +1968,18 @@
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
       <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1854,53 +1989,53 @@
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>13</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>14</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M5" s="3">
+      <c r="W5" s="3">
         <v>7</v>
-      </c>
-      <c r="N5" s="3">
-        <v>3</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R5" s="3">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
-        <v>3</v>
-      </c>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W5" s="3">
-        <v>1</v>
       </c>
       <c r="X5" s="3">
         <v>3</v>
@@ -1910,7 +2045,7 @@
         <v>0.02</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB5" s="3">
         <v>1</v>
@@ -1923,7 +2058,7 @@
         <v>0.02</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG5" s="3">
         <v>1</v>
@@ -1936,7 +2071,7 @@
         <v>0.02</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL5" s="3">
         <v>1</v>
@@ -1948,8 +2083,34 @@
       <c r="AO5" s="3">
         <v>0.02</v>
       </c>
+      <c r="AP5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1959,61 +2120,61 @@
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M6" s="3">
+      <c r="W6" s="3">
         <v>7</v>
-      </c>
-      <c r="N6" s="3">
-        <v>3</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="S6" s="3">
-        <v>3</v>
-      </c>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W6" s="3">
-        <v>1</v>
       </c>
       <c r="X6" s="3">
         <v>3</v>
@@ -2023,7 +2184,7 @@
         <v>0.05</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB6" s="3">
         <v>1</v>
@@ -2036,7 +2197,7 @@
         <v>0.05</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG6" s="3">
         <v>1</v>
@@ -2049,7 +2210,7 @@
         <v>0.05</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL6" s="3">
         <v>1</v>
@@ -2061,8 +2222,34 @@
       <c r="AO6" s="3">
         <v>0.05</v>
       </c>
+      <c r="AP6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2072,61 +2259,61 @@
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>14</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="3">
+      <c r="W7" s="3">
         <v>7</v>
-      </c>
-      <c r="N7" s="3">
-        <v>3</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-      <c r="S7" s="3">
-        <v>3</v>
-      </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W7" s="3">
-        <v>1</v>
       </c>
       <c r="X7" s="3">
         <v>3</v>
@@ -2136,7 +2323,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB7" s="3">
         <v>1</v>
@@ -2149,7 +2336,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG7" s="3">
         <v>1</v>
@@ -2162,7 +2349,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL7" s="3">
         <v>1</v>
@@ -2174,8 +2361,34 @@
       <c r="AO7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AP7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2185,53 +2398,53 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="3">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>14</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="3">
+      <c r="W8" s="3">
         <v>7</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1</v>
       </c>
       <c r="X8" s="3">
         <v>3</v>
@@ -2241,7 +2454,7 @@
         <v>0.1</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB8" s="3">
         <v>1</v>
@@ -2254,7 +2467,7 @@
         <v>0.1</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG8" s="3">
         <v>1</v>
@@ -2267,7 +2480,7 @@
         <v>0.1</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL8" s="3">
         <v>1</v>
@@ -2279,8 +2492,34 @@
       <c r="AO8" s="3">
         <v>0.1</v>
       </c>
+      <c r="AP8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2290,51 +2529,51 @@
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
+        <v>14</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="S9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="3">
+      <c r="W9" s="3">
         <v>7</v>
-      </c>
-      <c r="N9" s="3">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1</v>
       </c>
       <c r="X9" s="3">
         <v>3</v>
@@ -2344,7 +2583,7 @@
         <v>0.15</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB9" s="3">
         <v>1</v>
@@ -2357,7 +2596,7 @@
         <v>0.15</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG9" s="3">
         <v>1</v>
@@ -2370,7 +2609,7 @@
         <v>0.15</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL9" s="3">
         <v>1</v>
@@ -2382,8 +2621,34 @@
       <c r="AO9" s="3">
         <v>0.15</v>
       </c>
+      <c r="AP9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2393,61 +2658,61 @@
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3">
+        <v>6</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="3">
+      <c r="W10" s="3">
         <v>7</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1</v>
-      </c>
-      <c r="S10" s="3">
-        <v>3</v>
-      </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W10" s="3">
-        <v>1</v>
       </c>
       <c r="X10" s="3">
         <v>3</v>
@@ -2457,7 +2722,7 @@
         <v>0.2</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB10" s="3">
         <v>1</v>
@@ -2470,7 +2735,7 @@
         <v>0.2</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG10" s="3">
         <v>1</v>
@@ -2483,7 +2748,7 @@
         <v>0.2</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL10" s="3">
         <v>1</v>
@@ -2495,8 +2760,34 @@
       <c r="AO10" s="3">
         <v>0.2</v>
       </c>
+      <c r="AP10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AU10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2506,53 +2797,53 @@
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="3">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3">
+        <v>7</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="3">
+      <c r="W11" s="3">
         <v>7</v>
-      </c>
-      <c r="N11" s="3">
-        <v>3</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R11" s="3">
-        <v>1</v>
-      </c>
-      <c r="S11" s="3">
-        <v>3</v>
-      </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W11" s="3">
-        <v>1</v>
       </c>
       <c r="X11" s="3">
         <v>3</v>
@@ -2562,7 +2853,7 @@
         <v>0.25</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB11" s="3">
         <v>1</v>
@@ -2575,7 +2866,7 @@
         <v>0.25</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG11" s="3">
         <v>1</v>
@@ -2588,7 +2879,7 @@
         <v>0.25</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL11" s="3">
         <v>1</v>
@@ -2600,8 +2891,34 @@
       <c r="AO11" s="3">
         <v>0.25</v>
       </c>
+      <c r="AP11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AU11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2611,57 +2928,57 @@
       <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14</v>
+      </c>
+      <c r="K12" s="3">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="3">
+      <c r="W12" s="3">
         <v>7</v>
-      </c>
-      <c r="N12" s="3">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1</v>
       </c>
       <c r="X12" s="3">
         <v>3</v>
@@ -2671,7 +2988,7 @@
         <v>0.35</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB12" s="3">
         <v>1</v>
@@ -2684,7 +3001,7 @@
         <v>0.35</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG12" s="3">
         <v>1</v>
@@ -2697,7 +3014,7 @@
         <v>0.35</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL12" s="3">
         <v>1</v>
@@ -2709,8 +3026,34 @@
       <c r="AO12" s="3">
         <v>0.35</v>
       </c>
+      <c r="AP12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="AU12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -2720,49 +3063,49 @@
       <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3">
+        <v>9</v>
+      </c>
+      <c r="J13" s="3">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3">
+        <v>9</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="3">
+      <c r="W13" s="3">
         <v>7</v>
-      </c>
-      <c r="N13" s="3">
-        <v>3</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R13" s="3">
-        <v>1</v>
-      </c>
-      <c r="S13" s="3">
-        <v>3</v>
-      </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W13" s="3">
-        <v>1</v>
       </c>
       <c r="X13" s="3">
         <v>3</v>
@@ -2772,7 +3115,7 @@
         <v>0.45</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB13" s="3">
         <v>1</v>
@@ -2785,7 +3128,7 @@
         <v>0.45</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG13" s="3">
         <v>1</v>
@@ -2798,7 +3141,7 @@
         <v>0.45</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL13" s="3">
         <v>1</v>
@@ -2810,8 +3153,34 @@
       <c r="AO13" s="3">
         <v>0.45</v>
       </c>
+      <c r="AP13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="AU13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2821,49 +3190,49 @@
       <c r="C14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
+        <v>13</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
+        <v>14</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M14" s="3">
+      <c r="W14" s="3">
         <v>7</v>
-      </c>
-      <c r="N14" s="3">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1</v>
-      </c>
-      <c r="S14" s="3">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W14" s="3">
-        <v>1</v>
       </c>
       <c r="X14" s="3">
         <v>3</v>
@@ -2873,7 +3242,7 @@
         <v>0.5</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB14" s="3">
         <v>1</v>
@@ -2886,7 +3255,7 @@
         <v>0.5</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG14" s="3">
         <v>1</v>
@@ -2899,7 +3268,7 @@
         <v>0.5</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL14" s="3">
         <v>1</v>
@@ -2911,8 +3280,34 @@
       <c r="AO14" s="3">
         <v>0.5</v>
       </c>
+      <c r="AP14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AU14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2922,49 +3317,49 @@
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M15" s="3">
+      <c r="W15" s="3">
         <v>7</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1</v>
-      </c>
-      <c r="S15" s="3">
-        <v>3</v>
-      </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W15" s="3">
-        <v>1</v>
       </c>
       <c r="X15" s="3">
         <v>3</v>
@@ -2974,7 +3369,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB15" s="3">
         <v>1</v>
@@ -2987,7 +3382,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG15" s="3">
         <v>1</v>
@@ -3000,7 +3395,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AK15" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL15" s="3">
         <v>1</v>
@@ -3012,8 +3407,34 @@
       <c r="AO15" s="3">
         <v>0.55000000000000004</v>
       </c>
+      <c r="AP15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AU15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3023,49 +3444,49 @@
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="3">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3">
+        <v>12</v>
+      </c>
+      <c r="J16" s="3">
+        <v>14</v>
+      </c>
+      <c r="K16" s="3">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="3">
+      <c r="W16" s="3">
         <v>7</v>
-      </c>
-      <c r="N16" s="3">
-        <v>3</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1</v>
-      </c>
-      <c r="S16" s="3">
-        <v>3</v>
-      </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W16" s="3">
-        <v>1</v>
       </c>
       <c r="X16" s="3">
         <v>3</v>
@@ -3075,7 +3496,7 @@
         <v>0.6</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB16" s="3">
         <v>1</v>
@@ -3088,7 +3509,7 @@
         <v>0.6</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG16" s="3">
         <v>1</v>
@@ -3101,7 +3522,7 @@
         <v>0.6</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL16" s="3">
         <v>1</v>
@@ -3113,8 +3534,34 @@
       <c r="AO16" s="3">
         <v>0.6</v>
       </c>
+      <c r="AP16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3124,49 +3571,49 @@
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="3">
+        <v>11</v>
+      </c>
+      <c r="E17" s="3">
+        <v>13</v>
+      </c>
+      <c r="F17" s="3">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3">
+        <v>13</v>
+      </c>
+      <c r="H17" s="3">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13</v>
+      </c>
+      <c r="J17" s="3">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3">
+        <v>13</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="3">
+      <c r="W17" s="3">
         <v>7</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1</v>
       </c>
       <c r="X17" s="3">
         <v>3</v>
@@ -3176,7 +3623,7 @@
         <v>0.65</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB17" s="3">
         <v>1</v>
@@ -3189,7 +3636,7 @@
         <v>0.65</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG17" s="3">
         <v>1</v>
@@ -3202,7 +3649,7 @@
         <v>0.65</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL17" s="3">
         <v>1</v>
@@ -3214,8 +3661,34 @@
       <c r="AO17" s="3">
         <v>0.65</v>
       </c>
+      <c r="AP17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="AU17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3225,49 +3698,49 @@
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="3">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3">
+        <v>14</v>
+      </c>
+      <c r="H18" s="3">
+        <v>13</v>
+      </c>
+      <c r="I18" s="3">
+        <v>14</v>
+      </c>
+      <c r="J18" s="3">
+        <v>14</v>
+      </c>
+      <c r="K18" s="3">
+        <v>14</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="3">
+      <c r="W18" s="3">
         <v>7</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1</v>
       </c>
       <c r="X18" s="3">
         <v>3</v>
@@ -3277,7 +3750,7 @@
         <v>0.7</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB18" s="3">
         <v>1</v>
@@ -3290,7 +3763,7 @@
         <v>0.7</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG18" s="3">
         <v>1</v>
@@ -3303,7 +3776,7 @@
         <v>0.7</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL18" s="3">
         <v>1</v>
@@ -3315,8 +3788,34 @@
       <c r="AO18" s="3">
         <v>0.7</v>
       </c>
+      <c r="AP18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="AU18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -3326,49 +3825,49 @@
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="3">
+        <v>11</v>
+      </c>
+      <c r="E19" s="3">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3">
+        <v>15</v>
+      </c>
+      <c r="H19" s="3">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="3">
+      <c r="W19" s="3">
         <v>7</v>
-      </c>
-      <c r="N19" s="3">
-        <v>3</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="3">
-        <v>3</v>
-      </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W19" s="3">
-        <v>1</v>
       </c>
       <c r="X19" s="3">
         <v>3</v>
@@ -3378,7 +3877,7 @@
         <v>0.75</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB19" s="3">
         <v>1</v>
@@ -3391,7 +3890,7 @@
         <v>0.75</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG19" s="3">
         <v>1</v>
@@ -3404,7 +3903,7 @@
         <v>0.75</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL19" s="3">
         <v>1</v>
@@ -3416,8 +3915,34 @@
       <c r="AO19" s="3">
         <v>0.75</v>
       </c>
+      <c r="AP19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AU19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3427,49 +3952,49 @@
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="3">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3">
+        <v>13</v>
+      </c>
+      <c r="I20" s="3">
+        <v>16</v>
+      </c>
+      <c r="J20" s="3">
+        <v>14</v>
+      </c>
+      <c r="K20" s="3">
+        <v>16</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3" t="s">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="3">
+      <c r="W20" s="3">
         <v>7</v>
-      </c>
-      <c r="N20" s="3">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1</v>
-      </c>
-      <c r="S20" s="3">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1</v>
       </c>
       <c r="X20" s="3">
         <v>3</v>
@@ -3479,7 +4004,7 @@
         <v>0.8</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB20" s="3">
         <v>1</v>
@@ -3492,7 +4017,7 @@
         <v>0.8</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG20" s="3">
         <v>1</v>
@@ -3505,7 +4030,7 @@
         <v>0.8</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL20" s="3">
         <v>1</v>
@@ -3517,8 +4042,34 @@
       <c r="AO20" s="3">
         <v>0.8</v>
       </c>
+      <c r="AP20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="AU20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -3528,49 +4079,49 @@
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="3">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>17</v>
+      </c>
+      <c r="H21" s="3">
+        <v>13</v>
+      </c>
+      <c r="I21" s="3">
+        <v>17</v>
+      </c>
+      <c r="J21" s="3">
+        <v>14</v>
+      </c>
+      <c r="K21" s="3">
+        <v>17</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3" t="s">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="3">
+      <c r="W21" s="3">
         <v>7</v>
-      </c>
-      <c r="N21" s="3">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W21" s="3">
-        <v>1</v>
       </c>
       <c r="X21" s="3">
         <v>3</v>
@@ -3580,7 +4131,7 @@
         <v>0.85</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB21" s="3">
         <v>1</v>
@@ -3593,7 +4144,7 @@
         <v>0.85</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG21" s="3">
         <v>1</v>
@@ -3606,7 +4157,7 @@
         <v>0.85</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL21" s="3">
         <v>1</v>
@@ -3618,8 +4169,34 @@
       <c r="AO21" s="3">
         <v>0.85</v>
       </c>
+      <c r="AP21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="AU21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW21" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3629,49 +4206,49 @@
       <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3">
+        <v>18</v>
+      </c>
+      <c r="F22" s="3">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
+        <v>18</v>
+      </c>
+      <c r="H22" s="3">
+        <v>13</v>
+      </c>
+      <c r="I22" s="3">
+        <v>18</v>
+      </c>
+      <c r="J22" s="3">
+        <v>14</v>
+      </c>
+      <c r="K22" s="3">
+        <v>18</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3" t="s">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="3">
+      <c r="W22" s="3">
         <v>7</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W22" s="3">
-        <v>1</v>
       </c>
       <c r="X22" s="3">
         <v>3</v>
@@ -3681,7 +4258,7 @@
         <v>0.9</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB22" s="3">
         <v>1</v>
@@ -3694,7 +4271,7 @@
         <v>0.9</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG22" s="3">
         <v>1</v>
@@ -3707,7 +4284,7 @@
         <v>0.9</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL22" s="3">
         <v>1</v>
@@ -3719,8 +4296,34 @@
       <c r="AO22" s="3">
         <v>0.9</v>
       </c>
+      <c r="AP22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="AU22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3730,49 +4333,49 @@
       <c r="C23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="3">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3">
+        <v>19</v>
+      </c>
+      <c r="H23" s="3">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3" t="s">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M23" s="3">
+      <c r="W23" s="3">
         <v>7</v>
-      </c>
-      <c r="N23" s="3">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3">
-        <v>1</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1</v>
       </c>
       <c r="X23" s="3">
         <v>3</v>
@@ -3782,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB23" s="3">
         <v>1</v>
@@ -3795,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG23" s="3">
         <v>1</v>
@@ -3808,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL23" s="3">
         <v>1</v>
@@ -3820,8 +4423,34 @@
       <c r="AO23" s="3">
         <v>1</v>
       </c>
+      <c r="AP23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW23" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3831,49 +4460,49 @@
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3">
+        <v>20</v>
+      </c>
+      <c r="H24" s="3">
+        <v>13</v>
+      </c>
+      <c r="I24" s="3">
+        <v>20</v>
+      </c>
+      <c r="J24" s="3">
+        <v>14</v>
+      </c>
+      <c r="K24" s="3">
+        <v>20</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M24" s="3">
+      <c r="W24" s="3">
         <v>7</v>
-      </c>
-      <c r="N24" s="3">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W24" s="3">
-        <v>1</v>
       </c>
       <c r="X24" s="3">
         <v>3</v>
@@ -3883,7 +4512,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB24" s="3">
         <v>1</v>
@@ -3896,7 +4525,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG24" s="3">
         <v>1</v>
@@ -3909,7 +4538,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL24" s="3">
         <v>1</v>
@@ -3921,8 +4550,34 @@
       <c r="AO24" s="3">
         <v>1.1000000000000001</v>
       </c>
+      <c r="AP24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AU24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -3932,49 +4587,49 @@
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="3">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3">
+        <v>21</v>
+      </c>
+      <c r="F25" s="3">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>21</v>
+      </c>
+      <c r="H25" s="3">
+        <v>13</v>
+      </c>
+      <c r="I25" s="3">
+        <v>21</v>
+      </c>
+      <c r="J25" s="3">
+        <v>14</v>
+      </c>
+      <c r="K25" s="3">
+        <v>21</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="3">
+      <c r="W25" s="3">
         <v>7</v>
-      </c>
-      <c r="N25" s="3">
-        <v>3</v>
-      </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R25" s="3">
-        <v>1</v>
-      </c>
-      <c r="S25" s="3">
-        <v>3</v>
-      </c>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W25" s="3">
-        <v>1</v>
       </c>
       <c r="X25" s="3">
         <v>3</v>
@@ -3984,7 +4639,7 @@
         <v>1.2</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB25" s="3">
         <v>1</v>
@@ -3997,7 +4652,7 @@
         <v>1.2</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG25" s="3">
         <v>1</v>
@@ -4010,7 +4665,7 @@
         <v>1.2</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL25" s="3">
         <v>1</v>
@@ -4022,8 +4677,34 @@
       <c r="AO25" s="3">
         <v>1.2</v>
       </c>
+      <c r="AP25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="AU25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -4033,49 +4714,49 @@
       <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="3">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3">
+        <v>22</v>
+      </c>
+      <c r="H26" s="3">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3">
+        <v>22</v>
+      </c>
+      <c r="J26" s="3">
+        <v>14</v>
+      </c>
+      <c r="K26" s="3">
+        <v>22</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3" t="s">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M26" s="3">
+      <c r="W26" s="3">
         <v>7</v>
-      </c>
-      <c r="N26" s="3">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1</v>
-      </c>
-      <c r="S26" s="3">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W26" s="3">
-        <v>1</v>
       </c>
       <c r="X26" s="3">
         <v>3</v>
@@ -4085,7 +4766,7 @@
         <v>1.3</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB26" s="3">
         <v>1</v>
@@ -4098,7 +4779,7 @@
         <v>1.3</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG26" s="3">
         <v>1</v>
@@ -4111,7 +4792,7 @@
         <v>1.3</v>
       </c>
       <c r="AK26" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL26" s="3">
         <v>1</v>
@@ -4123,8 +4804,34 @@
       <c r="AO26" s="3">
         <v>1.3</v>
       </c>
+      <c r="AP26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="AU26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -4134,49 +4841,49 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="3">
+        <v>11</v>
+      </c>
+      <c r="E27" s="3">
+        <v>23</v>
+      </c>
+      <c r="F27" s="3">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3">
+        <v>23</v>
+      </c>
+      <c r="H27" s="3">
+        <v>13</v>
+      </c>
+      <c r="I27" s="3">
+        <v>23</v>
+      </c>
+      <c r="J27" s="3">
+        <v>14</v>
+      </c>
+      <c r="K27" s="3">
+        <v>23</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3" t="s">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M27" s="3">
+      <c r="W27" s="3">
         <v>7</v>
-      </c>
-      <c r="N27" s="3">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1</v>
-      </c>
-      <c r="S27" s="3">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W27" s="3">
-        <v>1</v>
       </c>
       <c r="X27" s="3">
         <v>3</v>
@@ -4186,7 +4893,7 @@
         <v>1.4</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB27" s="3">
         <v>1</v>
@@ -4199,7 +4906,7 @@
         <v>1.4</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG27" s="3">
         <v>1</v>
@@ -4212,7 +4919,7 @@
         <v>1.4</v>
       </c>
       <c r="AK27" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL27" s="3">
         <v>1</v>
@@ -4224,8 +4931,34 @@
       <c r="AO27" s="3">
         <v>1.4</v>
       </c>
+      <c r="AP27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="AU27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -4235,49 +4968,49 @@
       <c r="C28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="3">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3">
+        <v>24</v>
+      </c>
+      <c r="F28" s="3">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <v>24</v>
+      </c>
+      <c r="H28" s="3">
+        <v>13</v>
+      </c>
+      <c r="I28" s="3">
+        <v>24</v>
+      </c>
+      <c r="J28" s="3">
+        <v>14</v>
+      </c>
+      <c r="K28" s="3">
+        <v>24</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3" t="s">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M28" s="3">
+      <c r="W28" s="3">
         <v>7</v>
-      </c>
-      <c r="N28" s="3">
-        <v>3</v>
-      </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R28" s="3">
-        <v>1</v>
-      </c>
-      <c r="S28" s="3">
-        <v>3</v>
-      </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W28" s="3">
-        <v>1</v>
       </c>
       <c r="X28" s="3">
         <v>3</v>
@@ -4287,7 +5020,7 @@
         <v>1.5</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB28" s="3">
         <v>1</v>
@@ -4300,7 +5033,7 @@
         <v>1.5</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG28" s="3">
         <v>1</v>
@@ -4313,7 +5046,7 @@
         <v>1.5</v>
       </c>
       <c r="AK28" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL28" s="3">
         <v>1</v>
@@ -4325,8 +5058,34 @@
       <c r="AO28" s="3">
         <v>1.5</v>
       </c>
+      <c r="AP28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="AU28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -4336,49 +5095,49 @@
       <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3">
+        <v>25</v>
+      </c>
+      <c r="F29" s="3">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>25</v>
+      </c>
+      <c r="H29" s="3">
+        <v>13</v>
+      </c>
+      <c r="I29" s="3">
+        <v>25</v>
+      </c>
+      <c r="J29" s="3">
+        <v>14</v>
+      </c>
+      <c r="K29" s="3">
+        <v>25</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="3">
+      <c r="W29" s="3">
         <v>7</v>
-      </c>
-      <c r="N29" s="3">
-        <v>3</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R29" s="3">
-        <v>1</v>
-      </c>
-      <c r="S29" s="3">
-        <v>3</v>
-      </c>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W29" s="3">
-        <v>1</v>
       </c>
       <c r="X29" s="3">
         <v>3</v>
@@ -4388,7 +5147,7 @@
         <v>1.6</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB29" s="3">
         <v>1</v>
@@ -4401,7 +5160,7 @@
         <v>1.6</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG29" s="3">
         <v>1</v>
@@ -4414,7 +5173,7 @@
         <v>1.6</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL29" s="3">
         <v>1</v>
@@ -4426,8 +5185,34 @@
       <c r="AO29" s="3">
         <v>1.6</v>
       </c>
+      <c r="AP29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="AU29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3">
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -4437,49 +5222,49 @@
       <c r="C30" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="3">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3">
+        <v>26</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
+        <v>26</v>
+      </c>
+      <c r="H30" s="3">
+        <v>13</v>
+      </c>
+      <c r="I30" s="3">
+        <v>26</v>
+      </c>
+      <c r="J30" s="3">
+        <v>14</v>
+      </c>
+      <c r="K30" s="3">
+        <v>26</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M30" s="3">
+      <c r="W30" s="3">
         <v>7</v>
-      </c>
-      <c r="N30" s="3">
-        <v>3</v>
-      </c>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R30" s="3">
-        <v>1</v>
-      </c>
-      <c r="S30" s="3">
-        <v>3</v>
-      </c>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W30" s="3">
-        <v>1</v>
       </c>
       <c r="X30" s="3">
         <v>3</v>
@@ -4489,7 +5274,7 @@
         <v>1.7</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB30" s="3">
         <v>1</v>
@@ -4502,7 +5287,7 @@
         <v>1.7</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG30" s="3">
         <v>1</v>
@@ -4515,7 +5300,7 @@
         <v>1.7</v>
       </c>
       <c r="AK30" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL30" s="3">
         <v>1</v>
@@ -4527,8 +5312,34 @@
       <c r="AO30" s="3">
         <v>1.7</v>
       </c>
+      <c r="AP30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="AU30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -4538,49 +5349,49 @@
       <c r="C31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="3">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3">
+        <v>27</v>
+      </c>
+      <c r="F31" s="3">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3">
+        <v>27</v>
+      </c>
+      <c r="H31" s="3">
+        <v>13</v>
+      </c>
+      <c r="I31" s="3">
+        <v>27</v>
+      </c>
+      <c r="J31" s="3">
+        <v>14</v>
+      </c>
+      <c r="K31" s="3">
+        <v>27</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3" t="s">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M31" s="3">
+      <c r="W31" s="3">
         <v>7</v>
-      </c>
-      <c r="N31" s="3">
-        <v>3</v>
-      </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R31" s="3">
-        <v>1</v>
-      </c>
-      <c r="S31" s="3">
-        <v>3</v>
-      </c>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="V31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W31" s="3">
-        <v>1</v>
       </c>
       <c r="X31" s="3">
         <v>3</v>
@@ -4590,7 +5401,7 @@
         <v>1.8</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB31" s="3">
         <v>1</v>
@@ -4603,7 +5414,7 @@
         <v>1.8</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG31" s="3">
         <v>1</v>
@@ -4616,7 +5427,7 @@
         <v>1.8</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL31" s="3">
         <v>1</v>
@@ -4628,8 +5439,34 @@
       <c r="AO31" s="3">
         <v>1.8</v>
       </c>
+      <c r="AP31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="AU31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -4639,49 +5476,49 @@
       <c r="C32" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="3">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3">
+        <v>28</v>
+      </c>
+      <c r="F32" s="3">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3">
+        <v>28</v>
+      </c>
+      <c r="H32" s="3">
+        <v>13</v>
+      </c>
+      <c r="I32" s="3">
+        <v>28</v>
+      </c>
+      <c r="J32" s="3">
+        <v>14</v>
+      </c>
+      <c r="K32" s="3">
+        <v>28</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3" t="s">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M32" s="3">
+      <c r="W32" s="3">
         <v>7</v>
-      </c>
-      <c r="N32" s="3">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1</v>
-      </c>
-      <c r="S32" s="3">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1</v>
       </c>
       <c r="X32" s="3">
         <v>3</v>
@@ -4691,7 +5528,7 @@
         <v>1.9</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB32" s="3">
         <v>1</v>
@@ -4704,7 +5541,7 @@
         <v>1.9</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG32" s="3">
         <v>1</v>
@@ -4717,7 +5554,7 @@
         <v>1.9</v>
       </c>
       <c r="AK32" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL32" s="3">
         <v>1</v>
@@ -4729,8 +5566,34 @@
       <c r="AO32" s="3">
         <v>1.9</v>
       </c>
+      <c r="AP32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="AU32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX32" s="3"/>
+      <c r="AY32" s="3">
+        <v>1.9</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -4740,49 +5603,49 @@
       <c r="C33" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="3">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3">
+        <v>29</v>
+      </c>
+      <c r="F33" s="3">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3">
+        <v>29</v>
+      </c>
+      <c r="H33" s="3">
+        <v>13</v>
+      </c>
+      <c r="I33" s="3">
+        <v>29</v>
+      </c>
+      <c r="J33" s="3">
+        <v>14</v>
+      </c>
+      <c r="K33" s="3">
+        <v>29</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3" t="s">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M33" s="3">
+      <c r="W33" s="3">
         <v>7</v>
-      </c>
-      <c r="N33" s="3">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1</v>
-      </c>
-      <c r="S33" s="3">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3">
-        <v>2</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W33" s="3">
-        <v>1</v>
       </c>
       <c r="X33" s="3">
         <v>3</v>
@@ -4792,7 +5655,7 @@
         <v>2</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB33" s="3">
         <v>1</v>
@@ -4805,7 +5668,7 @@
         <v>2</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG33" s="3">
         <v>1</v>
@@ -4818,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="AK33" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL33" s="3">
         <v>1</v>
@@ -4830,8 +5693,34 @@
       <c r="AO33" s="3">
         <v>2</v>
       </c>
+      <c r="AP33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW33" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX33" s="3"/>
+      <c r="AY33" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -4841,49 +5730,49 @@
       <c r="C34" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="3">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3">
+        <v>30</v>
+      </c>
+      <c r="F34" s="3">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3">
+        <v>30</v>
+      </c>
+      <c r="H34" s="3">
+        <v>13</v>
+      </c>
+      <c r="I34" s="3">
+        <v>30</v>
+      </c>
+      <c r="J34" s="3">
+        <v>14</v>
+      </c>
+      <c r="K34" s="3">
+        <v>30</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3" t="s">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M34" s="3">
+      <c r="W34" s="3">
         <v>7</v>
-      </c>
-      <c r="N34" s="3">
-        <v>3</v>
-      </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R34" s="3">
-        <v>1</v>
-      </c>
-      <c r="S34" s="3">
-        <v>3</v>
-      </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="W34" s="3">
-        <v>1</v>
       </c>
       <c r="X34" s="3">
         <v>3</v>
@@ -4893,7 +5782,7 @@
         <v>2.25</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB34" s="3">
         <v>1</v>
@@ -4906,7 +5795,7 @@
         <v>2.25</v>
       </c>
       <c r="AF34" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AG34" s="3">
         <v>1</v>
@@ -4919,7 +5808,7 @@
         <v>2.25</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL34" s="3">
         <v>1</v>
@@ -4929,6 +5818,32 @@
       </c>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="AP34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR34" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="AU34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW34" s="3">
+        <v>3</v>
+      </c>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3">
         <v>2.25</v>
       </c>
     </row>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -1,903 +1,1036 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED64BF04-ADE0-45A9-A048-A2D22A048B53}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="军阶" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
+    <t>屏蔽字段</t>
+  </si>
+  <si>
+    <t>表注释</t>
+  </si>
+  <si>
     <t>是否导出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏蔽字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表注释</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>军阶</t>
+  </si>
+  <si>
+    <t>mr.json</t>
+  </si>
+  <si>
+    <t>rowId</t>
+  </si>
+  <si>
+    <t>军阶的配置表</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>award[1].id</t>
+  </si>
+  <si>
+    <t>award[1].valv</t>
+  </si>
+  <si>
+    <t>award[2].id</t>
+  </si>
+  <si>
+    <t>award[2].valv</t>
+  </si>
+  <si>
+    <t>award[3].id</t>
+  </si>
+  <si>
+    <t>award[3].valv</t>
+  </si>
+  <si>
+    <t>award[4].id</t>
+  </si>
+  <si>
+    <t>award[4].valv</t>
+  </si>
+  <si>
+    <t>award[5].id</t>
+  </si>
+  <si>
+    <t>award[5].valv</t>
+  </si>
+  <si>
+    <t>achieveId[1].id</t>
+  </si>
+  <si>
+    <t>achieveId[1].desc</t>
+  </si>
+  <si>
+    <t>achieveId[2].id</t>
+  </si>
+  <si>
+    <t>achieveId[2].desc</t>
+  </si>
+  <si>
+    <t>achieveId[3].id</t>
+  </si>
+  <si>
+    <t>achieveId[3].desc</t>
+  </si>
+  <si>
+    <t>achieveId[4].id</t>
+  </si>
+  <si>
+    <t>achieveId[4].desc</t>
+  </si>
+  <si>
+    <t>attr[1].id</t>
+  </si>
+  <si>
+    <t>attr[1].tar</t>
+  </si>
+  <si>
+    <t>attr[1].slot</t>
+  </si>
+  <si>
+    <t>attr[1].valw</t>
+  </si>
+  <si>
+    <t>attr[1].valv</t>
+  </si>
+  <si>
+    <t>attr[2].id</t>
+  </si>
+  <si>
+    <t>attr[2].tar</t>
+  </si>
+  <si>
+    <t>attr[2].slot</t>
+  </si>
+  <si>
+    <t>attr[2].valw</t>
+  </si>
+  <si>
+    <t>attr[2].valv</t>
+  </si>
+  <si>
+    <t>attr[3].id</t>
+  </si>
+  <si>
+    <t>attr[3].tar</t>
+  </si>
+  <si>
+    <t>attr[3].slot</t>
+  </si>
+  <si>
+    <t>attr[3].valw</t>
+  </si>
+  <si>
+    <t>attr[3].valv</t>
+  </si>
+  <si>
+    <t>attr[4].id</t>
+  </si>
+  <si>
+    <t>attr[4].tar</t>
+  </si>
+  <si>
+    <t>attr[4].slot</t>
+  </si>
+  <si>
+    <t>attr[4].valw</t>
+  </si>
+  <si>
+    <t>attr[4].valv</t>
+  </si>
+  <si>
+    <t>attr[5].id</t>
+  </si>
+  <si>
+    <t>attr[5].tar</t>
+  </si>
+  <si>
+    <t>attr[5].slot</t>
+  </si>
+  <si>
+    <t>attr[5].valw</t>
+  </si>
+  <si>
+    <t>attr[5].valv</t>
+  </si>
+  <si>
+    <t>attr[6].id</t>
+  </si>
+  <si>
+    <t>attr[6].tar</t>
+  </si>
+  <si>
+    <t>attr[6].slot</t>
+  </si>
+  <si>
+    <t>attr[6].valw</t>
+  </si>
+  <si>
+    <t>attr[6].valv</t>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>achieve_id:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>attr_id:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>行ID</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>军阶名</t>
+  </si>
+  <si>
+    <t>成就ID1</t>
+  </si>
+  <si>
+    <t>成就描述1</t>
+  </si>
+  <si>
+    <t>成就ID2</t>
+  </si>
+  <si>
+    <t>成就描述2</t>
+  </si>
+  <si>
+    <t>成就ID3</t>
+  </si>
+  <si>
+    <t>成就描述3</t>
+  </si>
+  <si>
+    <t>成就ID4</t>
+  </si>
+  <si>
+    <t>成就描述4</t>
+  </si>
+  <si>
+    <t>属性1ID</t>
+  </si>
+  <si>
+    <t>属性1目标</t>
+  </si>
+  <si>
+    <t>属性1槽</t>
+  </si>
+  <si>
+    <t>属性1权重</t>
+  </si>
+  <si>
+    <t>属性1价值</t>
+  </si>
+  <si>
+    <t>属性2ID</t>
+  </si>
+  <si>
+    <t>属性2目标</t>
+  </si>
+  <si>
+    <t>属性2槽</t>
+  </si>
+  <si>
+    <t>属性2权重</t>
+  </si>
+  <si>
+    <t>属性2价值</t>
+  </si>
+  <si>
+    <t>属性3ID</t>
+  </si>
+  <si>
+    <t>属性3目标</t>
+  </si>
+  <si>
+    <t>属性3槽</t>
+  </si>
+  <si>
+    <t>属性3权重</t>
+  </si>
+  <si>
+    <t>属性3价值</t>
+  </si>
+  <si>
+    <t>属性4ID</t>
+  </si>
+  <si>
+    <t>属性4目标</t>
+  </si>
+  <si>
+    <t>属性4槽</t>
+  </si>
+  <si>
+    <t>属性4权重</t>
+  </si>
+  <si>
+    <t>属性4价值</t>
+  </si>
+  <si>
+    <t>属性5ID</t>
+  </si>
+  <si>
+    <t>属性5目标</t>
+  </si>
+  <si>
+    <t>属性5槽</t>
+  </si>
+  <si>
+    <t>属性5权重</t>
+  </si>
+  <si>
+    <t>属性5价值</t>
+  </si>
+  <si>
+    <t>属性6ID</t>
+  </si>
+  <si>
+    <t>属性6目标</t>
+  </si>
+  <si>
+    <t>属性6槽</t>
+  </si>
+  <si>
+    <t>属性6权重</t>
+  </si>
+  <si>
+    <t>属性6价值</t>
+  </si>
+  <si>
+    <t>新兵</t>
+  </si>
+  <si>
+    <t>2等兵</t>
+  </si>
+  <si>
+    <t>主舰10级</t>
+  </si>
+  <si>
+    <t>主舰升级到10级</t>
+  </si>
+  <si>
+    <t>主舰1突</t>
+  </si>
+  <si>
+    <t>主舰突破1级</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>shieldRg</t>
+  </si>
+  <si>
+    <t>gready</t>
+  </si>
+  <si>
+    <t>1等兵</t>
+  </si>
+  <si>
+    <t>通过20关</t>
+  </si>
+  <si>
+    <t>通关第2章</t>
+  </si>
+  <si>
+    <t>导弹炮1突</t>
+  </si>
+  <si>
+    <t>核能初体验</t>
+  </si>
+  <si>
+    <t>释放两次核子过载</t>
+  </si>
+  <si>
+    <t>下士</t>
+  </si>
+  <si>
+    <t>通过30关</t>
+  </si>
+  <si>
+    <t>通关第3章</t>
+  </si>
+  <si>
+    <t>装备抽取</t>
+  </si>
+  <si>
+    <t>进行一次装备抽</t>
+  </si>
+  <si>
+    <t>花费金币1M</t>
+  </si>
+  <si>
+    <t>中士</t>
+  </si>
+  <si>
+    <t>通过40关</t>
+  </si>
+  <si>
+    <t>通关第4章</t>
+  </si>
+  <si>
+    <t>主舰核能1</t>
+  </si>
+  <si>
+    <t>核能到1级</t>
+  </si>
+  <si>
+    <t>主舰2突</t>
+  </si>
+  <si>
+    <t>参谋军士</t>
+  </si>
+  <si>
+    <t>通过50关</t>
+  </si>
+  <si>
+    <t>通关第5章</t>
+  </si>
+  <si>
+    <t>合成装备</t>
+  </si>
+  <si>
+    <t>进行1次装备合成</t>
+  </si>
+  <si>
+    <t>花费金币5M</t>
+  </si>
+  <si>
+    <t>装备晶片2</t>
+  </si>
+  <si>
+    <t>装备一件2级晶片</t>
+  </si>
+  <si>
+    <t>上士</t>
+  </si>
+  <si>
+    <t>通过60关</t>
+  </si>
+  <si>
+    <t>通关第6章</t>
+  </si>
+  <si>
+    <t>晶片总等级5级</t>
+  </si>
+  <si>
+    <t>晶片总等级到5级</t>
+  </si>
+  <si>
+    <t>解锁瞭炮</t>
+  </si>
+  <si>
+    <t>解锁激光炮</t>
+  </si>
+  <si>
+    <t>主舰3突</t>
+  </si>
+  <si>
+    <t>1级士官</t>
+  </si>
+  <si>
+    <t>通过80关</t>
+  </si>
+  <si>
+    <t>通关第8章</t>
+  </si>
+  <si>
+    <t>装备槽强80</t>
+  </si>
+  <si>
+    <t>装备强化到80</t>
+  </si>
+  <si>
+    <t>主舰80级</t>
+  </si>
+  <si>
+    <t>战机强化到80</t>
+  </si>
+  <si>
+    <t>精炼大师1</t>
+  </si>
+  <si>
+    <t>装备全体精炼+1</t>
+  </si>
+  <si>
+    <t>2级士官</t>
+  </si>
+  <si>
+    <t>通过100关</t>
+  </si>
+  <si>
+    <t>通关第10章</t>
+  </si>
+  <si>
+    <t>装备槽强100</t>
+  </si>
+  <si>
+    <t>装备强化到100</t>
+  </si>
+  <si>
+    <t>突破大师4</t>
+  </si>
+  <si>
+    <t>全体4突</t>
+  </si>
+  <si>
+    <t>核能大师1</t>
+  </si>
+  <si>
+    <t>核能全体1级</t>
+  </si>
+  <si>
+    <t>3级士官</t>
+  </si>
+  <si>
+    <t>通过120关</t>
+  </si>
+  <si>
+    <t>通关第12章</t>
+  </si>
+  <si>
+    <t>装备槽强120</t>
+  </si>
+  <si>
+    <t>装备强化到120</t>
+  </si>
+  <si>
+    <t>主舰120级</t>
+  </si>
+  <si>
+    <t>战机强化到120</t>
+  </si>
+  <si>
+    <t>装备进阶大师2</t>
+  </si>
+  <si>
+    <t>装备全体2阶以上</t>
+  </si>
+  <si>
+    <t>1级准尉</t>
+  </si>
+  <si>
+    <t>通过150关</t>
+  </si>
+  <si>
+    <t>通关第15章</t>
+  </si>
+  <si>
+    <t>装备槽强150</t>
+  </si>
+  <si>
+    <t>装备强化到150</t>
+  </si>
+  <si>
+    <t>突破大师5</t>
+  </si>
+  <si>
+    <t>全体5突</t>
+  </si>
+  <si>
+    <t>装备5连抽3</t>
+  </si>
+  <si>
+    <t>进行3次装备5连抽</t>
+  </si>
+  <si>
+    <t>2级准尉</t>
+  </si>
+  <si>
+    <t>通过180关</t>
+  </si>
+  <si>
+    <t>通关第18章</t>
+  </si>
+  <si>
+    <t>装备槽强180</t>
+  </si>
+  <si>
+    <t>装备强化到180</t>
+  </si>
+  <si>
+    <t>主舰180级</t>
+  </si>
+  <si>
+    <t>战机强化到180</t>
+  </si>
+  <si>
+    <t>符文5连抽3</t>
+  </si>
+  <si>
+    <t>进行3次符文5连抽</t>
+  </si>
+  <si>
+    <t>3级准尉</t>
+  </si>
+  <si>
+    <t>通过200关</t>
+  </si>
+  <si>
+    <t>通关第20章</t>
+  </si>
+  <si>
+    <t>装备槽强200</t>
+  </si>
+  <si>
+    <t>装备强化到200</t>
+  </si>
+  <si>
+    <t>突破大师6</t>
+  </si>
+  <si>
+    <t>全体6突</t>
+  </si>
+  <si>
+    <t>4级准尉</t>
+  </si>
+  <si>
+    <t>通过220关</t>
+  </si>
+  <si>
+    <t>通关第22章</t>
+  </si>
+  <si>
+    <t>装备槽强220</t>
+  </si>
+  <si>
+    <t>装备强化到220</t>
+  </si>
+  <si>
+    <t>主舰220级</t>
+  </si>
+  <si>
+    <t>战机强化到220</t>
+  </si>
+  <si>
+    <t>5级准尉</t>
+  </si>
+  <si>
+    <t>通过250关</t>
+  </si>
+  <si>
+    <t>通关第25章</t>
+  </si>
+  <si>
+    <t>装备槽强250</t>
+  </si>
+  <si>
+    <t>装备强化到250</t>
+  </si>
+  <si>
+    <t>主舰250级</t>
+  </si>
+  <si>
+    <t>战机强化到250</t>
+  </si>
+  <si>
+    <t>少尉</t>
+  </si>
+  <si>
+    <t>通过280关</t>
+  </si>
+  <si>
+    <t>通关第28章</t>
+  </si>
+  <si>
+    <t>装备槽强280</t>
+  </si>
+  <si>
+    <t>装备强化到280</t>
+  </si>
+  <si>
+    <t>突破大师7</t>
+  </si>
+  <si>
+    <t>全体7突</t>
+  </si>
+  <si>
+    <t>中尉</t>
+  </si>
+  <si>
+    <t>通过300关</t>
+  </si>
+  <si>
+    <t>通关第30章</t>
+  </si>
+  <si>
+    <t>装备槽强300</t>
+  </si>
+  <si>
+    <t>装备强化到300</t>
+  </si>
+  <si>
+    <t>主舰300级</t>
+  </si>
+  <si>
+    <t>战机强化到300</t>
+  </si>
+  <si>
+    <t>上尉</t>
+  </si>
+  <si>
+    <t>通过350关</t>
+  </si>
+  <si>
+    <t>通关第35章</t>
+  </si>
+  <si>
+    <t>装备槽强350</t>
+  </si>
+  <si>
+    <t>装备强化到350</t>
+  </si>
+  <si>
+    <t>突破大师8</t>
+  </si>
+  <si>
+    <t>全体8突</t>
+  </si>
+  <si>
+    <t>少校</t>
+  </si>
+  <si>
+    <t>通过400关</t>
+  </si>
+  <si>
+    <t>通关第40章</t>
+  </si>
+  <si>
+    <t>装备槽强400</t>
+  </si>
+  <si>
+    <t>装备强化到400</t>
+  </si>
+  <si>
+    <t>主舰400级</t>
+  </si>
+  <si>
+    <t>战机强化到400</t>
+  </si>
+  <si>
+    <t>中校</t>
+  </si>
+  <si>
+    <t>通过450关</t>
+  </si>
+  <si>
+    <t>通关第45章</t>
+  </si>
+  <si>
+    <t>装备槽强450</t>
+  </si>
+  <si>
+    <t>装备强化到450</t>
+  </si>
+  <si>
+    <t>突破大师9</t>
+  </si>
+  <si>
+    <t>全体9突</t>
+  </si>
+  <si>
+    <t>上校</t>
+  </si>
+  <si>
+    <t>通过500关</t>
+  </si>
+  <si>
+    <t>通关第50章</t>
+  </si>
+  <si>
+    <t>装备槽强500</t>
+  </si>
+  <si>
+    <t>装备强化到500</t>
+  </si>
+  <si>
+    <t>主舰500级</t>
+  </si>
+  <si>
+    <t>战机强化到500</t>
+  </si>
+  <si>
+    <t>准将</t>
+  </si>
+  <si>
+    <t>通过550关</t>
+  </si>
+  <si>
+    <t>通关第55章</t>
+  </si>
+  <si>
+    <t>装备槽强550</t>
+  </si>
+  <si>
+    <t>装备强化到550</t>
+  </si>
+  <si>
+    <t>突破大师10</t>
+  </si>
+  <si>
+    <t>全体10突</t>
+  </si>
+  <si>
+    <t>少将</t>
+  </si>
+  <si>
+    <t>通过600关</t>
+  </si>
+  <si>
+    <t>通关第60章</t>
+  </si>
+  <si>
+    <t>装备槽强600</t>
+  </si>
+  <si>
+    <t>装备强化到600</t>
+  </si>
+  <si>
+    <t>主舰600级</t>
+  </si>
+  <si>
+    <t>战机强化到600</t>
+  </si>
+  <si>
+    <t>中将</t>
+  </si>
+  <si>
+    <t>通过650关</t>
+  </si>
+  <si>
+    <t>通关第65章</t>
+  </si>
+  <si>
+    <t>装备槽强650</t>
+  </si>
+  <si>
+    <t>装备强化到650</t>
+  </si>
+  <si>
+    <t>突破大师11</t>
+  </si>
+  <si>
+    <t>全体11突</t>
+  </si>
+  <si>
+    <t>上将</t>
+  </si>
+  <si>
+    <t>通过700关</t>
+  </si>
+  <si>
+    <t>通关第70章</t>
+  </si>
+  <si>
+    <t>装备槽强700</t>
+  </si>
+  <si>
+    <t>装备强化到700</t>
+  </si>
+  <si>
+    <t>主舰700级</t>
+  </si>
+  <si>
+    <t>战机强化到700</t>
   </si>
   <si>
     <t>元帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>准将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5级准尉</t>
-  </si>
-  <si>
-    <t>4级准尉</t>
-  </si>
-  <si>
-    <t>3级准尉</t>
-  </si>
-  <si>
-    <t>2级准尉</t>
-  </si>
-  <si>
-    <t>1级准尉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3级士官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级士官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1级士官</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参谋军士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1等兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2等兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新兵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性6价值</t>
-  </si>
-  <si>
-    <t>属性6权重</t>
-  </si>
-  <si>
-    <t>属性6目标</t>
-  </si>
-  <si>
-    <t>属性6ID</t>
-  </si>
-  <si>
-    <t>属性5价值</t>
-  </si>
-  <si>
-    <t>属性5权重</t>
-  </si>
-  <si>
-    <t>属性5目标</t>
-  </si>
-  <si>
-    <t>属性5ID</t>
-  </si>
-  <si>
-    <t>属性4价值</t>
-  </si>
-  <si>
-    <t>属性4权重</t>
-  </si>
-  <si>
-    <t>属性4目标</t>
-  </si>
-  <si>
-    <t>属性4ID</t>
-  </si>
-  <si>
-    <t>属性3价值</t>
-  </si>
-  <si>
-    <t>属性3权重</t>
-  </si>
-  <si>
-    <t>属性3目标</t>
-  </si>
-  <si>
-    <t>属性3ID</t>
-  </si>
-  <si>
-    <t>属性2价值</t>
-  </si>
-  <si>
-    <t>属性2权重</t>
-  </si>
-  <si>
-    <t>属性2目标</t>
-  </si>
-  <si>
-    <t>属性2ID</t>
-  </si>
-  <si>
-    <t>属性1价值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1权重</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就描述4</t>
-  </si>
-  <si>
-    <t>成就ID4</t>
-  </si>
-  <si>
-    <t>成就描述3</t>
-  </si>
-  <si>
-    <t>成就ID3</t>
-  </si>
-  <si>
-    <t>成就描述2</t>
-  </si>
-  <si>
-    <t>成就ID2</t>
-  </si>
-  <si>
-    <t>成就描述1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就ID1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr_id:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieve_id:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[6].valv</t>
-  </si>
-  <si>
-    <t>attr[6].valw</t>
-  </si>
-  <si>
-    <t>attr[6].tar</t>
-  </si>
-  <si>
-    <t>attr[6].id</t>
-  </si>
-  <si>
-    <t>attr[5].valv</t>
-  </si>
-  <si>
-    <t>attr[5].valw</t>
-  </si>
-  <si>
-    <t>attr[5].tar</t>
-  </si>
-  <si>
-    <t>attr[5].id</t>
-  </si>
-  <si>
-    <t>attr[4].valv</t>
-  </si>
-  <si>
-    <t>attr[4].valw</t>
-  </si>
-  <si>
-    <t>attr[4].tar</t>
-  </si>
-  <si>
-    <t>attr[4].id</t>
-  </si>
-  <si>
-    <t>attr[3].valv</t>
-  </si>
-  <si>
-    <t>attr[3].valw</t>
-  </si>
-  <si>
-    <t>attr[3].tar</t>
-  </si>
-  <si>
-    <t>attr[3].id</t>
-  </si>
-  <si>
-    <t>attr[2].valv</t>
-  </si>
-  <si>
-    <t>attr[2].valw</t>
-  </si>
-  <si>
-    <t>attr[2].tar</t>
-  </si>
-  <si>
-    <t>attr[2].id</t>
-  </si>
-  <si>
-    <t>attr[1].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[1].valw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[1].tar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[1].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[4].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[4].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[3].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[3].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[2].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[2].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[1].desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>achieveId[1].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[1].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>def</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shieldRg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gready</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性1槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mr.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>军阶的配置表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性2槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[3].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性3槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[4].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性4槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[5].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性5槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[6].slot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性6槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rowId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>行ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过750关</t>
+  </si>
+  <si>
+    <t>通关第75章</t>
+  </si>
+  <si>
+    <t>装备槽强750</t>
+  </si>
+  <si>
+    <t>装备强化到750</t>
+  </si>
+  <si>
+    <t>突破大师12</t>
+  </si>
+  <si>
+    <t>全体12突</t>
   </si>
   <si>
     <t>1星元帅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过800关</t>
+  </si>
+  <si>
+    <t>通关第80章</t>
+  </si>
+  <si>
+    <t>装备槽强800</t>
+  </si>
+  <si>
+    <t>装备强化到800</t>
+  </si>
+  <si>
+    <t>主舰800级</t>
+  </si>
+  <si>
+    <t>战机强化到800</t>
   </si>
   <si>
     <t>2星元帅</t>
   </si>
   <si>
+    <t>通过850关</t>
+  </si>
+  <si>
+    <t>通关第85章</t>
+  </si>
+  <si>
+    <t>装备槽强850</t>
+  </si>
+  <si>
+    <t>装备强化到850</t>
+  </si>
+  <si>
+    <t>主舰850级</t>
+  </si>
+  <si>
+    <t>战机强化到850</t>
+  </si>
+  <si>
     <t>3星元帅</t>
   </si>
   <si>
+    <t>通过900关</t>
+  </si>
+  <si>
+    <t>通关第90章</t>
+  </si>
+  <si>
+    <t>装备槽强900</t>
+  </si>
+  <si>
+    <t>装备强化到900</t>
+  </si>
+  <si>
+    <t>主舰900级</t>
+  </si>
+  <si>
+    <t>战机强化到900</t>
+  </si>
+  <si>
     <t>4星元帅</t>
   </si>
   <si>
+    <t>通过950关</t>
+  </si>
+  <si>
+    <t>通关第95章</t>
+  </si>
+  <si>
+    <t>装备槽强950</t>
+  </si>
+  <si>
+    <t>装备强化到950</t>
+  </si>
+  <si>
+    <t>主舰950级</t>
+  </si>
+  <si>
+    <t>战机强化到950</t>
+  </si>
+  <si>
     <t>5星元帅</t>
   </si>
   <si>
-    <t>rowId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过10关</t>
-  </si>
-  <si>
-    <t>通过20关</t>
-  </si>
-  <si>
-    <t>通过30关</t>
-  </si>
-  <si>
-    <t>通过40关</t>
-  </si>
-  <si>
-    <t>通过50关</t>
-  </si>
-  <si>
-    <t>通过60关</t>
-  </si>
-  <si>
-    <t>通过80关</t>
-  </si>
-  <si>
-    <t>通过100关</t>
-  </si>
-  <si>
-    <t>通过125关</t>
-  </si>
-  <si>
-    <t>通过150关</t>
-  </si>
-  <si>
-    <t>通过175关</t>
-  </si>
-  <si>
-    <t>通过200关</t>
-  </si>
-  <si>
-    <t>通过225关</t>
-  </si>
-  <si>
-    <t>通过250关</t>
-  </si>
-  <si>
-    <t>通过275关</t>
-  </si>
-  <si>
-    <t>通过300关</t>
-  </si>
-  <si>
-    <t>通过325关</t>
-  </si>
-  <si>
-    <t>通过350关</t>
-  </si>
-  <si>
-    <t>通过375关</t>
-  </si>
-  <si>
-    <t>通过400关</t>
-  </si>
-  <si>
-    <t>通过425关</t>
-  </si>
-  <si>
-    <t>通过450关</t>
-  </si>
-  <si>
-    <t>通过475关</t>
-  </si>
-  <si>
-    <t>通过500关</t>
-  </si>
-  <si>
-    <t>通过550关</t>
-  </si>
-  <si>
-    <t>通过600关</t>
-  </si>
-  <si>
-    <t>通过650关</t>
-  </si>
-  <si>
-    <t>通过700关</t>
-  </si>
-  <si>
-    <t>通过750关</t>
-  </si>
-  <si>
-    <t>通过800关</t>
-  </si>
-  <si>
-    <t>通过第1章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第3章</t>
-  </si>
-  <si>
-    <t>通过第4章</t>
-  </si>
-  <si>
-    <t>通过第5章</t>
-  </si>
-  <si>
-    <t>通过第6章</t>
-  </si>
-  <si>
-    <t>通过第2章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第8章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第10章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第12章第5关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第15章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第17章第5关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第20章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第20章第5关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第25章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第27章第5关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第30章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第32章第5关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第35章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第37章第5关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第40章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第42章第5关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第45章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第47章第5关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第50章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第55章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第60章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第65章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第70章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第75章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第80章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰10级</t>
-  </si>
-  <si>
-    <t>主舰升到10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币20K</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把导弹炮升到10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把激光炮升到10级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶片总等级2级</t>
-  </si>
-  <si>
-    <t>主舰1突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮1突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮1突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰3突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮3突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮3突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰进阶达到3级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰进阶达到1阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰进阶达到2阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶片总等级达到2阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮进阶达到1阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮进阶达到1阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮突破达到3阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光炮突破达到3阶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰4突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰进阶达到4级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币5M</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体100级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体强化达到100级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰2突</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[1].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[1].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[2].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[2].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[3].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[3].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[4].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[4].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[5].id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award[5].valv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>通过1000关</t>
+  </si>
+  <si>
+    <t>通关第100章</t>
+  </si>
+  <si>
+    <t>装备槽强1000</t>
+  </si>
+  <si>
+    <t>装备强化到1000</t>
+  </si>
+  <si>
+    <t>主舰1000级</t>
+  </si>
+  <si>
+    <t>战机强化到1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -906,43 +1039,180 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -951,12 +1221,19 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -965,13 +1242,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,13 +1272,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -999,24 +1426,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1034,76 +1480,388 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="超链接 2" xfId="57"/>
+    <cellStyle name="文本" xfId="58"/>
+    <cellStyle name="无效" xfId="59"/>
+    <cellStyle name="中文标题" xfId="60"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1361,24 +2119,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1389,7 +2142,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1403,57 +2156,58 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="47.25" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05975AF-CE51-4201-9F68-A63B42E94591}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AY34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
@@ -1475,325 +2229,325 @@
     <col min="22" max="51" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>74</v>
+    <row r="1" ht="15" spans="1:51">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="K2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="X2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Y2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Z2" t="s">
         <v>67</v>
       </c>
       <c r="AA2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AC2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AD2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AE2" t="s">
         <v>67</v>
       </c>
       <c r="AF2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AG2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AH2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AI2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AJ2" t="s">
         <v>67</v>
       </c>
       <c r="AK2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AM2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AN2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AO2" t="s">
         <v>67</v>
       </c>
       <c r="AP2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AQ2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AR2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AS2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AT2" t="s">
         <v>67</v>
       </c>
       <c r="AU2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AV2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AW2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AX2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AY2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" ht="15" spans="1:51">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1806,121 +2560,121 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:51">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1928,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1979,7 +2733,7 @@
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
     </row>
-    <row r="5" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:51">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1987,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3">
         <v>11</v>
@@ -2016,23 +2770,23 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W5" s="3">
         <v>7</v>
@@ -2045,7 +2799,7 @@
         <v>0.02</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB5" s="3">
         <v>1</v>
@@ -2058,7 +2812,7 @@
         <v>0.02</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG5" s="3">
         <v>1</v>
@@ -2071,7 +2825,7 @@
         <v>0.02</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL5" s="3">
         <v>1</v>
@@ -2084,7 +2838,7 @@
         <v>0.02</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ5" s="3">
         <v>1</v>
@@ -2097,7 +2851,7 @@
         <v>0.02</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV5" s="3">
         <v>1</v>
@@ -2110,7 +2864,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:51">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2118,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D6" s="3">
         <v>11</v>
@@ -2147,31 +2901,27 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>203</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W6" s="3">
         <v>7</v>
@@ -2184,7 +2934,7 @@
         <v>0.05</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB6" s="3">
         <v>1</v>
@@ -2197,7 +2947,7 @@
         <v>0.05</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG6" s="3">
         <v>1</v>
@@ -2210,7 +2960,7 @@
         <v>0.05</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL6" s="3">
         <v>1</v>
@@ -2223,7 +2973,7 @@
         <v>0.05</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ6" s="3">
         <v>1</v>
@@ -2236,7 +2986,7 @@
         <v>0.05</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV6" s="3">
         <v>1</v>
@@ -2249,7 +2999,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:51">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2257,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="D7" s="3">
         <v>11</v>
@@ -2286,31 +3036,27 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>206</v>
+        <v>131</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>216</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
       <c r="V7" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W7" s="3">
         <v>7</v>
@@ -2320,10 +3066,10 @@
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB7" s="3">
         <v>1</v>
@@ -2333,10 +3079,10 @@
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG7" s="3">
         <v>1</v>
@@ -2346,10 +3092,10 @@
       </c>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL7" s="3">
         <v>1</v>
@@ -2359,10 +3105,10 @@
       </c>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ7" s="3">
         <v>1</v>
@@ -2372,10 +3118,10 @@
       </c>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV7" s="3">
         <v>1</v>
@@ -2385,10 +3131,10 @@
       </c>
       <c r="AX7" s="3"/>
       <c r="AY7" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:51">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2396,7 +3142,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="D8" s="3">
         <v>11</v>
@@ -2425,23 +3171,27 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W8" s="3">
         <v>7</v>
@@ -2454,7 +3204,7 @@
         <v>0.1</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB8" s="3">
         <v>1</v>
@@ -2467,7 +3217,7 @@
         <v>0.1</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG8" s="3">
         <v>1</v>
@@ -2480,7 +3230,7 @@
         <v>0.1</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL8" s="3">
         <v>1</v>
@@ -2493,7 +3243,7 @@
         <v>0.1</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ8" s="3">
         <v>1</v>
@@ -2506,7 +3256,7 @@
         <v>0.1</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV8" s="3">
         <v>1</v>
@@ -2519,7 +3269,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="16.5" spans="1:51">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2527,7 +3277,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="D9" s="3">
         <v>11</v>
@@ -2556,21 +3306,31 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>204</v>
+      <c r="P9" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="S9" s="3"/>
-      <c r="U9" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="V9" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W9" s="3">
         <v>7</v>
@@ -2583,7 +3343,7 @@
         <v>0.15</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB9" s="3">
         <v>1</v>
@@ -2596,7 +3356,7 @@
         <v>0.15</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG9" s="3">
         <v>1</v>
@@ -2609,7 +3369,7 @@
         <v>0.15</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL9" s="3">
         <v>1</v>
@@ -2622,7 +3382,7 @@
         <v>0.15</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ9" s="3">
         <v>1</v>
@@ -2635,7 +3395,7 @@
         <v>0.15</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV9" s="3">
         <v>1</v>
@@ -2648,7 +3408,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:51">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2656,7 +3416,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3">
         <v>11</v>
@@ -2685,31 +3445,31 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>208</v>
+        <v>149</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>209</v>
+        <v>151</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>217</v>
+        <v>153</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W10" s="3">
         <v>7</v>
@@ -2722,7 +3482,7 @@
         <v>0.2</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB10" s="3">
         <v>1</v>
@@ -2735,7 +3495,7 @@
         <v>0.2</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG10" s="3">
         <v>1</v>
@@ -2748,7 +3508,7 @@
         <v>0.2</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL10" s="3">
         <v>1</v>
@@ -2761,7 +3521,7 @@
         <v>0.2</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ10" s="3">
         <v>1</v>
@@ -2774,7 +3534,7 @@
         <v>0.2</v>
       </c>
       <c r="AU10" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV10" s="3">
         <v>1</v>
@@ -2787,7 +3547,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:51">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2795,7 +3555,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>155</v>
       </c>
       <c r="D11" s="3">
         <v>11</v>
@@ -2824,23 +3584,31 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>219</v>
+        <v>157</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="V11" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W11" s="3">
         <v>7</v>
@@ -2853,7 +3621,7 @@
         <v>0.25</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB11" s="3">
         <v>1</v>
@@ -2866,7 +3634,7 @@
         <v>0.25</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG11" s="3">
         <v>1</v>
@@ -2879,7 +3647,7 @@
         <v>0.25</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL11" s="3">
         <v>1</v>
@@ -2892,7 +3660,7 @@
         <v>0.25</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ11" s="3">
         <v>1</v>
@@ -2905,7 +3673,7 @@
         <v>0.25</v>
       </c>
       <c r="AU11" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV11" s="3">
         <v>1</v>
@@ -2918,7 +3686,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:51">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2926,7 +3694,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
@@ -2955,27 +3723,31 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>221</v>
+        <v>166</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="V12" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W12" s="3">
         <v>7</v>
@@ -2988,7 +3760,7 @@
         <v>0.35</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB12" s="3">
         <v>1</v>
@@ -3001,7 +3773,7 @@
         <v>0.35</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG12" s="3">
         <v>1</v>
@@ -3014,7 +3786,7 @@
         <v>0.35</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL12" s="3">
         <v>1</v>
@@ -3027,7 +3799,7 @@
         <v>0.35</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ12" s="3">
         <v>1</v>
@@ -3040,7 +3812,7 @@
         <v>0.35</v>
       </c>
       <c r="AU12" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV12" s="3">
         <v>1</v>
@@ -3053,7 +3825,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:51">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3061,7 +3833,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="D13" s="3">
         <v>11</v>
@@ -3090,19 +3862,31 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="P13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="V13" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W13" s="3">
         <v>7</v>
@@ -3115,7 +3899,7 @@
         <v>0.45</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB13" s="3">
         <v>1</v>
@@ -3128,7 +3912,7 @@
         <v>0.45</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG13" s="3">
         <v>1</v>
@@ -3141,7 +3925,7 @@
         <v>0.45</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL13" s="3">
         <v>1</v>
@@ -3154,7 +3938,7 @@
         <v>0.45</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ13" s="3">
         <v>1</v>
@@ -3167,7 +3951,7 @@
         <v>0.45</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV13" s="3">
         <v>1</v>
@@ -3180,7 +3964,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:51">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3188,7 +3972,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="D14" s="3">
         <v>11</v>
@@ -3217,19 +4001,31 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="V14" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W14" s="3">
         <v>7</v>
@@ -3242,7 +4038,7 @@
         <v>0.5</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB14" s="3">
         <v>1</v>
@@ -3255,7 +4051,7 @@
         <v>0.5</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG14" s="3">
         <v>1</v>
@@ -3268,7 +4064,7 @@
         <v>0.5</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL14" s="3">
         <v>1</v>
@@ -3281,7 +4077,7 @@
         <v>0.5</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ14" s="3">
         <v>1</v>
@@ -3294,7 +4090,7 @@
         <v>0.5</v>
       </c>
       <c r="AU14" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV14" s="3">
         <v>1</v>
@@ -3307,7 +4103,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:51">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3315,7 +4111,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="D15" s="3">
         <v>11</v>
@@ -3344,19 +4140,31 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="V15" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W15" s="3">
         <v>7</v>
@@ -3366,10 +4174,10 @@
       </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB15" s="3">
         <v>1</v>
@@ -3379,10 +4187,10 @@
       </c>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG15" s="3">
         <v>1</v>
@@ -3392,10 +4200,10 @@
       </c>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AK15" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL15" s="3">
         <v>1</v>
@@ -3405,10 +4213,10 @@
       </c>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ15" s="3">
         <v>1</v>
@@ -3418,10 +4226,10 @@
       </c>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AU15" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV15" s="3">
         <v>1</v>
@@ -3431,10 +4239,10 @@
       </c>
       <c r="AX15" s="3"/>
       <c r="AY15" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:51">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3442,7 +4250,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D16" s="3">
         <v>11</v>
@@ -3471,19 +4279,27 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W16" s="3">
         <v>7</v>
@@ -3496,7 +4312,7 @@
         <v>0.6</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB16" s="3">
         <v>1</v>
@@ -3509,7 +4325,7 @@
         <v>0.6</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG16" s="3">
         <v>1</v>
@@ -3522,7 +4338,7 @@
         <v>0.6</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL16" s="3">
         <v>1</v>
@@ -3535,7 +4351,7 @@
         <v>0.6</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ16" s="3">
         <v>1</v>
@@ -3548,7 +4364,7 @@
         <v>0.6</v>
       </c>
       <c r="AU16" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV16" s="3">
         <v>1</v>
@@ -3561,7 +4377,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:51">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3569,7 +4385,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="D17" s="3">
         <v>11</v>
@@ -3598,19 +4414,27 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+        <v>209</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W17" s="3">
         <v>7</v>
@@ -3623,7 +4447,7 @@
         <v>0.65</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB17" s="3">
         <v>1</v>
@@ -3636,7 +4460,7 @@
         <v>0.65</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG17" s="3">
         <v>1</v>
@@ -3649,7 +4473,7 @@
         <v>0.65</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL17" s="3">
         <v>1</v>
@@ -3662,7 +4486,7 @@
         <v>0.65</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ17" s="3">
         <v>1</v>
@@ -3675,7 +4499,7 @@
         <v>0.65</v>
       </c>
       <c r="AU17" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV17" s="3">
         <v>1</v>
@@ -3688,7 +4512,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:51">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3696,7 +4520,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="D18" s="3">
         <v>11</v>
@@ -3725,19 +4549,27 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W18" s="3">
         <v>7</v>
@@ -3750,7 +4582,7 @@
         <v>0.7</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB18" s="3">
         <v>1</v>
@@ -3763,7 +4595,7 @@
         <v>0.7</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG18" s="3">
         <v>1</v>
@@ -3776,7 +4608,7 @@
         <v>0.7</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL18" s="3">
         <v>1</v>
@@ -3789,7 +4621,7 @@
         <v>0.7</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ18" s="3">
         <v>1</v>
@@ -3802,7 +4634,7 @@
         <v>0.7</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV18" s="3">
         <v>1</v>
@@ -3815,7 +4647,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:51">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -3823,7 +4655,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="D19" s="3">
         <v>11</v>
@@ -3852,19 +4684,27 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W19" s="3">
         <v>7</v>
@@ -3877,7 +4717,7 @@
         <v>0.75</v>
       </c>
       <c r="AA19" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB19" s="3">
         <v>1</v>
@@ -3890,7 +4730,7 @@
         <v>0.75</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG19" s="3">
         <v>1</v>
@@ -3903,7 +4743,7 @@
         <v>0.75</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL19" s="3">
         <v>1</v>
@@ -3916,7 +4756,7 @@
         <v>0.75</v>
       </c>
       <c r="AP19" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ19" s="3">
         <v>1</v>
@@ -3929,7 +4769,7 @@
         <v>0.75</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV19" s="3">
         <v>1</v>
@@ -3942,7 +4782,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:51">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3950,7 +4790,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="D20" s="3">
         <v>11</v>
@@ -3979,19 +4819,27 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+        <v>230</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W20" s="3">
         <v>7</v>
@@ -4004,7 +4852,7 @@
         <v>0.8</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB20" s="3">
         <v>1</v>
@@ -4017,7 +4865,7 @@
         <v>0.8</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG20" s="3">
         <v>1</v>
@@ -4030,7 +4878,7 @@
         <v>0.8</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL20" s="3">
         <v>1</v>
@@ -4043,7 +4891,7 @@
         <v>0.8</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ20" s="3">
         <v>1</v>
@@ -4056,7 +4904,7 @@
         <v>0.8</v>
       </c>
       <c r="AU20" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV20" s="3">
         <v>1</v>
@@ -4069,7 +4917,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:51">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -4077,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="D21" s="3">
         <v>11</v>
@@ -4106,19 +4954,27 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
+        <v>237</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W21" s="3">
         <v>7</v>
@@ -4131,7 +4987,7 @@
         <v>0.85</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB21" s="3">
         <v>1</v>
@@ -4144,7 +5000,7 @@
         <v>0.85</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG21" s="3">
         <v>1</v>
@@ -4157,7 +5013,7 @@
         <v>0.85</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL21" s="3">
         <v>1</v>
@@ -4170,7 +5026,7 @@
         <v>0.85</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ21" s="3">
         <v>1</v>
@@ -4183,7 +5039,7 @@
         <v>0.85</v>
       </c>
       <c r="AU21" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV21" s="3">
         <v>1</v>
@@ -4196,7 +5052,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="22" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:51">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4204,7 +5060,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="D22" s="3">
         <v>11</v>
@@ -4233,19 +5089,27 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+        <v>244</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W22" s="3">
         <v>7</v>
@@ -4258,7 +5122,7 @@
         <v>0.9</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB22" s="3">
         <v>1</v>
@@ -4271,7 +5135,7 @@
         <v>0.9</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG22" s="3">
         <v>1</v>
@@ -4284,7 +5148,7 @@
         <v>0.9</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL22" s="3">
         <v>1</v>
@@ -4297,7 +5161,7 @@
         <v>0.9</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ22" s="3">
         <v>1</v>
@@ -4310,7 +5174,7 @@
         <v>0.9</v>
       </c>
       <c r="AU22" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV22" s="3">
         <v>1</v>
@@ -4323,7 +5187,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:51">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -4331,7 +5195,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="D23" s="3">
         <v>11</v>
@@ -4360,19 +5224,27 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W23" s="3">
         <v>7</v>
@@ -4385,7 +5257,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB23" s="3">
         <v>1</v>
@@ -4398,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG23" s="3">
         <v>1</v>
@@ -4411,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL23" s="3">
         <v>1</v>
@@ -4424,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ23" s="3">
         <v>1</v>
@@ -4437,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="AU23" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV23" s="3">
         <v>1</v>
@@ -4450,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:51">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4458,7 +5330,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="D24" s="3">
         <v>11</v>
@@ -4487,19 +5359,27 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W24" s="3">
         <v>7</v>
@@ -4509,10 +5389,10 @@
       </c>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB24" s="3">
         <v>1</v>
@@ -4522,10 +5402,10 @@
       </c>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG24" s="3">
         <v>1</v>
@@ -4535,10 +5415,10 @@
       </c>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL24" s="3">
         <v>1</v>
@@ -4548,10 +5428,10 @@
       </c>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ24" s="3">
         <v>1</v>
@@ -4561,10 +5441,10 @@
       </c>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AU24" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV24" s="3">
         <v>1</v>
@@ -4574,10 +5454,10 @@
       </c>
       <c r="AX24" s="3"/>
       <c r="AY24" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
-    <row r="25" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:51">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -4585,7 +5465,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="D25" s="3">
         <v>11</v>
@@ -4614,19 +5494,27 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
+        <v>265</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W25" s="3">
         <v>7</v>
@@ -4639,7 +5527,7 @@
         <v>1.2</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB25" s="3">
         <v>1</v>
@@ -4652,7 +5540,7 @@
         <v>1.2</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG25" s="3">
         <v>1</v>
@@ -4665,7 +5553,7 @@
         <v>1.2</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL25" s="3">
         <v>1</v>
@@ -4678,7 +5566,7 @@
         <v>1.2</v>
       </c>
       <c r="AP25" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ25" s="3">
         <v>1</v>
@@ -4691,7 +5579,7 @@
         <v>1.2</v>
       </c>
       <c r="AU25" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV25" s="3">
         <v>1</v>
@@ -4704,7 +5592,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:51">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -4712,7 +5600,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="D26" s="3">
         <v>11</v>
@@ -4741,19 +5629,27 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
+        <v>272</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W26" s="3">
         <v>7</v>
@@ -4766,7 +5662,7 @@
         <v>1.3</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB26" s="3">
         <v>1</v>
@@ -4779,7 +5675,7 @@
         <v>1.3</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG26" s="3">
         <v>1</v>
@@ -4792,7 +5688,7 @@
         <v>1.3</v>
       </c>
       <c r="AK26" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL26" s="3">
         <v>1</v>
@@ -4805,7 +5701,7 @@
         <v>1.3</v>
       </c>
       <c r="AP26" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ26" s="3">
         <v>1</v>
@@ -4818,7 +5714,7 @@
         <v>1.3</v>
       </c>
       <c r="AU26" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV26" s="3">
         <v>1</v>
@@ -4831,7 +5727,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:51">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -4839,7 +5735,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>277</v>
       </c>
       <c r="D27" s="3">
         <v>11</v>
@@ -4868,19 +5764,27 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
+        <v>279</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W27" s="3">
         <v>7</v>
@@ -4893,7 +5797,7 @@
         <v>1.4</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB27" s="3">
         <v>1</v>
@@ -4906,7 +5810,7 @@
         <v>1.4</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG27" s="3">
         <v>1</v>
@@ -4919,7 +5823,7 @@
         <v>1.4</v>
       </c>
       <c r="AK27" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL27" s="3">
         <v>1</v>
@@ -4932,7 +5836,7 @@
         <v>1.4</v>
       </c>
       <c r="AP27" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ27" s="3">
         <v>1</v>
@@ -4945,7 +5849,7 @@
         <v>1.4</v>
       </c>
       <c r="AU27" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV27" s="3">
         <v>1</v>
@@ -4958,7 +5862,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:51">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -4966,7 +5870,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>284</v>
       </c>
       <c r="D28" s="3">
         <v>11</v>
@@ -4995,19 +5899,27 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W28" s="3">
         <v>7</v>
@@ -5020,7 +5932,7 @@
         <v>1.5</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB28" s="3">
         <v>1</v>
@@ -5033,7 +5945,7 @@
         <v>1.5</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG28" s="3">
         <v>1</v>
@@ -5046,7 +5958,7 @@
         <v>1.5</v>
       </c>
       <c r="AK28" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL28" s="3">
         <v>1</v>
@@ -5059,7 +5971,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ28" s="3">
         <v>1</v>
@@ -5072,7 +5984,7 @@
         <v>1.5</v>
       </c>
       <c r="AU28" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV28" s="3">
         <v>1</v>
@@ -5085,7 +5997,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:51">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -5093,7 +6005,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="D29" s="3">
         <v>11</v>
@@ -5122,19 +6034,27 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>161</v>
+        <v>292</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>297</v>
+      </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W29" s="3">
         <v>7</v>
@@ -5147,7 +6067,7 @@
         <v>1.6</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB29" s="3">
         <v>1</v>
@@ -5160,7 +6080,7 @@
         <v>1.6</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG29" s="3">
         <v>1</v>
@@ -5173,7 +6093,7 @@
         <v>1.6</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL29" s="3">
         <v>1</v>
@@ -5186,7 +6106,7 @@
         <v>1.6</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ29" s="3">
         <v>1</v>
@@ -5199,7 +6119,7 @@
         <v>1.6</v>
       </c>
       <c r="AU29" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV29" s="3">
         <v>1</v>
@@ -5212,7 +6132,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="30" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:51">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -5220,7 +6140,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="D30" s="3">
         <v>11</v>
@@ -5249,19 +6169,27 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W30" s="3">
         <v>7</v>
@@ -5274,7 +6202,7 @@
         <v>1.7</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB30" s="3">
         <v>1</v>
@@ -5287,7 +6215,7 @@
         <v>1.7</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG30" s="3">
         <v>1</v>
@@ -5300,7 +6228,7 @@
         <v>1.7</v>
       </c>
       <c r="AK30" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL30" s="3">
         <v>1</v>
@@ -5313,7 +6241,7 @@
         <v>1.7</v>
       </c>
       <c r="AP30" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ30" s="3">
         <v>1</v>
@@ -5326,7 +6254,7 @@
         <v>1.7</v>
       </c>
       <c r="AU30" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV30" s="3">
         <v>1</v>
@@ -5339,7 +6267,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="31" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:51">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -5347,7 +6275,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>132</v>
+        <v>305</v>
       </c>
       <c r="D31" s="3">
         <v>11</v>
@@ -5376,19 +6304,27 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+        <v>307</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W31" s="3">
         <v>7</v>
@@ -5401,7 +6337,7 @@
         <v>1.8</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB31" s="3">
         <v>1</v>
@@ -5414,7 +6350,7 @@
         <v>1.8</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG31" s="3">
         <v>1</v>
@@ -5427,7 +6363,7 @@
         <v>1.8</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL31" s="3">
         <v>1</v>
@@ -5440,7 +6376,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ31" s="3">
         <v>1</v>
@@ -5453,7 +6389,7 @@
         <v>1.8</v>
       </c>
       <c r="AU31" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV31" s="3">
         <v>1</v>
@@ -5466,7 +6402,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="32" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:51">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -5474,7 +6410,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="D32" s="3">
         <v>11</v>
@@ -5503,19 +6439,27 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+        <v>314</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W32" s="3">
         <v>7</v>
@@ -5528,7 +6472,7 @@
         <v>1.9</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB32" s="3">
         <v>1</v>
@@ -5541,7 +6485,7 @@
         <v>1.9</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG32" s="3">
         <v>1</v>
@@ -5554,7 +6498,7 @@
         <v>1.9</v>
       </c>
       <c r="AK32" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL32" s="3">
         <v>1</v>
@@ -5567,7 +6511,7 @@
         <v>1.9</v>
       </c>
       <c r="AP32" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ32" s="3">
         <v>1</v>
@@ -5580,7 +6524,7 @@
         <v>1.9</v>
       </c>
       <c r="AU32" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV32" s="3">
         <v>1</v>
@@ -5593,7 +6537,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:51">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -5601,7 +6545,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="D33" s="3">
         <v>11</v>
@@ -5630,19 +6574,27 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W33" s="3">
         <v>7</v>
@@ -5655,7 +6607,7 @@
         <v>2</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB33" s="3">
         <v>1</v>
@@ -5668,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG33" s="3">
         <v>1</v>
@@ -5681,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="AK33" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL33" s="3">
         <v>1</v>
@@ -5694,7 +6646,7 @@
         <v>2</v>
       </c>
       <c r="AP33" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ33" s="3">
         <v>1</v>
@@ -5707,7 +6659,7 @@
         <v>2</v>
       </c>
       <c r="AU33" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV33" s="3">
         <v>1</v>
@@ -5720,7 +6672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:51">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -5728,7 +6680,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="D34" s="3">
         <v>11</v>
@@ -5757,19 +6709,27 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
-        <v>166</v>
+        <v>327</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+        <v>328</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>332</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="W34" s="3">
         <v>7</v>
@@ -5782,7 +6742,7 @@
         <v>2.25</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AB34" s="3">
         <v>1</v>
@@ -5795,7 +6755,7 @@
         <v>2.25</v>
       </c>
       <c r="AF34" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AG34" s="3">
         <v>1</v>
@@ -5808,7 +6768,7 @@
         <v>2.25</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL34" s="3">
         <v>1</v>
@@ -5821,7 +6781,7 @@
         <v>2.25</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AQ34" s="3">
         <v>1</v>
@@ -5834,7 +6794,7 @@
         <v>2.25</v>
       </c>
       <c r="AU34" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="AV34" s="3">
         <v>1</v>
@@ -5848,8 +6808,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E886F7-68AD-4BC2-94C2-6066EE165665}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51815380-D38F-4AB5-ADF3-532671563D98}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="345">
   <si>
     <t>sheet名</t>
   </si>
@@ -179,21 +179,6 @@
     <t>attr[5].valv</t>
   </si>
   <si>
-    <t>attr[6].id</t>
-  </si>
-  <si>
-    <t>attr[6].tar</t>
-  </si>
-  <si>
-    <t>attr[6].slot</t>
-  </si>
-  <si>
-    <t>attr[6].valw</t>
-  </si>
-  <si>
-    <t>attr[6].valv</t>
-  </si>
-  <si>
     <t>int:&lt;&gt;</t>
   </si>
   <si>
@@ -209,12 +194,6 @@
     <t>string:e&lt;&gt;</t>
   </si>
   <si>
-    <t>attr_id:e&lt;&gt;</t>
-  </si>
-  <si>
-    <t>float:e&lt;&gt;</t>
-  </si>
-  <si>
     <t>行ID</t>
   </si>
   <si>
@@ -321,21 +300,6 @@
   </si>
   <si>
     <t>属性5价值</t>
-  </si>
-  <si>
-    <t>属性6ID</t>
-  </si>
-  <si>
-    <t>属性6目标</t>
-  </si>
-  <si>
-    <t>属性6槽</t>
-  </si>
-  <si>
-    <t>属性6权重</t>
-  </si>
-  <si>
-    <t>属性6价值</t>
   </si>
   <si>
     <t>新兵</t>
@@ -1067,10 +1031,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>award[3].vale</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>突破丹</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1104,6 +1064,26 @@
   </si>
   <si>
     <t>戒指S2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr_id:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x]</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[3].valw</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1707,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BA34"/>
+  <dimension ref="A1:AV34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1722,7 +1702,8 @@
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="11" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
     <col min="13" max="14" width="13.875" customWidth="1"/>
     <col min="15" max="15" width="14.625" customWidth="1"/>
@@ -1731,10 +1712,10 @@
     <col min="18" max="21" width="18.125" customWidth="1"/>
     <col min="22" max="22" width="17.625" customWidth="1"/>
     <col min="23" max="23" width="18.125" customWidth="1"/>
-    <col min="24" max="53" width="12" customWidth="1"/>
+    <col min="24" max="48" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1748,7 +1729,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
@@ -1757,7 +1738,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
@@ -1766,19 +1747,19 @@
         <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>19</v>
@@ -1879,353 +1860,308 @@
       <c r="AV1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AW1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="D2" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="F2" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="Q2" t="s">
         <v>56</v>
       </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU2" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="L3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="N2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="R2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="R3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="S3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>63</v>
+      <c r="T3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP3" s="2" t="s">
+    <row r="4" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2247,38 +2183,83 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
+      <c r="X4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2286,10 +2267,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -2298,7 +2279,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -2313,23 +2294,23 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y5" s="3">
         <v>7</v>
@@ -2337,12 +2318,14 @@
       <c r="Z5" s="3">
         <v>3</v>
       </c>
-      <c r="AA5" s="3"/>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
       <c r="AB5" s="3">
         <v>0.02</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD5" s="3">
         <v>1</v>
@@ -2350,12 +2333,14 @@
       <c r="AE5" s="3">
         <v>3</v>
       </c>
-      <c r="AF5" s="3"/>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
       <c r="AG5" s="3">
         <v>0.02</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI5" s="3">
         <v>1</v>
@@ -2363,12 +2348,14 @@
       <c r="AJ5" s="3">
         <v>3</v>
       </c>
-      <c r="AK5" s="3"/>
+      <c r="AK5" s="3">
+        <v>0</v>
+      </c>
       <c r="AL5" s="3">
         <v>0.02</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN5" s="3">
         <v>1</v>
@@ -2376,12 +2363,14 @@
       <c r="AO5" s="3">
         <v>3</v>
       </c>
-      <c r="AP5" s="3"/>
+      <c r="AP5" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ5" s="3">
         <v>0.02</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS5" s="3">
         <v>1</v>
@@ -2389,17 +2378,14 @@
       <c r="AT5" s="3">
         <v>3</v>
       </c>
-      <c r="AU5" s="3"/>
+      <c r="AU5" s="3">
+        <v>0</v>
+      </c>
       <c r="AV5" s="3">
         <v>0.02</v>
       </c>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
     </row>
-    <row r="6" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2407,10 +2393,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -2419,7 +2405,7 @@
         <v>110</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -2428,7 +2414,7 @@
         <v>130.5</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -2440,27 +2426,27 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y6" s="3">
         <v>7</v>
@@ -2468,12 +2454,14 @@
       <c r="Z6" s="3">
         <v>3</v>
       </c>
-      <c r="AA6" s="3"/>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
       <c r="AB6" s="3">
         <v>0.05</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD6" s="3">
         <v>1</v>
@@ -2481,12 +2469,14 @@
       <c r="AE6" s="3">
         <v>3</v>
       </c>
-      <c r="AF6" s="3"/>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
       <c r="AG6" s="3">
         <v>0.05</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI6" s="3">
         <v>1</v>
@@ -2494,12 +2484,14 @@
       <c r="AJ6" s="3">
         <v>3</v>
       </c>
-      <c r="AK6" s="3"/>
+      <c r="AK6" s="3">
+        <v>0</v>
+      </c>
       <c r="AL6" s="3">
         <v>0.05</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN6" s="3">
         <v>1</v>
@@ -2507,12 +2499,14 @@
       <c r="AO6" s="3">
         <v>3</v>
       </c>
-      <c r="AP6" s="3"/>
+      <c r="AP6" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ6" s="3">
         <v>0.05</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS6" s="3">
         <v>1</v>
@@ -2520,17 +2514,14 @@
       <c r="AT6" s="3">
         <v>3</v>
       </c>
-      <c r="AU6" s="3"/>
+      <c r="AU6" s="3">
+        <v>0</v>
+      </c>
       <c r="AV6" s="3">
         <v>0.05</v>
       </c>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
     </row>
-    <row r="7" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2538,10 +2529,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -2550,7 +2541,7 @@
         <v>130</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -2559,7 +2550,7 @@
         <v>205.1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -2571,27 +2562,27 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y7" s="3">
         <v>7</v>
@@ -2599,12 +2590,14 @@
       <c r="Z7" s="3">
         <v>3</v>
       </c>
-      <c r="AA7" s="3"/>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
       <c r="AB7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD7" s="3">
         <v>1</v>
@@ -2612,12 +2605,14 @@
       <c r="AE7" s="3">
         <v>3</v>
       </c>
-      <c r="AF7" s="3"/>
+      <c r="AF7" s="3">
+        <v>0</v>
+      </c>
       <c r="AG7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI7" s="3">
         <v>1</v>
@@ -2625,12 +2620,14 @@
       <c r="AJ7" s="3">
         <v>3</v>
       </c>
-      <c r="AK7" s="3"/>
+      <c r="AK7" s="3">
+        <v>0</v>
+      </c>
       <c r="AL7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN7" s="3">
         <v>1</v>
@@ -2638,12 +2635,14 @@
       <c r="AO7" s="3">
         <v>3</v>
       </c>
-      <c r="AP7" s="3"/>
+      <c r="AP7" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS7" s="3">
         <v>1</v>
@@ -2651,17 +2650,14 @@
       <c r="AT7" s="3">
         <v>3</v>
       </c>
-      <c r="AU7" s="3"/>
+      <c r="AU7" s="3">
+        <v>0</v>
+      </c>
       <c r="AV7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
     </row>
-    <row r="8" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2669,10 +2665,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -2681,7 +2677,7 @@
         <v>150</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -2690,7 +2686,7 @@
         <v>329.4</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -2702,27 +2698,27 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y8" s="3">
         <v>7</v>
@@ -2730,12 +2726,14 @@
       <c r="Z8" s="3">
         <v>3</v>
       </c>
-      <c r="AA8" s="3"/>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
       <c r="AB8" s="3">
         <v>0.1</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD8" s="3">
         <v>1</v>
@@ -2743,12 +2741,14 @@
       <c r="AE8" s="3">
         <v>3</v>
       </c>
-      <c r="AF8" s="3"/>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
       <c r="AG8" s="3">
         <v>0.1</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI8" s="3">
         <v>1</v>
@@ -2756,12 +2756,14 @@
       <c r="AJ8" s="3">
         <v>3</v>
       </c>
-      <c r="AK8" s="3"/>
+      <c r="AK8" s="3">
+        <v>0</v>
+      </c>
       <c r="AL8" s="3">
         <v>0.1</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN8" s="3">
         <v>1</v>
@@ -2769,12 +2771,14 @@
       <c r="AO8" s="3">
         <v>3</v>
       </c>
-      <c r="AP8" s="3"/>
+      <c r="AP8" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ8" s="3">
         <v>0.1</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS8" s="3">
         <v>1</v>
@@ -2782,17 +2786,14 @@
       <c r="AT8" s="3">
         <v>3</v>
       </c>
-      <c r="AU8" s="3"/>
+      <c r="AU8" s="3">
+        <v>0</v>
+      </c>
       <c r="AV8" s="3">
         <v>0.1</v>
       </c>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
     </row>
-    <row r="9" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2800,10 +2801,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2812,7 +2813,7 @@
         <v>180</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -2827,31 +2828,31 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y9" s="3">
         <v>7</v>
@@ -2859,12 +2860,14 @@
       <c r="Z9" s="3">
         <v>3</v>
       </c>
-      <c r="AA9" s="3"/>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
       <c r="AB9" s="3">
         <v>0.15</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="3">
         <v>1</v>
@@ -2872,12 +2875,14 @@
       <c r="AE9" s="3">
         <v>3</v>
       </c>
-      <c r="AF9" s="3"/>
+      <c r="AF9" s="3">
+        <v>0</v>
+      </c>
       <c r="AG9" s="3">
         <v>0.15</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI9" s="3">
         <v>1</v>
@@ -2885,12 +2890,14 @@
       <c r="AJ9" s="3">
         <v>3</v>
       </c>
-      <c r="AK9" s="3"/>
+      <c r="AK9" s="3">
+        <v>0</v>
+      </c>
       <c r="AL9" s="3">
         <v>0.15</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN9" s="3">
         <v>1</v>
@@ -2898,12 +2905,14 @@
       <c r="AO9" s="3">
         <v>3</v>
       </c>
-      <c r="AP9" s="3"/>
+      <c r="AP9" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ9" s="3">
         <v>0.15</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS9" s="3">
         <v>1</v>
@@ -2911,17 +2920,14 @@
       <c r="AT9" s="3">
         <v>3</v>
       </c>
-      <c r="AU9" s="3"/>
+      <c r="AU9" s="3">
+        <v>0</v>
+      </c>
       <c r="AV9" s="3">
         <v>0.15</v>
       </c>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
     </row>
-    <row r="10" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2929,10 +2935,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -2941,7 +2947,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -2950,7 +2956,7 @@
         <v>675.5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -2962,31 +2968,31 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y10" s="3">
         <v>7</v>
@@ -2994,12 +3000,14 @@
       <c r="Z10" s="3">
         <v>3</v>
       </c>
-      <c r="AA10" s="3"/>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
       <c r="AB10" s="3">
         <v>0.2</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD10" s="3">
         <v>1</v>
@@ -3007,12 +3015,14 @@
       <c r="AE10" s="3">
         <v>3</v>
       </c>
-      <c r="AF10" s="3"/>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
       <c r="AG10" s="3">
         <v>0.2</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI10" s="3">
         <v>1</v>
@@ -3020,12 +3030,14 @@
       <c r="AJ10" s="3">
         <v>3</v>
       </c>
-      <c r="AK10" s="3"/>
+      <c r="AK10" s="3">
+        <v>0</v>
+      </c>
       <c r="AL10" s="3">
         <v>0.2</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN10" s="3">
         <v>1</v>
@@ -3033,12 +3045,14 @@
       <c r="AO10" s="3">
         <v>3</v>
       </c>
-      <c r="AP10" s="3"/>
+      <c r="AP10" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ10" s="3">
         <v>0.2</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS10" s="3">
         <v>1</v>
@@ -3046,17 +3060,14 @@
       <c r="AT10" s="3">
         <v>3</v>
       </c>
-      <c r="AU10" s="3"/>
+      <c r="AU10" s="3">
+        <v>0</v>
+      </c>
       <c r="AV10" s="3">
         <v>0.2</v>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
     </row>
-    <row r="11" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -3064,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
@@ -3076,7 +3087,7 @@
         <v>230</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -3085,7 +3096,7 @@
         <v>2067.6</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="K11" s="3">
         <v>0</v>
@@ -3097,31 +3108,31 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="T11" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y11" s="3">
         <v>7</v>
@@ -3129,12 +3140,14 @@
       <c r="Z11" s="3">
         <v>3</v>
       </c>
-      <c r="AA11" s="3"/>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
       <c r="AB11" s="3">
         <v>0.25</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD11" s="3">
         <v>1</v>
@@ -3142,12 +3155,14 @@
       <c r="AE11" s="3">
         <v>3</v>
       </c>
-      <c r="AF11" s="3"/>
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
       <c r="AG11" s="3">
         <v>0.25</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI11" s="3">
         <v>1</v>
@@ -3155,12 +3170,14 @@
       <c r="AJ11" s="3">
         <v>3</v>
       </c>
-      <c r="AK11" s="3"/>
+      <c r="AK11" s="3">
+        <v>0</v>
+      </c>
       <c r="AL11" s="3">
         <v>0.25</v>
       </c>
       <c r="AM11" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN11" s="3">
         <v>1</v>
@@ -3168,12 +3185,14 @@
       <c r="AO11" s="3">
         <v>3</v>
       </c>
-      <c r="AP11" s="3"/>
+      <c r="AP11" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ11" s="3">
         <v>0.25</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS11" s="3">
         <v>1</v>
@@ -3181,17 +3200,14 @@
       <c r="AT11" s="3">
         <v>3</v>
       </c>
-      <c r="AU11" s="3"/>
+      <c r="AU11" s="3">
+        <v>0</v>
+      </c>
       <c r="AV11" s="3">
         <v>0.25</v>
       </c>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
     </row>
-    <row r="12" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3199,10 +3215,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -3211,7 +3227,7 @@
         <v>260</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3226,31 +3242,31 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y12" s="3">
         <v>7</v>
@@ -3258,12 +3274,14 @@
       <c r="Z12" s="3">
         <v>3</v>
       </c>
-      <c r="AA12" s="3"/>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
       <c r="AB12" s="3">
         <v>0.35</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD12" s="3">
         <v>1</v>
@@ -3271,12 +3289,14 @@
       <c r="AE12" s="3">
         <v>3</v>
       </c>
-      <c r="AF12" s="3"/>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
       <c r="AG12" s="3">
         <v>0.35</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI12" s="3">
         <v>1</v>
@@ -3284,12 +3304,14 @@
       <c r="AJ12" s="3">
         <v>3</v>
       </c>
-      <c r="AK12" s="3"/>
+      <c r="AK12" s="3">
+        <v>0</v>
+      </c>
       <c r="AL12" s="3">
         <v>0.35</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN12" s="3">
         <v>1</v>
@@ -3297,12 +3319,14 @@
       <c r="AO12" s="3">
         <v>3</v>
       </c>
-      <c r="AP12" s="3"/>
+      <c r="AP12" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ12" s="3">
         <v>0.35</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS12" s="3">
         <v>1</v>
@@ -3310,17 +3334,14 @@
       <c r="AT12" s="3">
         <v>3</v>
       </c>
-      <c r="AU12" s="3"/>
+      <c r="AU12" s="3">
+        <v>0</v>
+      </c>
       <c r="AV12" s="3">
         <v>0.35</v>
       </c>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
     </row>
-    <row r="13" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3328,10 +3349,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -3340,7 +3361,7 @@
         <v>290</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3355,31 +3376,31 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y13" s="3">
         <v>7</v>
@@ -3387,12 +3408,14 @@
       <c r="Z13" s="3">
         <v>3</v>
       </c>
-      <c r="AA13" s="3"/>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
       <c r="AB13" s="3">
         <v>0.45</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD13" s="3">
         <v>1</v>
@@ -3400,12 +3423,14 @@
       <c r="AE13" s="3">
         <v>3</v>
       </c>
-      <c r="AF13" s="3"/>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
       <c r="AG13" s="3">
         <v>0.45</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI13" s="3">
         <v>1</v>
@@ -3413,12 +3438,14 @@
       <c r="AJ13" s="3">
         <v>3</v>
       </c>
-      <c r="AK13" s="3"/>
+      <c r="AK13" s="3">
+        <v>0</v>
+      </c>
       <c r="AL13" s="3">
         <v>0.45</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN13" s="3">
         <v>1</v>
@@ -3426,12 +3453,14 @@
       <c r="AO13" s="3">
         <v>3</v>
       </c>
-      <c r="AP13" s="3"/>
+      <c r="AP13" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ13" s="3">
         <v>0.45</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS13" s="3">
         <v>1</v>
@@ -3439,17 +3468,14 @@
       <c r="AT13" s="3">
         <v>3</v>
       </c>
-      <c r="AU13" s="3"/>
+      <c r="AU13" s="3">
+        <v>0</v>
+      </c>
       <c r="AV13" s="3">
         <v>0.45</v>
       </c>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
     </row>
-    <row r="14" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3457,10 +3483,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -3469,7 +3495,7 @@
         <v>320</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
@@ -3484,31 +3510,31 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y14" s="3">
         <v>7</v>
@@ -3516,12 +3542,14 @@
       <c r="Z14" s="3">
         <v>3</v>
       </c>
-      <c r="AA14" s="3"/>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
       <c r="AB14" s="3">
         <v>0.5</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD14" s="3">
         <v>1</v>
@@ -3529,12 +3557,14 @@
       <c r="AE14" s="3">
         <v>3</v>
       </c>
-      <c r="AF14" s="3"/>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
       <c r="AG14" s="3">
         <v>0.5</v>
       </c>
       <c r="AH14" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI14" s="3">
         <v>1</v>
@@ -3542,12 +3572,14 @@
       <c r="AJ14" s="3">
         <v>3</v>
       </c>
-      <c r="AK14" s="3"/>
+      <c r="AK14" s="3">
+        <v>0</v>
+      </c>
       <c r="AL14" s="3">
         <v>0.5</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN14" s="3">
         <v>1</v>
@@ -3555,12 +3587,14 @@
       <c r="AO14" s="3">
         <v>3</v>
       </c>
-      <c r="AP14" s="3"/>
+      <c r="AP14" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ14" s="3">
         <v>0.5</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS14" s="3">
         <v>1</v>
@@ -3568,17 +3602,14 @@
       <c r="AT14" s="3">
         <v>3</v>
       </c>
-      <c r="AU14" s="3"/>
+      <c r="AU14" s="3">
+        <v>0</v>
+      </c>
       <c r="AV14" s="3">
         <v>0.5</v>
       </c>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
     </row>
-    <row r="15" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3586,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -3598,7 +3629,7 @@
         <v>360</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
@@ -3613,31 +3644,31 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y15" s="3">
         <v>7</v>
@@ -3645,12 +3676,14 @@
       <c r="Z15" s="3">
         <v>3</v>
       </c>
-      <c r="AA15" s="3"/>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
       <c r="AB15" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD15" s="3">
         <v>1</v>
@@ -3658,12 +3691,14 @@
       <c r="AE15" s="3">
         <v>3</v>
       </c>
-      <c r="AF15" s="3"/>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
       <c r="AG15" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI15" s="3">
         <v>1</v>
@@ -3671,12 +3706,14 @@
       <c r="AJ15" s="3">
         <v>3</v>
       </c>
-      <c r="AK15" s="3"/>
+      <c r="AK15" s="3">
+        <v>0</v>
+      </c>
       <c r="AL15" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="AM15" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN15" s="3">
         <v>1</v>
@@ -3684,12 +3721,14 @@
       <c r="AO15" s="3">
         <v>3</v>
       </c>
-      <c r="AP15" s="3"/>
+      <c r="AP15" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ15" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS15" s="3">
         <v>1</v>
@@ -3697,17 +3736,14 @@
       <c r="AT15" s="3">
         <v>3</v>
       </c>
-      <c r="AU15" s="3"/>
+      <c r="AU15" s="3">
+        <v>0</v>
+      </c>
       <c r="AV15" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
     </row>
-    <row r="16" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3715,10 +3751,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -3727,7 +3763,7 @@
         <v>400</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H16" s="3">
         <v>2</v>
@@ -3742,27 +3778,27 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y16" s="3">
         <v>7</v>
@@ -3770,12 +3806,14 @@
       <c r="Z16" s="3">
         <v>3</v>
       </c>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
       <c r="AB16" s="3">
         <v>0.6</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD16" s="3">
         <v>1</v>
@@ -3783,12 +3821,14 @@
       <c r="AE16" s="3">
         <v>3</v>
       </c>
-      <c r="AF16" s="3"/>
+      <c r="AF16" s="3">
+        <v>0</v>
+      </c>
       <c r="AG16" s="3">
         <v>0.6</v>
       </c>
       <c r="AH16" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI16" s="3">
         <v>1</v>
@@ -3796,12 +3836,14 @@
       <c r="AJ16" s="3">
         <v>3</v>
       </c>
-      <c r="AK16" s="3"/>
+      <c r="AK16" s="3">
+        <v>0</v>
+      </c>
       <c r="AL16" s="3">
         <v>0.6</v>
       </c>
       <c r="AM16" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN16" s="3">
         <v>1</v>
@@ -3809,12 +3851,14 @@
       <c r="AO16" s="3">
         <v>3</v>
       </c>
-      <c r="AP16" s="3"/>
+      <c r="AP16" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ16" s="3">
         <v>0.6</v>
       </c>
       <c r="AR16" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS16" s="3">
         <v>1</v>
@@ -3822,17 +3866,14 @@
       <c r="AT16" s="3">
         <v>3</v>
       </c>
-      <c r="AU16" s="3"/>
+      <c r="AU16" s="3">
+        <v>0</v>
+      </c>
       <c r="AV16" s="3">
         <v>0.6</v>
       </c>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
     </row>
-    <row r="17" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3840,10 +3881,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -3852,7 +3893,7 @@
         <v>440</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H17" s="3">
         <v>2</v>
@@ -3867,27 +3908,27 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="T17" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y17" s="3">
         <v>7</v>
@@ -3895,12 +3936,14 @@
       <c r="Z17" s="3">
         <v>3</v>
       </c>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
       <c r="AB17" s="3">
         <v>0.65</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD17" s="3">
         <v>1</v>
@@ -3908,12 +3951,14 @@
       <c r="AE17" s="3">
         <v>3</v>
       </c>
-      <c r="AF17" s="3"/>
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
       <c r="AG17" s="3">
         <v>0.65</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI17" s="3">
         <v>1</v>
@@ -3921,12 +3966,14 @@
       <c r="AJ17" s="3">
         <v>3</v>
       </c>
-      <c r="AK17" s="3"/>
+      <c r="AK17" s="3">
+        <v>0</v>
+      </c>
       <c r="AL17" s="3">
         <v>0.65</v>
       </c>
       <c r="AM17" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN17" s="3">
         <v>1</v>
@@ -3934,12 +3981,14 @@
       <c r="AO17" s="3">
         <v>3</v>
       </c>
-      <c r="AP17" s="3"/>
+      <c r="AP17" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ17" s="3">
         <v>0.65</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS17" s="3">
         <v>1</v>
@@ -3947,17 +3996,14 @@
       <c r="AT17" s="3">
         <v>3</v>
       </c>
-      <c r="AU17" s="3"/>
+      <c r="AU17" s="3">
+        <v>0</v>
+      </c>
       <c r="AV17" s="3">
         <v>0.65</v>
       </c>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
     </row>
-    <row r="18" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3965,10 +4011,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -3977,7 +4023,7 @@
         <v>490</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H18" s="3">
         <v>2</v>
@@ -3992,27 +4038,27 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y18" s="3">
         <v>7</v>
@@ -4020,12 +4066,14 @@
       <c r="Z18" s="3">
         <v>3</v>
       </c>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
       <c r="AB18" s="3">
         <v>0.7</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD18" s="3">
         <v>1</v>
@@ -4033,12 +4081,14 @@
       <c r="AE18" s="3">
         <v>3</v>
       </c>
-      <c r="AF18" s="3"/>
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
       <c r="AG18" s="3">
         <v>0.7</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI18" s="3">
         <v>1</v>
@@ -4046,12 +4096,14 @@
       <c r="AJ18" s="3">
         <v>3</v>
       </c>
-      <c r="AK18" s="3"/>
+      <c r="AK18" s="3">
+        <v>0</v>
+      </c>
       <c r="AL18" s="3">
         <v>0.7</v>
       </c>
       <c r="AM18" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN18" s="3">
         <v>1</v>
@@ -4059,12 +4111,14 @@
       <c r="AO18" s="3">
         <v>3</v>
       </c>
-      <c r="AP18" s="3"/>
+      <c r="AP18" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ18" s="3">
         <v>0.7</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS18" s="3">
         <v>1</v>
@@ -4072,17 +4126,14 @@
       <c r="AT18" s="3">
         <v>3</v>
       </c>
-      <c r="AU18" s="3"/>
+      <c r="AU18" s="3">
+        <v>0</v>
+      </c>
       <c r="AV18" s="3">
         <v>0.7</v>
       </c>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
     </row>
-    <row r="19" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4090,10 +4141,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -4102,7 +4153,7 @@
         <v>540</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H19" s="3">
         <v>2</v>
@@ -4117,27 +4168,27 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="T19" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y19" s="3">
         <v>7</v>
@@ -4145,12 +4196,14 @@
       <c r="Z19" s="3">
         <v>3</v>
       </c>
-      <c r="AA19" s="3"/>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
       <c r="AB19" s="3">
         <v>0.75</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD19" s="3">
         <v>1</v>
@@ -4158,12 +4211,14 @@
       <c r="AE19" s="3">
         <v>3</v>
       </c>
-      <c r="AF19" s="3"/>
+      <c r="AF19" s="3">
+        <v>0</v>
+      </c>
       <c r="AG19" s="3">
         <v>0.75</v>
       </c>
       <c r="AH19" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI19" s="3">
         <v>1</v>
@@ -4171,12 +4226,14 @@
       <c r="AJ19" s="3">
         <v>3</v>
       </c>
-      <c r="AK19" s="3"/>
+      <c r="AK19" s="3">
+        <v>0</v>
+      </c>
       <c r="AL19" s="3">
         <v>0.75</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN19" s="3">
         <v>1</v>
@@ -4184,12 +4241,14 @@
       <c r="AO19" s="3">
         <v>3</v>
       </c>
-      <c r="AP19" s="3"/>
+      <c r="AP19" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ19" s="3">
         <v>0.75</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS19" s="3">
         <v>1</v>
@@ -4197,17 +4256,14 @@
       <c r="AT19" s="3">
         <v>3</v>
       </c>
-      <c r="AU19" s="3"/>
+      <c r="AU19" s="3">
+        <v>0</v>
+      </c>
       <c r="AV19" s="3">
         <v>0.75</v>
       </c>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
     </row>
-    <row r="20" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4215,10 +4271,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -4227,7 +4283,7 @@
         <v>590</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H20" s="3">
         <v>2</v>
@@ -4242,27 +4298,27 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y20" s="3">
         <v>7</v>
@@ -4270,12 +4326,14 @@
       <c r="Z20" s="3">
         <v>3</v>
       </c>
-      <c r="AA20" s="3"/>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
       <c r="AB20" s="3">
         <v>0.8</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD20" s="3">
         <v>1</v>
@@ -4283,12 +4341,14 @@
       <c r="AE20" s="3">
         <v>3</v>
       </c>
-      <c r="AF20" s="3"/>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
       <c r="AG20" s="3">
         <v>0.8</v>
       </c>
       <c r="AH20" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI20" s="3">
         <v>1</v>
@@ -4296,12 +4356,14 @@
       <c r="AJ20" s="3">
         <v>3</v>
       </c>
-      <c r="AK20" s="3"/>
+      <c r="AK20" s="3">
+        <v>0</v>
+      </c>
       <c r="AL20" s="3">
         <v>0.8</v>
       </c>
       <c r="AM20" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN20" s="3">
         <v>1</v>
@@ -4309,12 +4371,14 @@
       <c r="AO20" s="3">
         <v>3</v>
       </c>
-      <c r="AP20" s="3"/>
+      <c r="AP20" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ20" s="3">
         <v>0.8</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS20" s="3">
         <v>1</v>
@@ -4322,17 +4386,14 @@
       <c r="AT20" s="3">
         <v>3</v>
       </c>
-      <c r="AU20" s="3"/>
+      <c r="AU20" s="3">
+        <v>0</v>
+      </c>
       <c r="AV20" s="3">
         <v>0.8</v>
       </c>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
     </row>
-    <row r="21" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -4340,10 +4401,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -4352,7 +4413,7 @@
         <v>650</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H21" s="3">
         <v>2</v>
@@ -4367,27 +4428,27 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y21" s="3">
         <v>7</v>
@@ -4395,12 +4456,14 @@
       <c r="Z21" s="3">
         <v>3</v>
       </c>
-      <c r="AA21" s="3"/>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
       <c r="AB21" s="3">
         <v>0.85</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD21" s="3">
         <v>1</v>
@@ -4408,12 +4471,14 @@
       <c r="AE21" s="3">
         <v>3</v>
       </c>
-      <c r="AF21" s="3"/>
+      <c r="AF21" s="3">
+        <v>0</v>
+      </c>
       <c r="AG21" s="3">
         <v>0.85</v>
       </c>
       <c r="AH21" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI21" s="3">
         <v>1</v>
@@ -4421,12 +4486,14 @@
       <c r="AJ21" s="3">
         <v>3</v>
       </c>
-      <c r="AK21" s="3"/>
+      <c r="AK21" s="3">
+        <v>0</v>
+      </c>
       <c r="AL21" s="3">
         <v>0.85</v>
       </c>
       <c r="AM21" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN21" s="3">
         <v>1</v>
@@ -4434,12 +4501,14 @@
       <c r="AO21" s="3">
         <v>3</v>
       </c>
-      <c r="AP21" s="3"/>
+      <c r="AP21" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ21" s="3">
         <v>0.85</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS21" s="3">
         <v>1</v>
@@ -4447,17 +4516,14 @@
       <c r="AT21" s="3">
         <v>3</v>
       </c>
-      <c r="AU21" s="3"/>
+      <c r="AU21" s="3">
+        <v>0</v>
+      </c>
       <c r="AV21" s="3">
         <v>0.85</v>
       </c>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
     </row>
-    <row r="22" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4465,10 +4531,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -4477,7 +4543,7 @@
         <v>720</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H22" s="3">
         <v>2</v>
@@ -4492,27 +4558,27 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y22" s="3">
         <v>7</v>
@@ -4520,12 +4586,14 @@
       <c r="Z22" s="3">
         <v>3</v>
       </c>
-      <c r="AA22" s="3"/>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
       <c r="AB22" s="3">
         <v>0.9</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD22" s="3">
         <v>1</v>
@@ -4533,12 +4601,14 @@
       <c r="AE22" s="3">
         <v>3</v>
       </c>
-      <c r="AF22" s="3"/>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
       <c r="AG22" s="3">
         <v>0.9</v>
       </c>
       <c r="AH22" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI22" s="3">
         <v>1</v>
@@ -4546,12 +4616,14 @@
       <c r="AJ22" s="3">
         <v>3</v>
       </c>
-      <c r="AK22" s="3"/>
+      <c r="AK22" s="3">
+        <v>0</v>
+      </c>
       <c r="AL22" s="3">
         <v>0.9</v>
       </c>
       <c r="AM22" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN22" s="3">
         <v>1</v>
@@ -4559,12 +4631,14 @@
       <c r="AO22" s="3">
         <v>3</v>
       </c>
-      <c r="AP22" s="3"/>
+      <c r="AP22" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ22" s="3">
         <v>0.9</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS22" s="3">
         <v>1</v>
@@ -4572,17 +4646,14 @@
       <c r="AT22" s="3">
         <v>3</v>
       </c>
-      <c r="AU22" s="3"/>
+      <c r="AU22" s="3">
+        <v>0</v>
+      </c>
       <c r="AV22" s="3">
         <v>0.9</v>
       </c>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
     </row>
-    <row r="23" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -4590,10 +4661,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -4602,7 +4673,7 @@
         <v>790</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H23" s="3">
         <v>2</v>
@@ -4617,27 +4688,27 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="T23" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y23" s="3">
         <v>7</v>
@@ -4645,12 +4716,14 @@
       <c r="Z23" s="3">
         <v>3</v>
       </c>
-      <c r="AA23" s="3"/>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
       <c r="AB23" s="3">
         <v>1</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD23" s="3">
         <v>1</v>
@@ -4658,12 +4731,14 @@
       <c r="AE23" s="3">
         <v>3</v>
       </c>
-      <c r="AF23" s="3"/>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
       <c r="AG23" s="3">
         <v>1</v>
       </c>
       <c r="AH23" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI23" s="3">
         <v>1</v>
@@ -4671,12 +4746,14 @@
       <c r="AJ23" s="3">
         <v>3</v>
       </c>
-      <c r="AK23" s="3"/>
+      <c r="AK23" s="3">
+        <v>0</v>
+      </c>
       <c r="AL23" s="3">
         <v>1</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN23" s="3">
         <v>1</v>
@@ -4684,12 +4761,14 @@
       <c r="AO23" s="3">
         <v>3</v>
       </c>
-      <c r="AP23" s="3"/>
+      <c r="AP23" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ23" s="3">
         <v>1</v>
       </c>
       <c r="AR23" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS23" s="3">
         <v>1</v>
@@ -4697,17 +4776,14 @@
       <c r="AT23" s="3">
         <v>3</v>
       </c>
-      <c r="AU23" s="3"/>
+      <c r="AU23" s="3">
+        <v>0</v>
+      </c>
       <c r="AV23" s="3">
         <v>1</v>
       </c>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
     </row>
-    <row r="24" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4715,10 +4791,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -4727,7 +4803,7 @@
         <v>860</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H24" s="3">
         <v>2</v>
@@ -4742,27 +4818,27 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="T24" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y24" s="3">
         <v>7</v>
@@ -4770,12 +4846,14 @@
       <c r="Z24" s="3">
         <v>3</v>
       </c>
-      <c r="AA24" s="3"/>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
       <c r="AB24" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD24" s="3">
         <v>1</v>
@@ -4783,12 +4861,14 @@
       <c r="AE24" s="3">
         <v>3</v>
       </c>
-      <c r="AF24" s="3"/>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
       <c r="AG24" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="AH24" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI24" s="3">
         <v>1</v>
@@ -4796,12 +4876,14 @@
       <c r="AJ24" s="3">
         <v>3</v>
       </c>
-      <c r="AK24" s="3"/>
+      <c r="AK24" s="3">
+        <v>0</v>
+      </c>
       <c r="AL24" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="AM24" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN24" s="3">
         <v>1</v>
@@ -4809,12 +4891,14 @@
       <c r="AO24" s="3">
         <v>3</v>
       </c>
-      <c r="AP24" s="3"/>
+      <c r="AP24" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ24" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="AR24" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS24" s="3">
         <v>1</v>
@@ -4822,17 +4906,14 @@
       <c r="AT24" s="3">
         <v>3</v>
       </c>
-      <c r="AU24" s="3"/>
+      <c r="AU24" s="3">
+        <v>0</v>
+      </c>
       <c r="AV24" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
     </row>
-    <row r="25" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -4840,10 +4921,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -4852,7 +4933,7 @@
         <v>940</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H25" s="3">
         <v>2</v>
@@ -4867,27 +4948,27 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="T25" s="7" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y25" s="3">
         <v>7</v>
@@ -4895,12 +4976,14 @@
       <c r="Z25" s="3">
         <v>3</v>
       </c>
-      <c r="AA25" s="3"/>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
       <c r="AB25" s="3">
         <v>1.2</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD25" s="3">
         <v>1</v>
@@ -4908,12 +4991,14 @@
       <c r="AE25" s="3">
         <v>3</v>
       </c>
-      <c r="AF25" s="3"/>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
       <c r="AG25" s="3">
         <v>1.2</v>
       </c>
       <c r="AH25" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI25" s="3">
         <v>1</v>
@@ -4921,12 +5006,14 @@
       <c r="AJ25" s="3">
         <v>3</v>
       </c>
-      <c r="AK25" s="3"/>
+      <c r="AK25" s="3">
+        <v>0</v>
+      </c>
       <c r="AL25" s="3">
         <v>1.2</v>
       </c>
       <c r="AM25" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN25" s="3">
         <v>1</v>
@@ -4934,12 +5021,14 @@
       <c r="AO25" s="3">
         <v>3</v>
       </c>
-      <c r="AP25" s="3"/>
+      <c r="AP25" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ25" s="3">
         <v>1.2</v>
       </c>
       <c r="AR25" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS25" s="3">
         <v>1</v>
@@ -4947,17 +5036,14 @@
       <c r="AT25" s="3">
         <v>3</v>
       </c>
-      <c r="AU25" s="3"/>
+      <c r="AU25" s="3">
+        <v>0</v>
+      </c>
       <c r="AV25" s="3">
         <v>1.2</v>
       </c>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
     </row>
-    <row r="26" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -4965,10 +5051,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -4977,7 +5063,7 @@
         <v>1030</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H26" s="3">
         <v>2</v>
@@ -4992,27 +5078,27 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y26" s="3">
         <v>7</v>
@@ -5020,12 +5106,14 @@
       <c r="Z26" s="3">
         <v>3</v>
       </c>
-      <c r="AA26" s="3"/>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
       <c r="AB26" s="3">
         <v>1.3</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD26" s="3">
         <v>1</v>
@@ -5033,12 +5121,14 @@
       <c r="AE26" s="3">
         <v>3</v>
       </c>
-      <c r="AF26" s="3"/>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
       <c r="AG26" s="3">
         <v>1.3</v>
       </c>
       <c r="AH26" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI26" s="3">
         <v>1</v>
@@ -5046,12 +5136,14 @@
       <c r="AJ26" s="3">
         <v>3</v>
       </c>
-      <c r="AK26" s="3"/>
+      <c r="AK26" s="3">
+        <v>0</v>
+      </c>
       <c r="AL26" s="3">
         <v>1.3</v>
       </c>
       <c r="AM26" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN26" s="3">
         <v>1</v>
@@ -5059,12 +5151,14 @@
       <c r="AO26" s="3">
         <v>3</v>
       </c>
-      <c r="AP26" s="3"/>
+      <c r="AP26" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ26" s="3">
         <v>1.3</v>
       </c>
       <c r="AR26" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS26" s="3">
         <v>1</v>
@@ -5072,17 +5166,14 @@
       <c r="AT26" s="3">
         <v>3</v>
       </c>
-      <c r="AU26" s="3"/>
+      <c r="AU26" s="3">
+        <v>0</v>
+      </c>
       <c r="AV26" s="3">
         <v>1.3</v>
       </c>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
     </row>
-    <row r="27" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -5090,10 +5181,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -5102,7 +5193,7 @@
         <v>1120</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H27" s="3">
         <v>2</v>
@@ -5117,27 +5208,27 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y27" s="3">
         <v>7</v>
@@ -5145,12 +5236,14 @@
       <c r="Z27" s="3">
         <v>3</v>
       </c>
-      <c r="AA27" s="3"/>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
       <c r="AB27" s="3">
         <v>1.4</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD27" s="3">
         <v>1</v>
@@ -5158,12 +5251,14 @@
       <c r="AE27" s="3">
         <v>3</v>
       </c>
-      <c r="AF27" s="3"/>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
       <c r="AG27" s="3">
         <v>1.4</v>
       </c>
       <c r="AH27" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI27" s="3">
         <v>1</v>
@@ -5171,12 +5266,14 @@
       <c r="AJ27" s="3">
         <v>3</v>
       </c>
-      <c r="AK27" s="3"/>
+      <c r="AK27" s="3">
+        <v>0</v>
+      </c>
       <c r="AL27" s="3">
         <v>1.4</v>
       </c>
       <c r="AM27" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN27" s="3">
         <v>1</v>
@@ -5184,12 +5281,14 @@
       <c r="AO27" s="3">
         <v>3</v>
       </c>
-      <c r="AP27" s="3"/>
+      <c r="AP27" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ27" s="3">
         <v>1.4</v>
       </c>
       <c r="AR27" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS27" s="3">
         <v>1</v>
@@ -5197,17 +5296,14 @@
       <c r="AT27" s="3">
         <v>3</v>
       </c>
-      <c r="AU27" s="3"/>
+      <c r="AU27" s="3">
+        <v>0</v>
+      </c>
       <c r="AV27" s="3">
         <v>1.4</v>
       </c>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="3"/>
-      <c r="BA27" s="3"/>
     </row>
-    <row r="28" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -5215,10 +5311,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -5227,7 +5323,7 @@
         <v>1230</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H28" s="3">
         <v>2</v>
@@ -5242,27 +5338,27 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y28" s="3">
         <v>7</v>
@@ -5270,12 +5366,14 @@
       <c r="Z28" s="3">
         <v>3</v>
       </c>
-      <c r="AA28" s="3"/>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
       <c r="AB28" s="3">
         <v>1.5</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD28" s="3">
         <v>1</v>
@@ -5283,12 +5381,14 @@
       <c r="AE28" s="3">
         <v>3</v>
       </c>
-      <c r="AF28" s="3"/>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
       <c r="AG28" s="3">
         <v>1.5</v>
       </c>
       <c r="AH28" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI28" s="3">
         <v>1</v>
@@ -5296,12 +5396,14 @@
       <c r="AJ28" s="3">
         <v>3</v>
       </c>
-      <c r="AK28" s="3"/>
+      <c r="AK28" s="3">
+        <v>0</v>
+      </c>
       <c r="AL28" s="3">
         <v>1.5</v>
       </c>
       <c r="AM28" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN28" s="3">
         <v>1</v>
@@ -5309,12 +5411,14 @@
       <c r="AO28" s="3">
         <v>3</v>
       </c>
-      <c r="AP28" s="3"/>
+      <c r="AP28" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ28" s="3">
         <v>1.5</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS28" s="3">
         <v>1</v>
@@ -5322,17 +5426,14 @@
       <c r="AT28" s="3">
         <v>3</v>
       </c>
-      <c r="AU28" s="3"/>
+      <c r="AU28" s="3">
+        <v>0</v>
+      </c>
       <c r="AV28" s="3">
         <v>1.5</v>
       </c>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
     </row>
-    <row r="29" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -5340,10 +5441,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -5352,7 +5453,7 @@
         <v>1340</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H29" s="3">
         <v>2</v>
@@ -5367,27 +5468,27 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y29" s="3">
         <v>7</v>
@@ -5395,12 +5496,14 @@
       <c r="Z29" s="3">
         <v>3</v>
       </c>
-      <c r="AA29" s="3"/>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
       <c r="AB29" s="3">
         <v>1.6</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD29" s="3">
         <v>1</v>
@@ -5408,12 +5511,14 @@
       <c r="AE29" s="3">
         <v>3</v>
       </c>
-      <c r="AF29" s="3"/>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
       <c r="AG29" s="3">
         <v>1.6</v>
       </c>
       <c r="AH29" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI29" s="3">
         <v>1</v>
@@ -5421,12 +5526,14 @@
       <c r="AJ29" s="3">
         <v>3</v>
       </c>
-      <c r="AK29" s="3"/>
+      <c r="AK29" s="3">
+        <v>0</v>
+      </c>
       <c r="AL29" s="3">
         <v>1.6</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN29" s="3">
         <v>1</v>
@@ -5434,12 +5541,14 @@
       <c r="AO29" s="3">
         <v>3</v>
       </c>
-      <c r="AP29" s="3"/>
+      <c r="AP29" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ29" s="3">
         <v>1.6</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS29" s="3">
         <v>1</v>
@@ -5447,17 +5556,14 @@
       <c r="AT29" s="3">
         <v>3</v>
       </c>
-      <c r="AU29" s="3"/>
+      <c r="AU29" s="3">
+        <v>0</v>
+      </c>
       <c r="AV29" s="3">
         <v>1.6</v>
       </c>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
     </row>
-    <row r="30" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -5465,10 +5571,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -5477,7 +5583,7 @@
         <v>1460</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H30" s="3">
         <v>2</v>
@@ -5492,27 +5598,27 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y30" s="3">
         <v>7</v>
@@ -5520,12 +5626,14 @@
       <c r="Z30" s="3">
         <v>3</v>
       </c>
-      <c r="AA30" s="3"/>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
       <c r="AB30" s="3">
         <v>1.7</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD30" s="3">
         <v>1</v>
@@ -5533,12 +5641,14 @@
       <c r="AE30" s="3">
         <v>3</v>
       </c>
-      <c r="AF30" s="3"/>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
       <c r="AG30" s="3">
         <v>1.7</v>
       </c>
       <c r="AH30" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI30" s="3">
         <v>1</v>
@@ -5546,12 +5656,14 @@
       <c r="AJ30" s="3">
         <v>3</v>
       </c>
-      <c r="AK30" s="3"/>
+      <c r="AK30" s="3">
+        <v>0</v>
+      </c>
       <c r="AL30" s="3">
         <v>1.7</v>
       </c>
       <c r="AM30" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN30" s="3">
         <v>1</v>
@@ -5559,12 +5671,14 @@
       <c r="AO30" s="3">
         <v>3</v>
       </c>
-      <c r="AP30" s="3"/>
+      <c r="AP30" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ30" s="3">
         <v>1.7</v>
       </c>
       <c r="AR30" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS30" s="3">
         <v>1</v>
@@ -5572,17 +5686,14 @@
       <c r="AT30" s="3">
         <v>3</v>
       </c>
-      <c r="AU30" s="3"/>
+      <c r="AU30" s="3">
+        <v>0</v>
+      </c>
       <c r="AV30" s="3">
         <v>1.7</v>
       </c>
-      <c r="AW30" s="3"/>
-      <c r="AX30" s="3"/>
-      <c r="AY30" s="3"/>
-      <c r="AZ30" s="3"/>
-      <c r="BA30" s="3"/>
     </row>
-    <row r="31" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -5590,10 +5701,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -5602,7 +5713,7 @@
         <v>1590</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H31" s="3">
         <v>3</v>
@@ -5617,27 +5728,27 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="R31" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="T31" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y31" s="3">
         <v>7</v>
@@ -5645,12 +5756,14 @@
       <c r="Z31" s="3">
         <v>3</v>
       </c>
-      <c r="AA31" s="3"/>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
       <c r="AB31" s="3">
         <v>1.8</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD31" s="3">
         <v>1</v>
@@ -5658,12 +5771,14 @@
       <c r="AE31" s="3">
         <v>3</v>
       </c>
-      <c r="AF31" s="3"/>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
       <c r="AG31" s="3">
         <v>1.8</v>
       </c>
       <c r="AH31" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI31" s="3">
         <v>1</v>
@@ -5671,12 +5786,14 @@
       <c r="AJ31" s="3">
         <v>3</v>
       </c>
-      <c r="AK31" s="3"/>
+      <c r="AK31" s="3">
+        <v>0</v>
+      </c>
       <c r="AL31" s="3">
         <v>1.8</v>
       </c>
       <c r="AM31" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN31" s="3">
         <v>1</v>
@@ -5684,12 +5801,14 @@
       <c r="AO31" s="3">
         <v>3</v>
       </c>
-      <c r="AP31" s="3"/>
+      <c r="AP31" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ31" s="3">
         <v>1.8</v>
       </c>
       <c r="AR31" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS31" s="3">
         <v>1</v>
@@ -5697,17 +5816,14 @@
       <c r="AT31" s="3">
         <v>3</v>
       </c>
-      <c r="AU31" s="3"/>
+      <c r="AU31" s="3">
+        <v>0</v>
+      </c>
       <c r="AV31" s="3">
         <v>1.8</v>
       </c>
-      <c r="AW31" s="3"/>
-      <c r="AX31" s="3"/>
-      <c r="AY31" s="3"/>
-      <c r="AZ31" s="3"/>
-      <c r="BA31" s="3"/>
     </row>
-    <row r="32" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -5715,10 +5831,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -5727,7 +5843,7 @@
         <v>1730</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H32" s="3">
         <v>3</v>
@@ -5742,27 +5858,27 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="T32" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y32" s="3">
         <v>7</v>
@@ -5770,12 +5886,14 @@
       <c r="Z32" s="3">
         <v>3</v>
       </c>
-      <c r="AA32" s="3"/>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
       <c r="AB32" s="3">
         <v>1.9</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD32" s="3">
         <v>1</v>
@@ -5783,12 +5901,14 @@
       <c r="AE32" s="3">
         <v>3</v>
       </c>
-      <c r="AF32" s="3"/>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
       <c r="AG32" s="3">
         <v>1.9</v>
       </c>
       <c r="AH32" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI32" s="3">
         <v>1</v>
@@ -5796,12 +5916,14 @@
       <c r="AJ32" s="3">
         <v>3</v>
       </c>
-      <c r="AK32" s="3"/>
+      <c r="AK32" s="3">
+        <v>0</v>
+      </c>
       <c r="AL32" s="3">
         <v>1.9</v>
       </c>
       <c r="AM32" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN32" s="3">
         <v>1</v>
@@ -5809,12 +5931,14 @@
       <c r="AO32" s="3">
         <v>3</v>
       </c>
-      <c r="AP32" s="3"/>
+      <c r="AP32" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ32" s="3">
         <v>1.9</v>
       </c>
       <c r="AR32" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS32" s="3">
         <v>1</v>
@@ -5822,17 +5946,14 @@
       <c r="AT32" s="3">
         <v>3</v>
       </c>
-      <c r="AU32" s="3"/>
+      <c r="AU32" s="3">
+        <v>0</v>
+      </c>
       <c r="AV32" s="3">
         <v>1.9</v>
       </c>
-      <c r="AW32" s="3"/>
-      <c r="AX32" s="3"/>
-      <c r="AY32" s="3"/>
-      <c r="AZ32" s="3"/>
-      <c r="BA32" s="3"/>
     </row>
-    <row r="33" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -5840,10 +5961,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -5852,7 +5973,7 @@
         <v>1880</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H33" s="3">
         <v>3</v>
@@ -5867,27 +5988,27 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="T33" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y33" s="3">
         <v>7</v>
@@ -5895,12 +6016,14 @@
       <c r="Z33" s="3">
         <v>3</v>
       </c>
-      <c r="AA33" s="3"/>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
       <c r="AB33" s="3">
         <v>2</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD33" s="3">
         <v>1</v>
@@ -5908,12 +6031,14 @@
       <c r="AE33" s="3">
         <v>3</v>
       </c>
-      <c r="AF33" s="3"/>
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
       <c r="AG33" s="3">
         <v>2</v>
       </c>
       <c r="AH33" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI33" s="3">
         <v>1</v>
@@ -5921,12 +6046,14 @@
       <c r="AJ33" s="3">
         <v>3</v>
       </c>
-      <c r="AK33" s="3"/>
+      <c r="AK33" s="3">
+        <v>0</v>
+      </c>
       <c r="AL33" s="3">
         <v>2</v>
       </c>
       <c r="AM33" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN33" s="3">
         <v>1</v>
@@ -5934,12 +6061,14 @@
       <c r="AO33" s="3">
         <v>3</v>
       </c>
-      <c r="AP33" s="3"/>
+      <c r="AP33" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ33" s="3">
         <v>2</v>
       </c>
       <c r="AR33" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS33" s="3">
         <v>1</v>
@@ -5947,17 +6076,14 @@
       <c r="AT33" s="3">
         <v>3</v>
       </c>
-      <c r="AU33" s="3"/>
+      <c r="AU33" s="3">
+        <v>0</v>
+      </c>
       <c r="AV33" s="3">
         <v>2</v>
       </c>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
     </row>
-    <row r="34" spans="1:53" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -5965,10 +6091,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -5977,7 +6103,7 @@
         <v>1880</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H34" s="3">
         <v>3</v>
@@ -5992,27 +6118,27 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="Y34" s="3">
         <v>7</v>
@@ -6020,12 +6146,14 @@
       <c r="Z34" s="3">
         <v>3</v>
       </c>
-      <c r="AA34" s="3"/>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
       <c r="AB34" s="3">
         <v>2.25</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AD34" s="3">
         <v>1</v>
@@ -6033,12 +6161,14 @@
       <c r="AE34" s="3">
         <v>3</v>
       </c>
-      <c r="AF34" s="3"/>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
       <c r="AG34" s="3">
         <v>2.25</v>
       </c>
       <c r="AH34" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AI34" s="3">
         <v>1</v>
@@ -6046,12 +6176,14 @@
       <c r="AJ34" s="3">
         <v>3</v>
       </c>
-      <c r="AK34" s="3"/>
+      <c r="AK34" s="3">
+        <v>0</v>
+      </c>
       <c r="AL34" s="3">
         <v>2.25</v>
       </c>
       <c r="AM34" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="AN34" s="3">
         <v>1</v>
@@ -6059,12 +6191,14 @@
       <c r="AO34" s="3">
         <v>3</v>
       </c>
-      <c r="AP34" s="3"/>
+      <c r="AP34" s="3">
+        <v>0</v>
+      </c>
       <c r="AQ34" s="3">
         <v>2.25</v>
       </c>
       <c r="AR34" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="AS34" s="3">
         <v>1</v>
@@ -6072,15 +6206,12 @@
       <c r="AT34" s="3">
         <v>3</v>
       </c>
-      <c r="AU34" s="3"/>
+      <c r="AU34" s="3">
+        <v>0</v>
+      </c>
       <c r="AV34" s="3">
         <v>2.25</v>
       </c>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51815380-D38F-4AB5-ADF3-532671563D98}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0117B1-D7D6-4C88-B223-24D46986F7F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="12630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1689,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D793B2-A4BF-4AD1-BF99-091F2A0E6B85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="331">
   <si>
     <t>sheet名</t>
   </si>
@@ -390,12 +396,6 @@
   </si>
   <si>
     <t>导弹炮1突</t>
-  </si>
-  <si>
-    <t>核能初体验</t>
-  </si>
-  <si>
-    <t>释放两次核子过载</t>
   </si>
   <si>
     <t>下士</t>
@@ -1019,14 +1019,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,180 +1033,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1221,6 +1077,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1229,11 +1086,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,91 +1121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,103 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,12 +1145,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1483,93 +1176,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1578,299 +1184,100 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2128,19 +1535,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2151,7 +1558,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2174,7 +1581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2197,26 +1604,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6:S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
@@ -2238,7 +1644,7 @@
     <col min="22" max="51" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:51">
+    <row r="1" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2393,7 +1799,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2548,7 +1954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:51">
+    <row r="3" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2683,7 +2089,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:51">
+    <row r="4" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2742,7 +2148,7 @@
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:51">
+    <row r="5" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2873,7 +2279,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:51">
+    <row r="6" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2921,12 +2327,8 @@
       <c r="Q6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3" t="s">
@@ -3008,7 +2410,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:51">
+    <row r="7" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3016,7 +2418,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="3">
         <v>11</v>
@@ -3045,22 +2447,22 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="R7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="S7" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -3075,7 +2477,7 @@
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>116</v>
@@ -3088,7 +2490,7 @@
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF7" s="3" t="s">
         <v>117</v>
@@ -3101,7 +2503,7 @@
       </c>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK7" s="3" t="s">
         <v>118</v>
@@ -3114,7 +2516,7 @@
       </c>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>119</v>
@@ -3127,7 +2529,7 @@
       </c>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AU7" s="3" t="s">
         <v>120</v>
@@ -3140,10 +2542,10 @@
       </c>
       <c r="AX7" s="3"/>
       <c r="AY7" s="3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:51">
+    <row r="8" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3151,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D8" s="3">
         <v>11</v>
@@ -3180,22 +2582,22 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="S8" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -3278,7 +2680,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:51">
+    <row r="9" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3286,7 +2688,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="3">
         <v>11</v>
@@ -3315,28 +2717,28 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="R9" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="S9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="U9" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>115</v>
@@ -3417,7 +2819,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:51">
+    <row r="10" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3425,7 +2827,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3">
         <v>11</v>
@@ -3454,28 +2856,28 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="R10" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="S10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="T10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="U10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>115</v>
@@ -3556,7 +2958,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:51">
+    <row r="11" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -3564,7 +2966,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" s="3">
         <v>11</v>
@@ -3593,28 +2995,28 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="R11" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="R11" s="8" t="s">
+      <c r="T11" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>115</v>
@@ -3695,7 +3097,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:51">
+    <row r="12" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3703,7 +3105,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D12" s="3">
         <v>11</v>
@@ -3732,28 +3134,28 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="R12" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>115</v>
@@ -3834,7 +3236,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:51">
+    <row r="13" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3842,7 +3244,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="3">
         <v>11</v>
@@ -3871,28 +3273,28 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="R13" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="T13" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="V13" s="3" t="s">
         <v>115</v>
@@ -3973,7 +3375,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:51">
+    <row r="14" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3981,7 +3383,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D14" s="3">
         <v>11</v>
@@ -4010,28 +3412,28 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="R14" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="T14" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>115</v>
@@ -4112,7 +3514,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:51">
+    <row r="15" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -4120,7 +3522,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D15" s="3">
         <v>11</v>
@@ -4149,28 +3551,28 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="R15" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="T15" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>115</v>
@@ -4183,7 +3585,7 @@
       </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>116</v>
@@ -4196,7 +3598,7 @@
       </c>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF15" s="3" t="s">
         <v>117</v>
@@ -4209,7 +3611,7 @@
       </c>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AK15" s="3" t="s">
         <v>118</v>
@@ -4222,7 +3624,7 @@
       </c>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AP15" s="3" t="s">
         <v>119</v>
@@ -4235,7 +3637,7 @@
       </c>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AU15" s="3" t="s">
         <v>120</v>
@@ -4248,10 +3650,10 @@
       </c>
       <c r="AX15" s="3"/>
       <c r="AY15" s="3">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:51">
+    <row r="16" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4259,7 +3661,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D16" s="3">
         <v>11</v>
@@ -4288,22 +3690,22 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P16" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="R16" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -4386,7 +3788,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:51">
+    <row r="17" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -4394,7 +3796,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D17" s="3">
         <v>11</v>
@@ -4423,22 +3825,22 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="R17" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -4521,7 +3923,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:51">
+    <row r="18" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4529,7 +3931,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D18" s="3">
         <v>11</v>
@@ -4558,22 +3960,22 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="R18" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -4656,7 +4058,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:51">
+    <row r="19" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4664,7 +4066,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D19" s="3">
         <v>11</v>
@@ -4693,22 +4095,22 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="R19" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -4791,7 +4193,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:51">
+    <row r="20" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4799,7 +4201,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D20" s="3">
         <v>11</v>
@@ -4828,22 +4230,22 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="R20" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -4926,7 +4328,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:51">
+    <row r="21" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -4934,7 +4336,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D21" s="3">
         <v>11</v>
@@ -4963,22 +4365,22 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="R21" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -5061,7 +4463,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:51">
+    <row r="22" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -5069,7 +4471,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D22" s="3">
         <v>11</v>
@@ -5098,22 +4500,22 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="R22" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -5196,7 +4598,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:51">
+    <row r="23" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -5204,7 +4606,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="3">
         <v>11</v>
@@ -5233,22 +4635,22 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="R23" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -5331,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:51">
+    <row r="24" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -5339,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D24" s="3">
         <v>11</v>
@@ -5368,22 +4770,22 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="R24" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -5398,7 +4800,7 @@
       </c>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>116</v>
@@ -5411,7 +4813,7 @@
       </c>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF24" s="3" t="s">
         <v>117</v>
@@ -5424,7 +4826,7 @@
       </c>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK24" s="3" t="s">
         <v>118</v>
@@ -5437,7 +4839,7 @@
       </c>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP24" s="3" t="s">
         <v>119</v>
@@ -5450,7 +4852,7 @@
       </c>
       <c r="AS24" s="3"/>
       <c r="AT24" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU24" s="3" t="s">
         <v>120</v>
@@ -5463,10 +4865,10 @@
       </c>
       <c r="AX24" s="3"/>
       <c r="AY24" s="3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:51">
+    <row r="25" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -5474,7 +4876,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" s="3">
         <v>11</v>
@@ -5503,22 +4905,22 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="R25" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -5601,7 +5003,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:51">
+    <row r="26" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -5609,7 +5011,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D26" s="3">
         <v>11</v>
@@ -5638,22 +5040,22 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="R26" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="R26" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -5736,7 +5138,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:51">
+    <row r="27" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -5744,7 +5146,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D27" s="3">
         <v>11</v>
@@ -5773,22 +5175,22 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P27" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="R27" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -5871,7 +5273,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:51">
+    <row r="28" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -5879,7 +5281,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D28" s="3">
         <v>11</v>
@@ -5908,22 +5310,22 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="R28" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -6006,7 +5408,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:51">
+    <row r="29" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -6014,7 +5416,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D29" s="3">
         <v>11</v>
@@ -6043,22 +5445,22 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="P29" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="R29" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -6141,7 +5543,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:51">
+    <row r="30" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -6149,7 +5551,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D30" s="3">
         <v>11</v>
@@ -6178,22 +5580,22 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="R30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -6276,7 +5678,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:51">
+    <row r="31" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -6284,7 +5686,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D31" s="3">
         <v>11</v>
@@ -6313,22 +5715,22 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="P31" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="R31" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="R31" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -6411,7 +5813,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:51">
+    <row r="32" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -6419,7 +5821,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D32" s="3">
         <v>11</v>
@@ -6448,22 +5850,22 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="R32" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="R32" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -6546,7 +5948,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:51">
+    <row r="33" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -6554,7 +5956,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D33" s="3">
         <v>11</v>
@@ -6583,22 +5985,22 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P33" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="R33" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -6681,7 +6083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:51">
+    <row r="34" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -6689,7 +6091,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D34" s="3">
         <v>11</v>
@@ -6718,22 +6120,22 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="P34" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="R34" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -6817,8 +6219,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D793B2-A4BF-4AD1-BF99-091F2A0E6B85}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F9172-9591-4D7C-BC80-994E4A388494}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="377">
   <si>
     <t>sheet名</t>
   </si>
@@ -1014,6 +1014,209 @@
   </si>
   <si>
     <t>战机强化到1000</t>
+  </si>
+  <si>
+    <r>
+      <t>item</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:e&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励ID1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励ID2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励ID3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励ID4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励ID5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励值5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破丹</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>天命丹</t>
+  </si>
+  <si>
+    <t>项链S2</t>
+  </si>
+  <si>
+    <t>戒指S2</t>
+  </si>
+  <si>
+    <t>award[1].valw</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励权重1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[2].valw</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励权重2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[3].valw</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励权重3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[4].valw</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励权重4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>award[5].valw</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励权重5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指S1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩甲S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指S3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器S4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔S4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩甲S4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服S4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子S4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子S4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>项链S4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指S4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备抽取券</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1216,7 +1419,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,6 +1451,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
@@ -1616,35 +1820,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY34"/>
+  <dimension ref="A1:BD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="15.625" customWidth="1"/>
-    <col min="15" max="15" width="20.875" customWidth="1"/>
-    <col min="16" max="19" width="18.125" customWidth="1"/>
-    <col min="20" max="20" width="17.625" customWidth="1"/>
-    <col min="21" max="21" width="18.125" customWidth="1"/>
-    <col min="22" max="51" width="12" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="15.875" customWidth="1"/>
+    <col min="15" max="15" width="14.625" customWidth="1"/>
+    <col min="16" max="16" width="13.875" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="14.625" customWidth="1"/>
+    <col min="19" max="19" width="15.625" customWidth="1"/>
+    <col min="20" max="20" width="20.875" customWidth="1"/>
+    <col min="21" max="24" width="18.125" customWidth="1"/>
+    <col min="25" max="25" width="17.625" customWidth="1"/>
+    <col min="26" max="26" width="18.125" customWidth="1"/>
+    <col min="27" max="56" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1658,148 +1867,163 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1809,74 +2033,74 @@
       <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="D2" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="S2" t="s">
         <v>64</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>65</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>65</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>64</v>
       </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
         <v>65</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
         <v>64</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
         <v>65</v>
-      </c>
-      <c r="V2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>67</v>
       </c>
       <c r="AA2" t="s">
         <v>66</v>
@@ -1953,8 +2177,23 @@
       <c r="AY2" t="s">
         <v>67</v>
       </c>
+      <c r="AZ2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1964,132 +2203,167 @@
       <c r="C3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="N3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AN3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AV3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2147,8 +2421,13 @@
       <c r="AW4" s="3"/>
       <c r="AX4" s="3"/>
       <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
     </row>
-    <row r="5" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2158,66 +2437,54 @@
       <c r="C5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="3">
-        <v>11</v>
+      <c r="D5" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H5" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>14</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
+        <v>12.4</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="T5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="U5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="V5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W5" s="3">
+      <c r="AB5" s="3">
         <v>7</v>
-      </c>
-      <c r="X5" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>1</v>
       </c>
       <c r="AC5" s="3">
         <v>3</v>
@@ -2227,7 +2494,7 @@
         <v>0.02</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG5" s="3">
         <v>1</v>
@@ -2240,7 +2507,7 @@
         <v>0.02</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL5" s="3">
         <v>1</v>
@@ -2253,7 +2520,7 @@
         <v>0.02</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ5" s="3">
         <v>1</v>
@@ -2266,7 +2533,7 @@
         <v>0.02</v>
       </c>
       <c r="AU5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV5" s="3">
         <v>1</v>
@@ -2278,8 +2545,21 @@
       <c r="AY5" s="3">
         <v>0.02</v>
       </c>
+      <c r="AZ5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2289,66 +2569,60 @@
       <c r="C6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="3">
-        <v>11</v>
+      <c r="D6" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2</v>
+        <v>110</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H6" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3">
-        <v>14</v>
+        <v>130.5</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="K6" s="3">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="T6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W6" s="3">
+      <c r="AB6" s="3">
         <v>7</v>
-      </c>
-      <c r="X6" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>1</v>
       </c>
       <c r="AC6" s="3">
         <v>3</v>
@@ -2358,7 +2632,7 @@
         <v>0.05</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG6" s="3">
         <v>1</v>
@@ -2371,7 +2645,7 @@
         <v>0.05</v>
       </c>
       <c r="AK6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL6" s="3">
         <v>1</v>
@@ -2384,7 +2658,7 @@
         <v>0.05</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ6" s="3">
         <v>1</v>
@@ -2397,7 +2671,7 @@
         <v>0.05</v>
       </c>
       <c r="AU6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV6" s="3">
         <v>1</v>
@@ -2409,8 +2683,21 @@
       <c r="AY6" s="3">
         <v>0.05</v>
       </c>
+      <c r="AZ6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2420,70 +2707,64 @@
       <c r="C7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="3">
-        <v>11</v>
+      <c r="D7" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
+        <v>130</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H7" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>14</v>
+        <v>205.1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="K7" s="3">
-        <v>3</v>
-      </c>
-      <c r="L7" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="T7" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3" t="s">
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W7" s="3">
+      <c r="AB7" s="3">
         <v>7</v>
-      </c>
-      <c r="X7" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>1</v>
       </c>
       <c r="AC7" s="3">
         <v>3</v>
@@ -2493,7 +2774,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG7" s="3">
         <v>1</v>
@@ -2506,7 +2787,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL7" s="3">
         <v>1</v>
@@ -2519,7 +2800,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ7" s="3">
         <v>1</v>
@@ -2532,7 +2813,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AU7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV7" s="3">
         <v>1</v>
@@ -2544,8 +2825,21 @@
       <c r="AY7" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AZ7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2555,70 +2849,64 @@
       <c r="C8" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="3">
-        <v>11</v>
+      <c r="D8" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4</v>
+        <v>150</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H8" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>14</v>
+        <v>329.4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="K8" s="3">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3" t="s">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W8" s="3">
+      <c r="AB8" s="3">
         <v>7</v>
-      </c>
-      <c r="X8" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1</v>
       </c>
       <c r="AC8" s="3">
         <v>3</v>
@@ -2628,7 +2916,7 @@
         <v>0.1</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG8" s="3">
         <v>1</v>
@@ -2641,7 +2929,7 @@
         <v>0.1</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL8" s="3">
         <v>1</v>
@@ -2654,7 +2942,7 @@
         <v>0.1</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ8" s="3">
         <v>1</v>
@@ -2667,7 +2955,7 @@
         <v>0.1</v>
       </c>
       <c r="AU8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV8" s="3">
         <v>1</v>
@@ -2679,8 +2967,21 @@
       <c r="AY8" s="3">
         <v>0.1</v>
       </c>
+      <c r="AZ8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -2690,74 +2991,68 @@
       <c r="C9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="3">
-        <v>11</v>
+      <c r="D9" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>180</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>487.8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="3">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3">
-        <v>14</v>
-      </c>
-      <c r="K9" s="3">
-        <v>5</v>
-      </c>
-      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="T9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="W9" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W9" s="3">
+      <c r="AB9" s="3">
         <v>7</v>
-      </c>
-      <c r="X9" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>1</v>
       </c>
       <c r="AC9" s="3">
         <v>3</v>
@@ -2767,7 +3062,7 @@
         <v>0.15</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG9" s="3">
         <v>1</v>
@@ -2780,7 +3075,7 @@
         <v>0.15</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL9" s="3">
         <v>1</v>
@@ -2793,7 +3088,7 @@
         <v>0.15</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ9" s="3">
         <v>1</v>
@@ -2806,7 +3101,7 @@
         <v>0.15</v>
       </c>
       <c r="AU9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV9" s="3">
         <v>1</v>
@@ -2818,8 +3113,21 @@
       <c r="AY9" s="3">
         <v>0.15</v>
       </c>
+      <c r="AZ9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2829,74 +3137,68 @@
       <c r="C10" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="3">
-        <v>11</v>
+      <c r="D10" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E10" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3">
-        <v>6</v>
+        <v>200</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H10" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>6</v>
-      </c>
-      <c r="J10" s="3">
-        <v>14</v>
+        <v>675.5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="K10" s="3">
-        <v>6</v>
-      </c>
-      <c r="L10" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="T10" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="U10" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="W10" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="Z10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="AA10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W10" s="3">
+      <c r="AB10" s="3">
         <v>7</v>
-      </c>
-      <c r="X10" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>1</v>
       </c>
       <c r="AC10" s="3">
         <v>3</v>
@@ -2906,7 +3208,7 @@
         <v>0.2</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG10" s="3">
         <v>1</v>
@@ -2919,7 +3221,7 @@
         <v>0.2</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL10" s="3">
         <v>1</v>
@@ -2932,7 +3234,7 @@
         <v>0.2</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ10" s="3">
         <v>1</v>
@@ -2945,7 +3247,7 @@
         <v>0.2</v>
       </c>
       <c r="AU10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV10" s="3">
         <v>1</v>
@@ -2957,8 +3259,21 @@
       <c r="AY10" s="3">
         <v>0.2</v>
       </c>
+      <c r="AZ10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA10" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -2968,74 +3283,68 @@
       <c r="C11" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="3">
-        <v>11</v>
+      <c r="D11" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>230</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2067.6</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB11" s="3">
         <v>7</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3">
-        <v>7</v>
-      </c>
-      <c r="J11" s="3">
-        <v>14</v>
-      </c>
-      <c r="K11" s="3">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="W11" s="3">
-        <v>7</v>
-      </c>
-      <c r="X11" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>1</v>
       </c>
       <c r="AC11" s="3">
         <v>3</v>
@@ -3045,7 +3354,7 @@
         <v>0.25</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG11" s="3">
         <v>1</v>
@@ -3058,7 +3367,7 @@
         <v>0.25</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL11" s="3">
         <v>1</v>
@@ -3071,7 +3380,7 @@
         <v>0.25</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ11" s="3">
         <v>1</v>
@@ -3084,7 +3393,7 @@
         <v>0.25</v>
       </c>
       <c r="AU11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV11" s="3">
         <v>1</v>
@@ -3096,8 +3405,21 @@
       <c r="AY11" s="3">
         <v>0.25</v>
       </c>
+      <c r="AZ11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA11" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3107,74 +3429,68 @@
       <c r="C12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="3">
-        <v>11</v>
+      <c r="D12" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8</v>
+        <v>260</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H12" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>8</v>
-      </c>
-      <c r="J12" s="3">
-        <v>14</v>
+        <v>4404.8999999999996</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="K12" s="3">
-        <v>8</v>
-      </c>
-      <c r="L12" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="U12" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="AA12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W12" s="3">
+      <c r="AB12" s="3">
         <v>7</v>
-      </c>
-      <c r="X12" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>1</v>
       </c>
       <c r="AC12" s="3">
         <v>3</v>
@@ -3184,7 +3500,7 @@
         <v>0.35</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG12" s="3">
         <v>1</v>
@@ -3197,7 +3513,7 @@
         <v>0.35</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL12" s="3">
         <v>1</v>
@@ -3210,7 +3526,7 @@
         <v>0.35</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ12" s="3">
         <v>1</v>
@@ -3223,7 +3539,7 @@
         <v>0.35</v>
       </c>
       <c r="AU12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV12" s="3">
         <v>1</v>
@@ -3235,8 +3551,21 @@
       <c r="AY12" s="3">
         <v>0.35</v>
       </c>
+      <c r="AZ12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3246,74 +3575,68 @@
       <c r="C13" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D13" s="3">
-        <v>11</v>
+      <c r="D13" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E13" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3">
-        <v>9</v>
+        <v>290</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H13" s="3">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>9</v>
-      </c>
-      <c r="J13" s="3">
-        <v>14</v>
+        <v>7795.3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="K13" s="3">
-        <v>9</v>
-      </c>
-      <c r="L13" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="T13" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="U13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="R13" s="8" t="s">
+      <c r="W13" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="Y13" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W13" s="3">
+      <c r="AB13" s="3">
         <v>7</v>
-      </c>
-      <c r="X13" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>1</v>
       </c>
       <c r="AC13" s="3">
         <v>3</v>
@@ -3323,7 +3646,7 @@
         <v>0.45</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG13" s="3">
         <v>1</v>
@@ -3336,7 +3659,7 @@
         <v>0.45</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL13" s="3">
         <v>1</v>
@@ -3349,7 +3672,7 @@
         <v>0.45</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ13" s="3">
         <v>1</v>
@@ -3362,7 +3685,7 @@
         <v>0.45</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV13" s="3">
         <v>1</v>
@@ -3374,8 +3697,21 @@
       <c r="AY13" s="3">
         <v>0.45</v>
       </c>
+      <c r="AZ13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA13" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3">
+        <v>0.45</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3385,74 +3721,68 @@
       <c r="C14" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="3">
-        <v>11</v>
+      <c r="D14" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E14" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3">
-        <v>10</v>
+        <v>320</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H14" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3">
-        <v>14</v>
+        <v>21.7</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>364</v>
       </c>
       <c r="K14" s="3">
-        <v>10</v>
-      </c>
-      <c r="L14" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="U14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="W14" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="Y14" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W14" s="3">
+      <c r="AB14" s="3">
         <v>7</v>
-      </c>
-      <c r="X14" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>1</v>
       </c>
       <c r="AC14" s="3">
         <v>3</v>
@@ -3462,7 +3792,7 @@
         <v>0.5</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG14" s="3">
         <v>1</v>
@@ -3475,7 +3805,7 @@
         <v>0.5</v>
       </c>
       <c r="AK14" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL14" s="3">
         <v>1</v>
@@ -3488,7 +3818,7 @@
         <v>0.5</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ14" s="3">
         <v>1</v>
@@ -3501,7 +3831,7 @@
         <v>0.5</v>
       </c>
       <c r="AU14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV14" s="3">
         <v>1</v>
@@ -3513,8 +3843,21 @@
       <c r="AY14" s="3">
         <v>0.5</v>
       </c>
+      <c r="AZ14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3524,74 +3867,68 @@
       <c r="C15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="3">
-        <v>11</v>
+      <c r="D15" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E15" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3">
-        <v>11</v>
+        <v>360</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H15" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3">
-        <v>14</v>
+        <v>42.8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="K15" s="3">
-        <v>11</v>
-      </c>
-      <c r="L15" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2</v>
+      </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="U15" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="R15" s="8" t="s">
+      <c r="W15" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="Y15" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W15" s="3">
+      <c r="AB15" s="3">
         <v>7</v>
-      </c>
-      <c r="X15" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>1</v>
       </c>
       <c r="AC15" s="3">
         <v>3</v>
@@ -3601,7 +3938,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG15" s="3">
         <v>1</v>
@@ -3614,7 +3951,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AK15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL15" s="3">
         <v>1</v>
@@ -3627,7 +3964,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ15" s="3">
         <v>1</v>
@@ -3640,7 +3977,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AU15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV15" s="3">
         <v>1</v>
@@ -3652,8 +3989,21 @@
       <c r="AY15" s="3">
         <v>0.55000000000000004</v>
       </c>
+      <c r="AZ15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3663,70 +4013,64 @@
       <c r="C16" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="3">
-        <v>11</v>
+      <c r="D16" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E16" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3">
-        <v>12</v>
+        <v>400</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H16" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
-        <v>12</v>
-      </c>
-      <c r="J16" s="3">
-        <v>14</v>
+        <v>48.3</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="K16" s="3">
-        <v>12</v>
-      </c>
-      <c r="L16" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="U16" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="R16" s="8" t="s">
+      <c r="W16" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3" t="s">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W16" s="3">
+      <c r="AB16" s="3">
         <v>7</v>
-      </c>
-      <c r="X16" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>1</v>
       </c>
       <c r="AC16" s="3">
         <v>3</v>
@@ -3736,7 +4080,7 @@
         <v>0.6</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG16" s="3">
         <v>1</v>
@@ -3749,7 +4093,7 @@
         <v>0.6</v>
       </c>
       <c r="AK16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL16" s="3">
         <v>1</v>
@@ -3762,7 +4106,7 @@
         <v>0.6</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ16" s="3">
         <v>1</v>
@@ -3775,7 +4119,7 @@
         <v>0.6</v>
       </c>
       <c r="AU16" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV16" s="3">
         <v>1</v>
@@ -3787,8 +4131,21 @@
       <c r="AY16" s="3">
         <v>0.6</v>
       </c>
+      <c r="AZ16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3798,70 +4155,64 @@
       <c r="C17" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="3">
-        <v>11</v>
+      <c r="D17" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E17" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3">
-        <v>13</v>
+        <v>440</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H17" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
-        <v>13</v>
-      </c>
-      <c r="J17" s="3">
-        <v>14</v>
+        <v>64.5</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="K17" s="3">
-        <v>13</v>
-      </c>
-      <c r="L17" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2</v>
+      </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="U17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="W17" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3" t="s">
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W17" s="3">
+      <c r="AB17" s="3">
         <v>7</v>
-      </c>
-      <c r="X17" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1</v>
       </c>
       <c r="AC17" s="3">
         <v>3</v>
@@ -3871,7 +4222,7 @@
         <v>0.65</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG17" s="3">
         <v>1</v>
@@ -3884,7 +4235,7 @@
         <v>0.65</v>
       </c>
       <c r="AK17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL17" s="3">
         <v>1</v>
@@ -3897,7 +4248,7 @@
         <v>0.65</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ17" s="3">
         <v>1</v>
@@ -3910,7 +4261,7 @@
         <v>0.65</v>
       </c>
       <c r="AU17" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV17" s="3">
         <v>1</v>
@@ -3922,8 +4273,21 @@
       <c r="AY17" s="3">
         <v>0.65</v>
       </c>
+      <c r="AZ17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3933,70 +4297,64 @@
       <c r="C18" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D18" s="3">
-        <v>11</v>
+      <c r="D18" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E18" s="3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3">
-        <v>14</v>
+        <v>490</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H18" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3">
-        <v>14</v>
-      </c>
-      <c r="J18" s="3">
-        <v>14</v>
+        <v>148.80000000000001</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>368</v>
       </c>
       <c r="K18" s="3">
-        <v>14</v>
-      </c>
-      <c r="L18" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2</v>
+      </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="U18" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="R18" s="8" t="s">
+      <c r="W18" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="X18" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3" t="s">
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W18" s="3">
+      <c r="AB18" s="3">
         <v>7</v>
-      </c>
-      <c r="X18" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>1</v>
       </c>
       <c r="AC18" s="3">
         <v>3</v>
@@ -4006,7 +4364,7 @@
         <v>0.7</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG18" s="3">
         <v>1</v>
@@ -4019,7 +4377,7 @@
         <v>0.7</v>
       </c>
       <c r="AK18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL18" s="3">
         <v>1</v>
@@ -4032,7 +4390,7 @@
         <v>0.7</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ18" s="3">
         <v>1</v>
@@ -4045,7 +4403,7 @@
         <v>0.7</v>
       </c>
       <c r="AU18" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV18" s="3">
         <v>1</v>
@@ -4057,8 +4415,21 @@
       <c r="AY18" s="3">
         <v>0.7</v>
       </c>
+      <c r="AZ18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4068,70 +4439,64 @@
       <c r="C19" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D19" s="3">
-        <v>11</v>
+      <c r="D19" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E19" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3">
-        <v>15</v>
+        <v>540</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H19" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
-        <v>15</v>
-      </c>
-      <c r="J19" s="3">
-        <v>14</v>
+        <v>250.2</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>369</v>
       </c>
       <c r="K19" s="3">
-        <v>15</v>
-      </c>
-      <c r="L19" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="T19" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="U19" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="R19" s="8" t="s">
+      <c r="W19" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3" t="s">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W19" s="3">
+      <c r="AB19" s="3">
         <v>7</v>
-      </c>
-      <c r="X19" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>1</v>
       </c>
       <c r="AC19" s="3">
         <v>3</v>
@@ -4141,7 +4506,7 @@
         <v>0.75</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG19" s="3">
         <v>1</v>
@@ -4154,7 +4519,7 @@
         <v>0.75</v>
       </c>
       <c r="AK19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL19" s="3">
         <v>1</v>
@@ -4167,7 +4532,7 @@
         <v>0.75</v>
       </c>
       <c r="AP19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ19" s="3">
         <v>1</v>
@@ -4180,7 +4545,7 @@
         <v>0.75</v>
       </c>
       <c r="AU19" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV19" s="3">
         <v>1</v>
@@ -4192,8 +4557,21 @@
       <c r="AY19" s="3">
         <v>0.75</v>
       </c>
+      <c r="AZ19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4203,70 +4581,64 @@
       <c r="C20" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D20" s="3">
-        <v>11</v>
+      <c r="D20" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E20" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3">
-        <v>16</v>
+        <v>590</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H20" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3">
-        <v>16</v>
-      </c>
-      <c r="J20" s="3">
-        <v>14</v>
+        <v>223.4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="K20" s="3">
-        <v>16</v>
-      </c>
-      <c r="L20" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="T20" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="U20" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="W20" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3" t="s">
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W20" s="3">
+      <c r="AB20" s="3">
         <v>7</v>
-      </c>
-      <c r="X20" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>1</v>
       </c>
       <c r="AC20" s="3">
         <v>3</v>
@@ -4276,7 +4648,7 @@
         <v>0.8</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG20" s="3">
         <v>1</v>
@@ -4289,7 +4661,7 @@
         <v>0.8</v>
       </c>
       <c r="AK20" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL20" s="3">
         <v>1</v>
@@ -4302,7 +4674,7 @@
         <v>0.8</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ20" s="3">
         <v>1</v>
@@ -4315,7 +4687,7 @@
         <v>0.8</v>
       </c>
       <c r="AU20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV20" s="3">
         <v>1</v>
@@ -4327,8 +4699,21 @@
       <c r="AY20" s="3">
         <v>0.8</v>
       </c>
+      <c r="AZ20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -4338,70 +4723,64 @@
       <c r="C21" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="3">
-        <v>11</v>
+      <c r="D21" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E21" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3">
-        <v>17</v>
+        <v>650</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H21" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3">
-        <v>14</v>
+        <v>893.8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="K21" s="3">
-        <v>17</v>
-      </c>
-      <c r="L21" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
       <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="T21" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="U21" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="W21" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W21" s="3">
+      <c r="AB21" s="3">
         <v>7</v>
-      </c>
-      <c r="X21" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>1</v>
       </c>
       <c r="AC21" s="3">
         <v>3</v>
@@ -4411,7 +4790,7 @@
         <v>0.85</v>
       </c>
       <c r="AF21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG21" s="3">
         <v>1</v>
@@ -4424,7 +4803,7 @@
         <v>0.85</v>
       </c>
       <c r="AK21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL21" s="3">
         <v>1</v>
@@ -4437,7 +4816,7 @@
         <v>0.85</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ21" s="3">
         <v>1</v>
@@ -4450,7 +4829,7 @@
         <v>0.85</v>
       </c>
       <c r="AU21" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV21" s="3">
         <v>1</v>
@@ -4462,8 +4841,21 @@
       <c r="AY21" s="3">
         <v>0.85</v>
       </c>
+      <c r="AZ21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA21" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB21" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4473,70 +4865,64 @@
       <c r="C22" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="3">
-        <v>11</v>
+      <c r="D22" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E22" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3">
-        <v>18</v>
+        <v>720</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H22" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I22" s="3">
-        <v>18</v>
-      </c>
-      <c r="J22" s="3">
-        <v>14</v>
+        <v>1199.9000000000001</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>372</v>
       </c>
       <c r="K22" s="3">
-        <v>18</v>
-      </c>
-      <c r="L22" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="U22" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="R22" s="8" t="s">
+      <c r="W22" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3" t="s">
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W22" s="3">
+      <c r="AB22" s="3">
         <v>7</v>
-      </c>
-      <c r="X22" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>1</v>
       </c>
       <c r="AC22" s="3">
         <v>3</v>
@@ -4546,7 +4932,7 @@
         <v>0.9</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG22" s="3">
         <v>1</v>
@@ -4559,7 +4945,7 @@
         <v>0.9</v>
       </c>
       <c r="AK22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL22" s="3">
         <v>1</v>
@@ -4572,7 +4958,7 @@
         <v>0.9</v>
       </c>
       <c r="AP22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ22" s="3">
         <v>1</v>
@@ -4585,7 +4971,7 @@
         <v>0.9</v>
       </c>
       <c r="AU22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV22" s="3">
         <v>1</v>
@@ -4597,8 +4983,21 @@
       <c r="AY22" s="3">
         <v>0.9</v>
       </c>
+      <c r="AZ22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA22" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -4608,70 +5007,64 @@
       <c r="C23" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="3">
-        <v>11</v>
+      <c r="D23" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E23" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3">
-        <v>19</v>
+        <v>790</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H23" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3">
-        <v>14</v>
+        <v>1842.5</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="K23" s="3">
-        <v>19</v>
-      </c>
-      <c r="L23" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2</v>
+      </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="T23" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="U23" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="R23" s="8" t="s">
+      <c r="W23" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="X23" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3" t="s">
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W23" s="3">
+      <c r="AB23" s="3">
         <v>7</v>
-      </c>
-      <c r="X23" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>1</v>
       </c>
       <c r="AC23" s="3">
         <v>3</v>
@@ -4681,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="AF23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG23" s="3">
         <v>1</v>
@@ -4694,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="AK23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL23" s="3">
         <v>1</v>
@@ -4707,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ23" s="3">
         <v>1</v>
@@ -4720,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="AU23" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV23" s="3">
         <v>1</v>
@@ -4732,8 +5125,21 @@
       <c r="AY23" s="3">
         <v>1</v>
       </c>
+      <c r="AZ23" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA23" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4743,70 +5149,64 @@
       <c r="C24" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="3">
-        <v>11</v>
+      <c r="D24" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3">
-        <v>20</v>
+        <v>860</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H24" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I24" s="3">
-        <v>20</v>
-      </c>
-      <c r="J24" s="3">
-        <v>14</v>
+        <v>2295.6</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="K24" s="3">
-        <v>20</v>
-      </c>
-      <c r="L24" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="T24" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="U24" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="R24" s="8" t="s">
+      <c r="W24" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3" t="s">
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W24" s="3">
+      <c r="AB24" s="3">
         <v>7</v>
-      </c>
-      <c r="X24" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>1</v>
       </c>
       <c r="AC24" s="3">
         <v>3</v>
@@ -4816,7 +5216,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AF24" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG24" s="3">
         <v>1</v>
@@ -4829,7 +5229,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AK24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL24" s="3">
         <v>1</v>
@@ -4842,7 +5242,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AP24" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ24" s="3">
         <v>1</v>
@@ -4855,7 +5255,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AU24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV24" s="3">
         <v>1</v>
@@ -4867,8 +5267,21 @@
       <c r="AY24" s="3">
         <v>1.1000000000000001</v>
       </c>
+      <c r="AZ24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -4878,70 +5291,64 @@
       <c r="C25" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="3">
-        <v>11</v>
+      <c r="D25" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E25" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3">
-        <v>21</v>
+        <v>940</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H25" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I25" s="3">
-        <v>21</v>
-      </c>
-      <c r="J25" s="3">
-        <v>14</v>
+        <v>2692.7</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="K25" s="3">
-        <v>21</v>
-      </c>
-      <c r="L25" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="T25" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="U25" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="W25" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3" t="s">
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W25" s="3">
+      <c r="AB25" s="3">
         <v>7</v>
-      </c>
-      <c r="X25" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>1</v>
       </c>
       <c r="AC25" s="3">
         <v>3</v>
@@ -4951,7 +5358,7 @@
         <v>1.2</v>
       </c>
       <c r="AF25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG25" s="3">
         <v>1</v>
@@ -4964,7 +5371,7 @@
         <v>1.2</v>
       </c>
       <c r="AK25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL25" s="3">
         <v>1</v>
@@ -4977,7 +5384,7 @@
         <v>1.2</v>
       </c>
       <c r="AP25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ25" s="3">
         <v>1</v>
@@ -4990,7 +5397,7 @@
         <v>1.2</v>
       </c>
       <c r="AU25" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV25" s="3">
         <v>1</v>
@@ -5002,8 +5409,21 @@
       <c r="AY25" s="3">
         <v>1.2</v>
       </c>
+      <c r="AZ25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="26" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -5013,70 +5433,58 @@
       <c r="C26" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="3">
-        <v>11</v>
+      <c r="D26" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E26" s="3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3">
-        <v>22</v>
+        <v>1030</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H26" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I26" s="3">
-        <v>22</v>
-      </c>
-      <c r="J26" s="3">
-        <v>14</v>
-      </c>
-      <c r="K26" s="3">
-        <v>22</v>
-      </c>
+        <v>3136.9</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="T26" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="U26" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="W26" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3" t="s">
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W26" s="3">
+      <c r="AB26" s="3">
         <v>7</v>
-      </c>
-      <c r="X26" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>1</v>
       </c>
       <c r="AC26" s="3">
         <v>3</v>
@@ -5086,7 +5494,7 @@
         <v>1.3</v>
       </c>
       <c r="AF26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG26" s="3">
         <v>1</v>
@@ -5099,7 +5507,7 @@
         <v>1.3</v>
       </c>
       <c r="AK26" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL26" s="3">
         <v>1</v>
@@ -5112,7 +5520,7 @@
         <v>1.3</v>
       </c>
       <c r="AP26" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ26" s="3">
         <v>1</v>
@@ -5125,7 +5533,7 @@
         <v>1.3</v>
       </c>
       <c r="AU26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV26" s="3">
         <v>1</v>
@@ -5137,8 +5545,21 @@
       <c r="AY26" s="3">
         <v>1.3</v>
       </c>
+      <c r="AZ26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA26" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB26" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3">
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="27" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -5148,70 +5569,58 @@
       <c r="C27" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D27" s="3">
-        <v>11</v>
+      <c r="D27" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E27" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3">
-        <v>23</v>
+        <v>1120</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H27" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I27" s="3">
-        <v>23</v>
-      </c>
-      <c r="J27" s="3">
-        <v>14</v>
-      </c>
-      <c r="K27" s="3">
-        <v>23</v>
-      </c>
+        <v>3875.8</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="T27" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="P27" s="8" t="s">
+      <c r="U27" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="R27" s="8" t="s">
+      <c r="W27" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3" t="s">
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W27" s="3">
+      <c r="AB27" s="3">
         <v>7</v>
-      </c>
-      <c r="X27" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>1</v>
       </c>
       <c r="AC27" s="3">
         <v>3</v>
@@ -5221,7 +5630,7 @@
         <v>1.4</v>
       </c>
       <c r="AF27" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG27" s="3">
         <v>1</v>
@@ -5234,7 +5643,7 @@
         <v>1.4</v>
       </c>
       <c r="AK27" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL27" s="3">
         <v>1</v>
@@ -5247,7 +5656,7 @@
         <v>1.4</v>
       </c>
       <c r="AP27" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ27" s="3">
         <v>1</v>
@@ -5260,7 +5669,7 @@
         <v>1.4</v>
       </c>
       <c r="AU27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV27" s="3">
         <v>1</v>
@@ -5272,8 +5681,21 @@
       <c r="AY27" s="3">
         <v>1.4</v>
       </c>
+      <c r="AZ27" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA27" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="28" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -5283,70 +5705,58 @@
       <c r="C28" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D28" s="3">
-        <v>11</v>
+      <c r="D28" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E28" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3">
-        <v>24</v>
+        <v>1230</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H28" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I28" s="3">
-        <v>24</v>
-      </c>
-      <c r="J28" s="3">
-        <v>14</v>
-      </c>
-      <c r="K28" s="3">
-        <v>24</v>
-      </c>
+        <v>4625.1000000000004</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="T28" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="U28" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="W28" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3" t="s">
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W28" s="3">
+      <c r="AB28" s="3">
         <v>7</v>
-      </c>
-      <c r="X28" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>1</v>
       </c>
       <c r="AC28" s="3">
         <v>3</v>
@@ -5356,7 +5766,7 @@
         <v>1.5</v>
       </c>
       <c r="AF28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG28" s="3">
         <v>1</v>
@@ -5369,7 +5779,7 @@
         <v>1.5</v>
       </c>
       <c r="AK28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL28" s="3">
         <v>1</v>
@@ -5382,7 +5792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ28" s="3">
         <v>1</v>
@@ -5395,7 +5805,7 @@
         <v>1.5</v>
       </c>
       <c r="AU28" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV28" s="3">
         <v>1</v>
@@ -5407,8 +5817,21 @@
       <c r="AY28" s="3">
         <v>1.5</v>
       </c>
+      <c r="AZ28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA28" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="29" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -5418,70 +5841,58 @@
       <c r="C29" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="3">
-        <v>11</v>
+      <c r="D29" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E29" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3">
-        <v>25</v>
+        <v>1340</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H29" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I29" s="3">
-        <v>25</v>
-      </c>
-      <c r="J29" s="3">
-        <v>14</v>
-      </c>
-      <c r="K29" s="3">
-        <v>25</v>
-      </c>
+        <v>5385.4</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="P29" s="8" t="s">
+      <c r="U29" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="R29" s="8" t="s">
+      <c r="W29" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3" t="s">
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W29" s="3">
+      <c r="AB29" s="3">
         <v>7</v>
-      </c>
-      <c r="X29" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>1</v>
       </c>
       <c r="AC29" s="3">
         <v>3</v>
@@ -5491,7 +5902,7 @@
         <v>1.6</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG29" s="3">
         <v>1</v>
@@ -5504,7 +5915,7 @@
         <v>1.6</v>
       </c>
       <c r="AK29" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL29" s="3">
         <v>1</v>
@@ -5517,7 +5928,7 @@
         <v>1.6</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ29" s="3">
         <v>1</v>
@@ -5530,7 +5941,7 @@
         <v>1.6</v>
       </c>
       <c r="AU29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV29" s="3">
         <v>1</v>
@@ -5542,8 +5953,21 @@
       <c r="AY29" s="3">
         <v>1.6</v>
       </c>
+      <c r="AZ29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA29" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3">
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="30" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -5553,70 +5977,58 @@
       <c r="C30" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D30" s="3">
-        <v>11</v>
+      <c r="D30" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E30" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3">
-        <v>26</v>
+        <v>1460</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H30" s="3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I30" s="3">
-        <v>26</v>
-      </c>
-      <c r="J30" s="3">
-        <v>14</v>
-      </c>
-      <c r="K30" s="3">
-        <v>26</v>
-      </c>
+        <v>6143.3</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="T30" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="U30" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="R30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="X30" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3" t="s">
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W30" s="3">
+      <c r="AB30" s="3">
         <v>7</v>
-      </c>
-      <c r="X30" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>1</v>
       </c>
       <c r="AC30" s="3">
         <v>3</v>
@@ -5626,7 +6038,7 @@
         <v>1.7</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG30" s="3">
         <v>1</v>
@@ -5639,7 +6051,7 @@
         <v>1.7</v>
       </c>
       <c r="AK30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL30" s="3">
         <v>1</v>
@@ -5652,7 +6064,7 @@
         <v>1.7</v>
       </c>
       <c r="AP30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ30" s="3">
         <v>1</v>
@@ -5665,7 +6077,7 @@
         <v>1.7</v>
       </c>
       <c r="AU30" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV30" s="3">
         <v>1</v>
@@ -5677,8 +6089,21 @@
       <c r="AY30" s="3">
         <v>1.7</v>
       </c>
+      <c r="AZ30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA30" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="31" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -5688,70 +6113,58 @@
       <c r="C31" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D31" s="3">
-        <v>11</v>
+      <c r="D31" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E31" s="3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3">
-        <v>27</v>
+        <v>1590</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H31" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I31" s="3">
-        <v>27</v>
-      </c>
-      <c r="J31" s="3">
-        <v>14</v>
-      </c>
-      <c r="K31" s="3">
-        <v>27</v>
-      </c>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="T31" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="U31" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="W31" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3" t="s">
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W31" s="3">
+      <c r="AB31" s="3">
         <v>7</v>
-      </c>
-      <c r="X31" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>1</v>
       </c>
       <c r="AC31" s="3">
         <v>3</v>
@@ -5761,7 +6174,7 @@
         <v>1.8</v>
       </c>
       <c r="AF31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG31" s="3">
         <v>1</v>
@@ -5774,7 +6187,7 @@
         <v>1.8</v>
       </c>
       <c r="AK31" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL31" s="3">
         <v>1</v>
@@ -5787,7 +6200,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ31" s="3">
         <v>1</v>
@@ -5800,7 +6213,7 @@
         <v>1.8</v>
       </c>
       <c r="AU31" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV31" s="3">
         <v>1</v>
@@ -5812,8 +6225,21 @@
       <c r="AY31" s="3">
         <v>1.8</v>
       </c>
+      <c r="AZ31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA31" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="32" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -5823,70 +6249,58 @@
       <c r="C32" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D32" s="3">
-        <v>11</v>
+      <c r="D32" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E32" s="3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3">
-        <v>28</v>
+        <v>1730</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H32" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I32" s="3">
-        <v>28</v>
-      </c>
-      <c r="J32" s="3">
-        <v>14</v>
-      </c>
-      <c r="K32" s="3">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="T32" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="U32" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="R32" s="8" t="s">
+      <c r="W32" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="X32" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3" t="s">
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W32" s="3">
+      <c r="AB32" s="3">
         <v>7</v>
-      </c>
-      <c r="X32" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>1</v>
       </c>
       <c r="AC32" s="3">
         <v>3</v>
@@ -5896,7 +6310,7 @@
         <v>1.9</v>
       </c>
       <c r="AF32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG32" s="3">
         <v>1</v>
@@ -5909,7 +6323,7 @@
         <v>1.9</v>
       </c>
       <c r="AK32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL32" s="3">
         <v>1</v>
@@ -5922,7 +6336,7 @@
         <v>1.9</v>
       </c>
       <c r="AP32" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ32" s="3">
         <v>1</v>
@@ -5935,7 +6349,7 @@
         <v>1.9</v>
       </c>
       <c r="AU32" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV32" s="3">
         <v>1</v>
@@ -5947,8 +6361,21 @@
       <c r="AY32" s="3">
         <v>1.9</v>
       </c>
+      <c r="AZ32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA32" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC32" s="3"/>
+      <c r="BD32" s="3">
+        <v>1.9</v>
+      </c>
     </row>
-    <row r="33" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -5958,70 +6385,58 @@
       <c r="C33" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D33" s="3">
-        <v>11</v>
+      <c r="D33" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E33" s="3">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3">
-        <v>29</v>
+        <v>1880</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H33" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I33" s="3">
-        <v>29</v>
-      </c>
-      <c r="J33" s="3">
-        <v>14</v>
-      </c>
-      <c r="K33" s="3">
-        <v>29</v>
-      </c>
+        <v>26.5</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="T33" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="U33" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="W33" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="X33" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3" t="s">
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W33" s="3">
+      <c r="AB33" s="3">
         <v>7</v>
-      </c>
-      <c r="X33" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>1</v>
       </c>
       <c r="AC33" s="3">
         <v>3</v>
@@ -6031,7 +6446,7 @@
         <v>2</v>
       </c>
       <c r="AF33" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG33" s="3">
         <v>1</v>
@@ -6044,7 +6459,7 @@
         <v>2</v>
       </c>
       <c r="AK33" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL33" s="3">
         <v>1</v>
@@ -6057,7 +6472,7 @@
         <v>2</v>
       </c>
       <c r="AP33" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ33" s="3">
         <v>1</v>
@@ -6070,7 +6485,7 @@
         <v>2</v>
       </c>
       <c r="AU33" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV33" s="3">
         <v>1</v>
@@ -6082,8 +6497,21 @@
       <c r="AY33" s="3">
         <v>2</v>
       </c>
+      <c r="AZ33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA33" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC33" s="3"/>
+      <c r="BD33" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:51" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -6093,70 +6521,58 @@
       <c r="C34" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D34" s="3">
-        <v>11</v>
+      <c r="D34" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E34" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3">
-        <v>30</v>
+        <v>1880</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="H34" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I34" s="3">
-        <v>30</v>
-      </c>
-      <c r="J34" s="3">
-        <v>14</v>
-      </c>
-      <c r="K34" s="3">
-        <v>30</v>
-      </c>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="T34" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="U34" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="Q34" s="3" t="s">
+      <c r="V34" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="R34" s="3" t="s">
+      <c r="W34" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="X34" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3" t="s">
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="W34" s="3">
+      <c r="AB34" s="3">
         <v>7</v>
-      </c>
-      <c r="X34" s="3">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>1</v>
       </c>
       <c r="AC34" s="3">
         <v>3</v>
@@ -6166,7 +6582,7 @@
         <v>2.25</v>
       </c>
       <c r="AF34" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG34" s="3">
         <v>1</v>
@@ -6179,7 +6595,7 @@
         <v>2.25</v>
       </c>
       <c r="AK34" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL34" s="3">
         <v>1</v>
@@ -6192,7 +6608,7 @@
         <v>2.25</v>
       </c>
       <c r="AP34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ34" s="3">
         <v>1</v>
@@ -6205,7 +6621,7 @@
         <v>2.25</v>
       </c>
       <c r="AU34" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AV34" s="3">
         <v>1</v>
@@ -6215,6 +6631,19 @@
       </c>
       <c r="AX34" s="3"/>
       <c r="AY34" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="AZ34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BA34" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB34" s="3">
+        <v>3</v>
+      </c>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3">
         <v>2.25</v>
       </c>
     </row>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA78120-F0EC-4EB1-9F9C-7DBA448A4DC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18675" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="420">
   <si>
     <t>sheet名</t>
   </si>
@@ -235,6 +241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,6 +252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,6 +263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1309,14 +1318,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,12 +1332,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1342,129 +1347,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1472,59 +1382,16 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1532,11 +1399,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1551,187 +1426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1743,30 +1444,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1790,93 +1479,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1887,307 +1489,108 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="33" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2445,19 +1848,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2468,7 +1871,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +1894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2514,26 +1917,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
@@ -2569,7 +1971,7 @@
     <col min="35" max="59" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:59">
+    <row r="1" spans="1:59" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2748,7 +2150,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2927,7 +2329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:59">
+    <row r="3" spans="1:59" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
@@ -3106,7 +2508,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:59">
+    <row r="4" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3173,7 +2575,7 @@
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
     </row>
-    <row r="5" ht="16.5" spans="1:59">
+    <row r="5" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3232,7 +2634,7 @@
         <v>1000</v>
       </c>
       <c r="Z5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
@@ -3308,7 +2710,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:59">
+    <row r="6" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3369,7 +2771,7 @@
         <v>1001</v>
       </c>
       <c r="Z6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
@@ -3445,7 +2847,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:59">
+    <row r="7" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3535,7 +2937,7 @@
       </c>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN7" s="4" t="s">
         <v>145</v>
@@ -3548,7 +2950,7 @@
       </c>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS7" s="4" t="s">
         <v>146</v>
@@ -3561,7 +2963,7 @@
       </c>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AX7" s="4" t="s">
         <v>147</v>
@@ -3574,7 +2976,7 @@
       </c>
       <c r="BA7" s="4"/>
       <c r="BB7" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BC7" s="4" t="s">
         <v>148</v>
@@ -3587,10 +2989,10 @@
       </c>
       <c r="BF7" s="4"/>
       <c r="BG7" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:59">
+    <row r="8" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3663,7 +3065,7 @@
         <v>1000</v>
       </c>
       <c r="AD8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="10" t="s">
         <v>169</v>
@@ -3743,7 +3145,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:59">
+    <row r="9" spans="1:59" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3894,7 +3296,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:59">
+    <row r="10" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3973,7 +3375,7 @@
         <v>1000</v>
       </c>
       <c r="AH10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="4" t="s">
         <v>144</v>
@@ -4041,7 +3443,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:59">
+    <row r="11" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -4194,7 +3596,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:59">
+    <row r="12" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -4220,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>4404.9</v>
+        <v>4404.8999999999996</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>200</v>
@@ -4347,7 +3749,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:59">
+    <row r="13" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -4500,7 +3902,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:59">
+    <row r="14" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -4653,7 +4055,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:59">
+    <row r="15" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -4751,7 +4153,7 @@
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AN15" s="4" t="s">
         <v>145</v>
@@ -4764,7 +4166,7 @@
       </c>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AS15" s="4" t="s">
         <v>146</v>
@@ -4777,7 +4179,7 @@
       </c>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AX15" s="4" t="s">
         <v>147</v>
@@ -4790,7 +4192,7 @@
       </c>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BC15" s="4" t="s">
         <v>148</v>
@@ -4803,10 +4205,10 @@
       </c>
       <c r="BF15" s="4"/>
       <c r="BG15" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:59">
+    <row r="16" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -4959,7 +4361,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:59">
+    <row r="17" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -5112,7 +4514,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:59">
+    <row r="18" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -5138,7 +4540,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="4">
-        <v>148.8</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>260</v>
@@ -5265,7 +4667,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:59">
+    <row r="19" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -5418,7 +4820,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:59">
+    <row r="20" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -5571,7 +4973,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:59">
+    <row r="21" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -5724,7 +5126,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:59">
+    <row r="22" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -5750,7 +5152,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="4">
-        <v>1199.9</v>
+        <v>1199.9000000000001</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>300</v>
@@ -5877,7 +5279,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:59">
+    <row r="23" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -6030,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:59">
+    <row r="24" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -6128,7 +5530,7 @@
       </c>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN24" s="4" t="s">
         <v>145</v>
@@ -6141,7 +5543,7 @@
       </c>
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS24" s="4" t="s">
         <v>146</v>
@@ -6154,7 +5556,7 @@
       </c>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX24" s="4" t="s">
         <v>147</v>
@@ -6167,7 +5569,7 @@
       </c>
       <c r="BA24" s="4"/>
       <c r="BB24" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC24" s="4" t="s">
         <v>148</v>
@@ -6180,10 +5582,10 @@
       </c>
       <c r="BF24" s="4"/>
       <c r="BG24" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:59">
+    <row r="25" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -6336,7 +5738,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:59">
+    <row r="26" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -6483,7 +5885,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:59">
+    <row r="27" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -6630,7 +6032,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:59">
+    <row r="28" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -6656,7 +6058,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="4">
-        <v>4625.1</v>
+        <v>4625.1000000000004</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -6777,7 +6179,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:59">
+    <row r="29" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -6924,7 +6326,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:59">
+    <row r="30" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -7071,7 +6473,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:59">
+    <row r="31" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -7097,7 +6499,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -7218,7 +6620,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:59">
+    <row r="32" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -7365,7 +6767,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:59">
+    <row r="33" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -7512,7 +6914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:59">
+    <row r="34" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -7538,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="I34" s="4">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -7659,12 +7061,12 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="30:30">
+    <row r="36" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AD36" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA78120-F0EC-4EB1-9F9C-7DBA448A4DC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6C02E-ECC5-4C0F-A3EA-E072174205B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="426">
   <si>
     <t>sheet名</t>
   </si>
@@ -559,15 +559,6 @@
     <t>核能到1级</t>
   </si>
   <si>
-    <t>主舰2突</t>
-  </si>
-  <si>
-    <t>主舰40级</t>
-  </si>
-  <si>
-    <t>主舰升级到40级</t>
-  </si>
-  <si>
     <t>参谋军士</t>
   </si>
   <si>
@@ -580,12 +571,6 @@
     <t>通关第5章</t>
   </si>
   <si>
-    <t>合成装备1</t>
-  </si>
-  <si>
-    <t>进行1次装备合成</t>
-  </si>
-  <si>
     <t>花费金币5M</t>
   </si>
   <si>
@@ -619,9 +604,6 @@
     <t>解锁激光炮</t>
   </si>
   <si>
-    <t>主舰3突</t>
-  </si>
-  <si>
     <t>一级士官</t>
   </si>
   <si>
@@ -673,9 +655,6 @@
     <t>突破大师4</t>
   </si>
   <si>
-    <t>全体4突</t>
-  </si>
-  <si>
     <t>核能大师1</t>
   </si>
   <si>
@@ -733,9 +712,6 @@
     <t>突破大师5</t>
   </si>
   <si>
-    <t>全体5突</t>
-  </si>
-  <si>
     <t>装备5连抽3</t>
   </si>
   <si>
@@ -793,9 +769,6 @@
     <t>突破大师6</t>
   </si>
   <si>
-    <t>全体6突</t>
-  </si>
-  <si>
     <t>精炼大师5</t>
   </si>
   <si>
@@ -883,9 +856,6 @@
     <t>突破大师7</t>
   </si>
   <si>
-    <t>全体7突</t>
-  </si>
-  <si>
     <t>精炼大师15</t>
   </si>
   <si>
@@ -943,9 +913,6 @@
     <t>突破大师8</t>
   </si>
   <si>
-    <t>全体8突</t>
-  </si>
-  <si>
     <t>装备进阶大师6</t>
   </si>
   <si>
@@ -1003,9 +970,6 @@
     <t>突破大师9</t>
   </si>
   <si>
-    <t>全体9突</t>
-  </si>
-  <si>
     <t>核能大师6</t>
   </si>
   <si>
@@ -1063,9 +1027,6 @@
     <t>突破大师10</t>
   </si>
   <si>
-    <t>全体10突</t>
-  </si>
-  <si>
     <t>精炼大师30</t>
   </si>
   <si>
@@ -1117,9 +1078,6 @@
     <t>突破大师11</t>
   </si>
   <si>
-    <t>全体11突</t>
-  </si>
-  <si>
     <t>装备进阶大师8</t>
   </si>
   <si>
@@ -1171,9 +1129,6 @@
     <t>突破大师12</t>
   </si>
   <si>
-    <t>全体12突</t>
-  </si>
-  <si>
     <t>核能大师8</t>
   </si>
   <si>
@@ -1313,6 +1268,88 @@
   </si>
   <si>
     <t>装备全体精炼+120</t>
+  </si>
+  <si>
+    <t>导弹炮2突</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮进阶达到2代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>突破大师3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和辅炮进阶达到4代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和辅炮进阶达到3代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和辅炮进阶达到5代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和辅炮进阶达到6代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和辅炮进阶达到7代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和辅炮进阶达到8代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和辅炮进阶达到9代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和辅炮进阶达到10代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和辅炮进阶达到11代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰和辅炮进阶达到12代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮40级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮升级到40级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石III</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费200钻石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器1阶</t>
+  </si>
+  <si>
+    <t>火控系统达到1阶</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰20级</t>
+  </si>
+  <si>
+    <t>主舰升级到20级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1931,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1961,11 +1998,12 @@
     <col min="23" max="24" width="18.125" customWidth="1"/>
     <col min="25" max="25" width="22.375" customWidth="1"/>
     <col min="26" max="26" width="26.625" customWidth="1"/>
-    <col min="27" max="28" width="18.125" customWidth="1"/>
+    <col min="27" max="27" width="18.125" customWidth="1"/>
+    <col min="28" max="28" width="23.75" customWidth="1"/>
     <col min="29" max="29" width="22.375" customWidth="1"/>
     <col min="30" max="30" width="26.625" customWidth="1"/>
     <col min="31" max="31" width="17.625" customWidth="1"/>
-    <col min="32" max="32" width="18.125" customWidth="1"/>
+    <col min="32" max="32" width="22" customWidth="1"/>
     <col min="33" max="33" width="22.375" customWidth="1"/>
     <col min="34" max="34" width="26.625" customWidth="1"/>
     <col min="35" max="59" width="12" customWidth="1"/>
@@ -2636,8 +2674,12 @@
       <c r="Z5" s="4">
         <v>1</v>
       </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
+      <c r="AA5" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>423</v>
+      </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
@@ -2773,10 +2815,18 @@
       <c r="Z6" s="4">
         <v>1</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
+      <c r="AA6" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>1</v>
+      </c>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -3056,25 +3106,25 @@
         <v>3</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>168</v>
+        <v>405</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>168</v>
+        <v>406</v>
       </c>
       <c r="AC8" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AD8" s="4">
         <v>1</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>169</v>
+        <v>418</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>170</v>
+        <v>419</v>
       </c>
       <c r="AG8" s="4">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AH8" s="4">
         <v>0</v>
@@ -3153,7 +3203,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>150</v>
@@ -3174,7 +3224,7 @@
         <v>487.8</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -3189,18 +3239,18 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5" t="s">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>176</v>
+        <v>421</v>
       </c>
       <c r="Y9" s="11">
         <v>2000</v>
@@ -3209,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AC9" s="4">
         <v>2000</v>
@@ -3221,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG9" s="4">
         <v>3000</v>
@@ -3296,7 +3346,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3304,7 +3354,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>150</v>
@@ -3325,7 +3375,7 @@
         <v>675.5</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -3340,36 +3390,36 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Y10" s="4">
         <v>3000</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4" t="s">
-        <v>188</v>
+        <v>407</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>188</v>
+        <v>409</v>
       </c>
       <c r="AG10" s="4">
         <v>1000</v>
@@ -3451,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>150</v>
@@ -3472,7 +3522,7 @@
         <v>2067.6</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -3487,18 +3537,18 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Y11" s="4">
         <v>2000</v>
@@ -3507,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AC11" s="4">
         <v>1002</v>
@@ -3519,10 +3569,10 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AG11" s="4">
         <v>2000</v>
@@ -3604,7 +3654,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>150</v>
@@ -3625,7 +3675,7 @@
         <v>4404.8999999999996</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -3640,18 +3690,18 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Y12" s="4">
         <v>2000</v>
@@ -3660,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>206</v>
+        <v>408</v>
       </c>
       <c r="AC12" s="4">
         <v>1003</v>
@@ -3672,10 +3722,10 @@
         <v>1</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AG12" s="4">
         <v>1001</v>
@@ -3757,7 +3807,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>150</v>
@@ -3778,7 +3828,7 @@
         <v>7795.3</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -3793,18 +3843,18 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y13" s="4">
         <v>2000</v>
@@ -3813,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AC13" s="4">
         <v>1001</v>
@@ -3825,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AG13" s="4">
         <v>2000</v>
@@ -3910,7 +3960,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>150</v>
@@ -3931,7 +3981,7 @@
         <v>21.7</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -3946,18 +3996,18 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Y14" s="4">
         <v>2000</v>
@@ -3966,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>226</v>
+        <v>410</v>
       </c>
       <c r="AC14" s="4">
         <v>1003</v>
@@ -3978,10 +4028,10 @@
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AG14" s="4">
         <v>6000</v>
@@ -4063,7 +4113,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>150</v>
@@ -4084,7 +4134,7 @@
         <v>42.8</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -4099,18 +4149,18 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="8" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Y15" s="4">
         <v>2000</v>
@@ -4119,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AC15" s="4">
         <v>1000</v>
@@ -4131,10 +4181,10 @@
         <v>0</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="AG15" s="4">
         <v>6000</v>
@@ -4216,7 +4266,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>150</v>
@@ -4237,7 +4287,7 @@
         <v>48.3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -4252,18 +4302,18 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="Y16" s="4">
         <v>2000</v>
@@ -4272,10 +4322,10 @@
         <v>0</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>246</v>
+        <v>411</v>
       </c>
       <c r="AC16" s="4">
         <v>1003</v>
@@ -4284,10 +4334,10 @@
         <v>1</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AG16" s="4">
         <v>2000</v>
@@ -4369,7 +4419,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>150</v>
@@ -4390,7 +4440,7 @@
         <v>64.5</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -4405,18 +4455,18 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="Y17" s="4">
         <v>2000</v>
@@ -4425,10 +4475,10 @@
         <v>0</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="AC17" s="4">
         <v>1001</v>
@@ -4437,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="AG17" s="4">
         <v>1001</v>
@@ -4522,7 +4572,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>150</v>
@@ -4543,7 +4593,7 @@
         <v>148.80000000000001</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -4558,18 +4608,18 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="8" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="Y18" s="4">
         <v>2000</v>
@@ -4578,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AC18" s="4">
         <v>1002</v>
@@ -4590,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AG18" s="4">
         <v>2000</v>
@@ -4675,7 +4725,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>150</v>
@@ -4696,7 +4746,7 @@
         <v>250.2</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -4711,18 +4761,18 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="8" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="Y19" s="4">
         <v>2000</v>
@@ -4731,10 +4781,10 @@
         <v>0</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>276</v>
+        <v>412</v>
       </c>
       <c r="AC19" s="4">
         <v>1003</v>
@@ -4743,10 +4793,10 @@
         <v>1</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AG19" s="4">
         <v>2000</v>
@@ -4828,7 +4878,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>150</v>
@@ -4849,7 +4899,7 @@
         <v>223.4</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -4864,18 +4914,18 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y20" s="4">
         <v>2000</v>
@@ -4884,10 +4934,10 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="AC20" s="4">
         <v>1000</v>
@@ -4896,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="AG20" s="4">
         <v>1001</v>
@@ -4981,7 +5031,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>150</v>
@@ -5002,7 +5052,7 @@
         <v>893.8</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -5017,18 +5067,18 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="8" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="Y21" s="4">
         <v>2000</v>
@@ -5037,10 +5087,10 @@
         <v>0</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>296</v>
+        <v>413</v>
       </c>
       <c r="AC21" s="4">
         <v>1003</v>
@@ -5049,10 +5099,10 @@
         <v>1</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="AG21" s="4">
         <v>2000</v>
@@ -5134,7 +5184,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>150</v>
@@ -5155,7 +5205,7 @@
         <v>1199.9000000000001</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -5170,18 +5220,18 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="8" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Y22" s="4">
         <v>2000</v>
@@ -5190,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AC22" s="4">
         <v>1000</v>
@@ -5202,10 +5252,10 @@
         <v>0</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="AG22" s="4">
         <v>2000</v>
@@ -5287,7 +5337,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>150</v>
@@ -5308,7 +5358,7 @@
         <v>1842.5</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -5323,18 +5373,18 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="8" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="Y23" s="4">
         <v>2000</v>
@@ -5343,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>316</v>
+        <v>414</v>
       </c>
       <c r="AC23" s="4">
         <v>1003</v>
@@ -5355,10 +5405,10 @@
         <v>1</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="AG23" s="4">
         <v>1001</v>
@@ -5440,7 +5490,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>150</v>
@@ -5461,7 +5511,7 @@
         <v>2295.6</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -5476,18 +5526,18 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="8" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="Y24" s="4">
         <v>2000</v>
@@ -5496,10 +5546,10 @@
         <v>0</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="AC24" s="4">
         <v>1000</v>
@@ -5508,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="AG24" s="4">
         <v>2000</v>
@@ -5593,7 +5643,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>150</v>
@@ -5614,7 +5664,7 @@
         <v>2692.7</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -5629,18 +5679,18 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="8" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="Y25" s="4">
         <v>2000</v>
@@ -5649,10 +5699,10 @@
         <v>0</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="AC25" s="4">
         <v>1003</v>
@@ -5661,10 +5711,10 @@
         <v>1</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="AG25" s="4">
         <v>2000</v>
@@ -5746,7 +5796,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>150</v>
@@ -5776,18 +5826,18 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="8" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="Y26" s="4">
         <v>2000</v>
@@ -5796,10 +5846,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="AC26" s="4">
         <v>1000</v>
@@ -5808,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="AG26" s="4">
         <v>1001</v>
@@ -5893,7 +5943,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>150</v>
@@ -5923,18 +5973,18 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="9" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="Y27" s="4">
         <v>2000</v>
@@ -5943,10 +5993,10 @@
         <v>0</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>354</v>
+        <v>416</v>
       </c>
       <c r="AC27" s="4">
         <v>1003</v>
@@ -5955,10 +6005,10 @@
         <v>1</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AG27" s="4">
         <v>2000</v>
@@ -6040,7 +6090,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>150</v>
@@ -6070,18 +6120,18 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="8" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="Y28" s="4">
         <v>2000</v>
@@ -6090,10 +6140,10 @@
         <v>0</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="AC28" s="4">
         <v>1000</v>
@@ -6102,10 +6152,10 @@
         <v>0</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="AG28" s="4">
         <v>2000</v>
@@ -6187,7 +6237,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>150</v>
@@ -6217,18 +6267,18 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="9" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="Y29" s="4">
         <v>2000</v>
@@ -6237,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="AC29" s="4">
         <v>1003</v>
@@ -6249,10 +6299,10 @@
         <v>1</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="AG29" s="4">
         <v>1001</v>
@@ -6334,7 +6384,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>150</v>
@@ -6364,18 +6414,18 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="8" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="Y30" s="4">
         <v>2000</v>
@@ -6384,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="AC30" s="4">
         <v>1000</v>
@@ -6396,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="AG30" s="4">
         <v>2000</v>
@@ -6481,7 +6531,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>150</v>
@@ -6511,18 +6561,18 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="9" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="Y31" s="4">
         <v>2000</v>
@@ -6531,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AC31" s="4">
         <v>1001</v>
@@ -6543,10 +6593,10 @@
         <v>2</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AG31" s="4">
         <v>2000</v>
@@ -6628,7 +6678,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>150</v>
@@ -6658,18 +6708,18 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="8" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="Y32" s="4">
         <v>2000</v>
@@ -6678,10 +6728,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="AC32" s="4">
         <v>1001</v>
@@ -6690,10 +6740,10 @@
         <v>2</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="AG32" s="4">
         <v>2000</v>
@@ -6775,7 +6825,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>150</v>
@@ -6805,18 +6855,18 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="9" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="Y33" s="4">
         <v>2000</v>
@@ -6825,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AC33" s="4">
         <v>2000</v>
@@ -6837,10 +6887,10 @@
         <v>1</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="AG33" s="4">
         <v>1001</v>
@@ -6922,7 +6972,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>150</v>
@@ -6952,18 +7002,18 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="Y34" s="4">
         <v>2000</v>
@@ -6972,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="AC34" s="4">
         <v>2000</v>
@@ -6984,10 +7034,10 @@
         <v>1</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="AG34" s="4">
         <v>2000</v>
@@ -7067,6 +7117,6 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\UIDesigner\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E6C02E-ECC5-4C0F-A3EA-E072174205B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7A2642-EEF8-40BA-81C6-6611CB9F5178}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="军阶" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -571,9 +571,6 @@
     <t>通关第5章</t>
   </si>
   <si>
-    <t>花费金币5M</t>
-  </si>
-  <si>
     <t>穿戴晶片2</t>
   </si>
   <si>
@@ -596,12 +593,6 @@
   </si>
   <si>
     <t>晶片总等级到5级</t>
-  </si>
-  <si>
-    <t>解锁僚炮2</t>
-  </si>
-  <si>
-    <t>解锁激光炮</t>
   </si>
   <si>
     <t>一级士官</t>
@@ -1349,6 +1340,18 @@
   </si>
   <si>
     <t>主舰升级到20级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁僚炮2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁激光炮</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币25M</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1968,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1998,8 +2001,8 @@
     <col min="23" max="24" width="18.125" customWidth="1"/>
     <col min="25" max="25" width="22.375" customWidth="1"/>
     <col min="26" max="26" width="26.625" customWidth="1"/>
-    <col min="27" max="27" width="18.125" customWidth="1"/>
-    <col min="28" max="28" width="23.75" customWidth="1"/>
+    <col min="27" max="27" width="25" customWidth="1"/>
+    <col min="28" max="28" width="27.125" customWidth="1"/>
     <col min="29" max="29" width="22.375" customWidth="1"/>
     <col min="30" max="30" width="26.625" customWidth="1"/>
     <col min="31" max="31" width="17.625" customWidth="1"/>
@@ -2675,10 +2678,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -2816,10 +2819,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AC6" s="4">
         <v>1000</v>
@@ -3106,10 +3109,10 @@
         <v>3</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AC8" s="4">
         <v>1001</v>
@@ -3118,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AG8" s="4">
         <v>1001</v>
@@ -3247,10 +3250,10 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Y9" s="11">
         <v>2000</v>
@@ -3259,22 +3262,18 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="AB9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>2000</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AF9" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="AG9" s="4">
         <v>3000</v>
@@ -3354,7 +3353,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>150</v>
@@ -3375,7 +3374,7 @@
         <v>675.5</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -3390,36 +3389,40 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="Y10" s="4">
         <v>3000</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="12" t="s">
-        <v>181</v>
+        <v>425</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
+        <v>425</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
       <c r="AE10" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AG10" s="4">
         <v>1000</v>
@@ -3501,7 +3504,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>150</v>
@@ -3522,7 +3525,7 @@
         <v>2067.6</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -3537,18 +3540,18 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Y11" s="4">
         <v>2000</v>
@@ -3557,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AC11" s="4">
         <v>1002</v>
@@ -3569,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG11" s="4">
         <v>2000</v>
@@ -3654,7 +3657,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>150</v>
@@ -3675,7 +3678,7 @@
         <v>4404.8999999999996</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -3690,18 +3693,18 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Y12" s="4">
         <v>2000</v>
@@ -3710,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AC12" s="4">
         <v>1003</v>
@@ -3722,10 +3725,10 @@
         <v>1</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG12" s="4">
         <v>1001</v>
@@ -3807,7 +3810,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>150</v>
@@ -3828,7 +3831,7 @@
         <v>7795.3</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -3843,18 +3846,18 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Y13" s="4">
         <v>2000</v>
@@ -3863,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AC13" s="4">
         <v>1001</v>
@@ -3875,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG13" s="4">
         <v>2000</v>
@@ -3960,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>150</v>
@@ -3981,7 +3984,7 @@
         <v>21.7</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -3996,18 +3999,18 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Y14" s="4">
         <v>2000</v>
@@ -4016,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AC14" s="4">
         <v>1003</v>
@@ -4028,10 +4031,10 @@
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG14" s="4">
         <v>6000</v>
@@ -4113,7 +4116,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>150</v>
@@ -4134,7 +4137,7 @@
         <v>42.8</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -4149,18 +4152,18 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Y15" s="4">
         <v>2000</v>
@@ -4169,10 +4172,10 @@
         <v>0</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AC15" s="4">
         <v>1000</v>
@@ -4181,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG15" s="4">
         <v>6000</v>
@@ -4266,7 +4269,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>150</v>
@@ -4287,7 +4290,7 @@
         <v>48.3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -4302,18 +4305,18 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Y16" s="4">
         <v>2000</v>
@@ -4322,10 +4325,10 @@
         <v>0</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AC16" s="4">
         <v>1003</v>
@@ -4334,10 +4337,10 @@
         <v>1</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG16" s="4">
         <v>2000</v>
@@ -4419,7 +4422,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>150</v>
@@ -4440,7 +4443,7 @@
         <v>64.5</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -4455,18 +4458,18 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Y17" s="4">
         <v>2000</v>
@@ -4475,10 +4478,10 @@
         <v>0</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AC17" s="4">
         <v>1001</v>
@@ -4487,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG17" s="4">
         <v>1001</v>
@@ -4572,7 +4575,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>150</v>
@@ -4593,7 +4596,7 @@
         <v>148.80000000000001</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -4608,18 +4611,18 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Y18" s="4">
         <v>2000</v>
@@ -4628,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AC18" s="4">
         <v>1002</v>
@@ -4640,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AG18" s="4">
         <v>2000</v>
@@ -4725,7 +4728,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>150</v>
@@ -4746,7 +4749,7 @@
         <v>250.2</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -4761,18 +4764,18 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Y19" s="4">
         <v>2000</v>
@@ -4781,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AC19" s="4">
         <v>1003</v>
@@ -4793,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AG19" s="4">
         <v>2000</v>
@@ -4878,7 +4881,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>150</v>
@@ -4899,7 +4902,7 @@
         <v>223.4</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -4914,18 +4917,18 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y20" s="4">
         <v>2000</v>
@@ -4934,10 +4937,10 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AC20" s="4">
         <v>1000</v>
@@ -4946,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AG20" s="4">
         <v>1001</v>
@@ -5031,7 +5034,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>150</v>
@@ -5052,7 +5055,7 @@
         <v>893.8</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -5067,18 +5070,18 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Y21" s="4">
         <v>2000</v>
@@ -5087,10 +5090,10 @@
         <v>0</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AC21" s="4">
         <v>1003</v>
@@ -5099,10 +5102,10 @@
         <v>1</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG21" s="4">
         <v>2000</v>
@@ -5184,7 +5187,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>150</v>
@@ -5205,7 +5208,7 @@
         <v>1199.9000000000001</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -5220,18 +5223,18 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Y22" s="4">
         <v>2000</v>
@@ -5240,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AC22" s="4">
         <v>1000</v>
@@ -5252,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AG22" s="4">
         <v>2000</v>
@@ -5337,7 +5340,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>150</v>
@@ -5358,7 +5361,7 @@
         <v>1842.5</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -5373,18 +5376,18 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Y23" s="4">
         <v>2000</v>
@@ -5393,10 +5396,10 @@
         <v>0</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AC23" s="4">
         <v>1003</v>
@@ -5405,10 +5408,10 @@
         <v>1</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG23" s="4">
         <v>1001</v>
@@ -5490,7 +5493,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>150</v>
@@ -5511,7 +5514,7 @@
         <v>2295.6</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -5526,18 +5529,18 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Y24" s="4">
         <v>2000</v>
@@ -5546,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AC24" s="4">
         <v>1000</v>
@@ -5558,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AG24" s="4">
         <v>2000</v>
@@ -5643,7 +5646,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>150</v>
@@ -5664,7 +5667,7 @@
         <v>2692.7</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -5679,18 +5682,18 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Y25" s="4">
         <v>2000</v>
@@ -5699,10 +5702,10 @@
         <v>0</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AC25" s="4">
         <v>1003</v>
@@ -5711,10 +5714,10 @@
         <v>1</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AG25" s="4">
         <v>2000</v>
@@ -5796,7 +5799,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>150</v>
@@ -5826,18 +5829,18 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Y26" s="4">
         <v>2000</v>
@@ -5846,10 +5849,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AC26" s="4">
         <v>1000</v>
@@ -5858,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG26" s="4">
         <v>1001</v>
@@ -5943,7 +5946,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>150</v>
@@ -5973,18 +5976,18 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Y27" s="4">
         <v>2000</v>
@@ -5993,10 +5996,10 @@
         <v>0</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AC27" s="4">
         <v>1003</v>
@@ -6005,10 +6008,10 @@
         <v>1</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AG27" s="4">
         <v>2000</v>
@@ -6090,7 +6093,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>150</v>
@@ -6120,18 +6123,18 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Y28" s="4">
         <v>2000</v>
@@ -6140,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AC28" s="4">
         <v>1000</v>
@@ -6152,10 +6155,10 @@
         <v>0</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG28" s="4">
         <v>2000</v>
@@ -6237,7 +6240,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>150</v>
@@ -6267,18 +6270,18 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Y29" s="4">
         <v>2000</v>
@@ -6287,10 +6290,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AC29" s="4">
         <v>1003</v>
@@ -6299,10 +6302,10 @@
         <v>1</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG29" s="4">
         <v>1001</v>
@@ -6384,7 +6387,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>150</v>
@@ -6414,18 +6417,18 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Y30" s="4">
         <v>2000</v>
@@ -6434,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AC30" s="4">
         <v>1000</v>
@@ -6446,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AG30" s="4">
         <v>2000</v>
@@ -6531,7 +6534,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>150</v>
@@ -6561,18 +6564,18 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Y31" s="4">
         <v>2000</v>
@@ -6581,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AC31" s="4">
         <v>1001</v>
@@ -6593,10 +6596,10 @@
         <v>2</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AG31" s="4">
         <v>2000</v>
@@ -6678,7 +6681,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>150</v>
@@ -6708,18 +6711,18 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Y32" s="4">
         <v>2000</v>
@@ -6728,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AC32" s="4">
         <v>1001</v>
@@ -6740,10 +6743,10 @@
         <v>2</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AG32" s="4">
         <v>2000</v>
@@ -6825,7 +6828,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>150</v>
@@ -6855,18 +6858,18 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Y33" s="4">
         <v>2000</v>
@@ -6875,10 +6878,10 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AC33" s="4">
         <v>2000</v>
@@ -6887,10 +6890,10 @@
         <v>1</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AG33" s="4">
         <v>1001</v>
@@ -6972,7 +6975,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>150</v>
@@ -7002,18 +7005,18 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Y34" s="4">
         <v>2000</v>
@@ -7022,10 +7025,10 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AC34" s="4">
         <v>2000</v>
@@ -7034,10 +7037,10 @@
         <v>1</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AG34" s="4">
         <v>2000</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7A2642-EEF8-40BA-81C6-6611CB9F5178}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B692EBB-EFB5-4FB3-8C7C-8A195EBBCBF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1313,10 +1313,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>导弹炮40级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>导弹炮升级到40级</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1352,6 +1348,10 @@
   </si>
   <si>
     <t>花费金币25M</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮40级</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1561,7 +1561,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1586,9 +1586,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1958,7 +1955,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1971,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2678,10 +2675,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -2819,10 +2816,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="AC6" s="4">
         <v>1000</v>
@@ -3120,11 +3117,11 @@
       <c r="AD8" s="4">
         <v>1</v>
       </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AE8" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="AF8" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="AG8" s="4">
         <v>1001</v>
@@ -3250,22 +3247,22 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="10">
         <v>2000</v>
       </c>
       <c r="Z9" s="4">
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -3406,11 +3403,11 @@
         <v>3000</v>
       </c>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="12" t="s">
-        <v>425</v>
+      <c r="AA10" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AC10" s="4">
         <v>2000</v>
@@ -7115,7 +7112,7 @@
       </c>
     </row>
     <row r="36" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="AD36" s="13"/>
+      <c r="AD36" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B692EBB-EFB5-4FB3-8C7C-8A195EBBCBF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1952DD21-E2BC-4E99-97F9-5045903707FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,13 +1325,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>武器1阶</t>
-  </si>
-  <si>
-    <t>火控系统达到1阶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>主舰20级</t>
   </si>
   <si>
@@ -1352,6 +1345,14 @@
   </si>
   <si>
     <t>导弹炮40级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器1阶</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>火控系统装置到达1阶</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1968,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2675,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -2816,10 +2817,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AC6" s="4">
         <v>1000</v>
@@ -3118,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>415</v>
@@ -3259,10 +3260,10 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -3404,10 +3405,10 @@
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AC10" s="4">
         <v>2000</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1952DD21-E2BC-4E99-97F9-5045903707FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA4D9B6-89BD-4CE3-994D-4D520E516CF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,9 +475,6 @@
     <t>金币</t>
   </si>
   <si>
-    <t>主舰10级</t>
-  </si>
-  <si>
     <t>主舰升级到10级</t>
   </si>
   <si>
@@ -617,12 +614,6 @@
   </si>
   <si>
     <t>激光炮强化到80</t>
-  </si>
-  <si>
-    <t>精炼大师1</t>
-  </si>
-  <si>
-    <t>装备全体精炼+2</t>
   </si>
   <si>
     <t>二级士官</t>
@@ -1353,6 +1344,18 @@
   </si>
   <si>
     <t>火控系统装置到达1阶</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰10级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼大师2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备全体精炼+4</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1969,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2652,10 +2655,10 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="U5" s="4">
         <v>1000</v>
@@ -2664,10 +2667,10 @@
         <v>1</v>
       </c>
       <c r="W5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="Y5" s="4">
         <v>1000</v>
@@ -2676,10 +2679,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -2688,7 +2691,7 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ5" s="4">
         <v>7</v>
@@ -2701,7 +2704,7 @@
         <v>0.02</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO5" s="4">
         <v>1</v>
@@ -2714,7 +2717,7 @@
         <v>0.02</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT5" s="4">
         <v>1</v>
@@ -2727,7 +2730,7 @@
         <v>0.02</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY5" s="4">
         <v>1</v>
@@ -2740,7 +2743,7 @@
         <v>0.02</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD5" s="4">
         <v>1</v>
@@ -2761,10 +2764,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -2782,7 +2785,7 @@
         <v>130.5</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -2797,18 +2800,18 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y6" s="4">
         <v>1001</v>
@@ -2817,10 +2820,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="AC6" s="4">
         <v>1000</v>
@@ -2833,7 +2836,7 @@
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ6" s="4">
         <v>7</v>
@@ -2846,7 +2849,7 @@
         <v>0.05</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO6" s="4">
         <v>1</v>
@@ -2859,7 +2862,7 @@
         <v>0.05</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT6" s="4">
         <v>1</v>
@@ -2872,7 +2875,7 @@
         <v>0.05</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY6" s="4">
         <v>1</v>
@@ -2885,7 +2888,7 @@
         <v>0.05</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD6" s="4">
         <v>1</v>
@@ -2906,10 +2909,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -2927,7 +2930,7 @@
         <v>205.1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -2942,18 +2945,18 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="X7" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="Y7" s="4">
         <v>6000</v>
@@ -2962,10 +2965,10 @@
         <v>2</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC7" s="4">
         <v>2000</v>
@@ -2978,7 +2981,7 @@
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ7" s="4">
         <v>7</v>
@@ -2991,7 +2994,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO7" s="4">
         <v>1</v>
@@ -3004,7 +3007,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT7" s="4">
         <v>1</v>
@@ -3017,7 +3020,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY7" s="4">
         <v>1</v>
@@ -3030,7 +3033,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD7" s="4">
         <v>1</v>
@@ -3051,10 +3054,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -3072,7 +3075,7 @@
         <v>329.4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -3087,18 +3090,18 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="Y8" s="4">
         <v>1000</v>
@@ -3107,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AC8" s="4">
         <v>1001</v>
@@ -3119,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="AG8" s="4">
         <v>1001</v>
@@ -3131,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ8" s="4">
         <v>7</v>
@@ -3144,7 +3147,7 @@
         <v>0.1</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO8" s="4">
         <v>1</v>
@@ -3157,7 +3160,7 @@
         <v>0.1</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT8" s="4">
         <v>1</v>
@@ -3170,7 +3173,7 @@
         <v>0.1</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY8" s="4">
         <v>1</v>
@@ -3183,7 +3186,7 @@
         <v>0.1</v>
       </c>
       <c r="BC8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD8" s="4">
         <v>1</v>
@@ -3204,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -3225,7 +3228,7 @@
         <v>487.8</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -3240,18 +3243,18 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Y9" s="10">
         <v>2000</v>
@@ -3260,25 +3263,25 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF9" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="AG9" s="4">
         <v>3000</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ9" s="4">
         <v>7</v>
@@ -3291,7 +3294,7 @@
         <v>0.15</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO9" s="4">
         <v>1</v>
@@ -3304,7 +3307,7 @@
         <v>0.15</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT9" s="4">
         <v>1</v>
@@ -3317,7 +3320,7 @@
         <v>0.15</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY9" s="4">
         <v>1</v>
@@ -3330,7 +3333,7 @@
         <v>0.15</v>
       </c>
       <c r="BC9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD9" s="4">
         <v>1</v>
@@ -3351,10 +3354,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -3372,7 +3375,7 @@
         <v>675.5</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -3387,28 +3390,28 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="Y10" s="4">
         <v>3000</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AC10" s="4">
         <v>2000</v>
@@ -3417,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AG10" s="4">
         <v>1000</v>
@@ -3429,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ10" s="4">
         <v>7</v>
@@ -3442,7 +3445,7 @@
         <v>0.2</v>
       </c>
       <c r="AN10" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO10" s="4">
         <v>1</v>
@@ -3455,7 +3458,7 @@
         <v>0.2</v>
       </c>
       <c r="AS10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT10" s="4">
         <v>1</v>
@@ -3468,7 +3471,7 @@
         <v>0.2</v>
       </c>
       <c r="AX10" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY10" s="4">
         <v>1</v>
@@ -3481,7 +3484,7 @@
         <v>0.2</v>
       </c>
       <c r="BC10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD10" s="4">
         <v>1</v>
@@ -3502,10 +3505,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -3523,7 +3526,7 @@
         <v>2067.6</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -3538,18 +3541,18 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="X11" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="Y11" s="4">
         <v>2000</v>
@@ -3558,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="AA11" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="AC11" s="4">
         <v>1002</v>
@@ -3570,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>188</v>
+        <v>424</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>189</v>
+        <v>425</v>
       </c>
       <c r="AG11" s="4">
         <v>2000</v>
@@ -3582,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ11" s="4">
         <v>7</v>
@@ -3595,7 +3598,7 @@
         <v>0.25</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO11" s="4">
         <v>1</v>
@@ -3608,7 +3611,7 @@
         <v>0.25</v>
       </c>
       <c r="AS11" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT11" s="4">
         <v>1</v>
@@ -3621,7 +3624,7 @@
         <v>0.25</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY11" s="4">
         <v>1</v>
@@ -3634,7 +3637,7 @@
         <v>0.25</v>
       </c>
       <c r="BC11" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD11" s="4">
         <v>1</v>
@@ -3655,10 +3658,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -3676,7 +3679,7 @@
         <v>4404.8999999999996</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -3691,18 +3694,18 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Y12" s="4">
         <v>2000</v>
@@ -3711,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AC12" s="4">
         <v>1003</v>
@@ -3723,10 +3726,10 @@
         <v>1</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG12" s="4">
         <v>1001</v>
@@ -3735,7 +3738,7 @@
         <v>2</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ12" s="4">
         <v>7</v>
@@ -3748,7 +3751,7 @@
         <v>0.35</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO12" s="4">
         <v>1</v>
@@ -3761,7 +3764,7 @@
         <v>0.35</v>
       </c>
       <c r="AS12" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT12" s="4">
         <v>1</v>
@@ -3774,7 +3777,7 @@
         <v>0.35</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY12" s="4">
         <v>1</v>
@@ -3787,7 +3790,7 @@
         <v>0.35</v>
       </c>
       <c r="BC12" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD12" s="4">
         <v>1</v>
@@ -3808,10 +3811,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -3829,7 +3832,7 @@
         <v>7795.3</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -3844,18 +3847,18 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y13" s="4">
         <v>2000</v>
@@ -3864,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AC13" s="4">
         <v>1001</v>
@@ -3876,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AG13" s="4">
         <v>2000</v>
@@ -3888,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ13" s="4">
         <v>7</v>
@@ -3901,7 +3904,7 @@
         <v>0.45</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO13" s="4">
         <v>1</v>
@@ -3914,7 +3917,7 @@
         <v>0.45</v>
       </c>
       <c r="AS13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT13" s="4">
         <v>1</v>
@@ -3927,7 +3930,7 @@
         <v>0.45</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY13" s="4">
         <v>1</v>
@@ -3940,7 +3943,7 @@
         <v>0.45</v>
       </c>
       <c r="BC13" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD13" s="4">
         <v>1</v>
@@ -3961,10 +3964,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -3982,7 +3985,7 @@
         <v>21.7</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -3997,18 +4000,18 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Y14" s="4">
         <v>2000</v>
@@ -4017,10 +4020,10 @@
         <v>0</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AC14" s="4">
         <v>1003</v>
@@ -4029,10 +4032,10 @@
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AG14" s="4">
         <v>6000</v>
@@ -4041,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ14" s="4">
         <v>7</v>
@@ -4054,7 +4057,7 @@
         <v>0.5</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO14" s="4">
         <v>1</v>
@@ -4067,7 +4070,7 @@
         <v>0.5</v>
       </c>
       <c r="AS14" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT14" s="4">
         <v>1</v>
@@ -4080,7 +4083,7 @@
         <v>0.5</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY14" s="4">
         <v>1</v>
@@ -4093,7 +4096,7 @@
         <v>0.5</v>
       </c>
       <c r="BC14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD14" s="4">
         <v>1</v>
@@ -4114,10 +4117,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -4135,7 +4138,7 @@
         <v>42.8</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -4150,18 +4153,18 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Y15" s="4">
         <v>2000</v>
@@ -4170,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AC15" s="4">
         <v>1000</v>
@@ -4182,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG15" s="4">
         <v>6000</v>
@@ -4194,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ15" s="4">
         <v>7</v>
@@ -4207,7 +4210,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO15" s="4">
         <v>1</v>
@@ -4220,7 +4223,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT15" s="4">
         <v>1</v>
@@ -4233,7 +4236,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY15" s="4">
         <v>1</v>
@@ -4246,7 +4249,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="BC15" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD15" s="4">
         <v>1</v>
@@ -4267,10 +4270,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -4288,7 +4291,7 @@
         <v>48.3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -4303,18 +4306,18 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Y16" s="4">
         <v>2000</v>
@@ -4323,10 +4326,10 @@
         <v>0</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AC16" s="4">
         <v>1003</v>
@@ -4335,10 +4338,10 @@
         <v>1</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AG16" s="4">
         <v>2000</v>
@@ -4347,7 +4350,7 @@
         <v>2</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ16" s="4">
         <v>7</v>
@@ -4360,7 +4363,7 @@
         <v>0.6</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO16" s="4">
         <v>1</v>
@@ -4373,7 +4376,7 @@
         <v>0.6</v>
       </c>
       <c r="AS16" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT16" s="4">
         <v>1</v>
@@ -4386,7 +4389,7 @@
         <v>0.6</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY16" s="4">
         <v>1</v>
@@ -4399,7 +4402,7 @@
         <v>0.6</v>
       </c>
       <c r="BC16" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD16" s="4">
         <v>1</v>
@@ -4420,10 +4423,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -4441,7 +4444,7 @@
         <v>64.5</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -4456,18 +4459,18 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Y17" s="4">
         <v>2000</v>
@@ -4476,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AC17" s="4">
         <v>1001</v>
@@ -4488,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AG17" s="4">
         <v>1001</v>
@@ -4500,7 +4503,7 @@
         <v>2</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ17" s="4">
         <v>7</v>
@@ -4513,7 +4516,7 @@
         <v>0.65</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO17" s="4">
         <v>1</v>
@@ -4526,7 +4529,7 @@
         <v>0.65</v>
       </c>
       <c r="AS17" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT17" s="4">
         <v>1</v>
@@ -4539,7 +4542,7 @@
         <v>0.65</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY17" s="4">
         <v>1</v>
@@ -4552,7 +4555,7 @@
         <v>0.65</v>
       </c>
       <c r="BC17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD17" s="4">
         <v>1</v>
@@ -4573,10 +4576,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -4594,7 +4597,7 @@
         <v>148.80000000000001</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -4609,18 +4612,18 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Y18" s="4">
         <v>2000</v>
@@ -4629,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AC18" s="4">
         <v>1002</v>
@@ -4641,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG18" s="4">
         <v>2000</v>
@@ -4653,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ18" s="4">
         <v>7</v>
@@ -4666,7 +4669,7 @@
         <v>0.7</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO18" s="4">
         <v>1</v>
@@ -4679,7 +4682,7 @@
         <v>0.7</v>
       </c>
       <c r="AS18" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT18" s="4">
         <v>1</v>
@@ -4692,7 +4695,7 @@
         <v>0.7</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY18" s="4">
         <v>1</v>
@@ -4705,7 +4708,7 @@
         <v>0.7</v>
       </c>
       <c r="BC18" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD18" s="4">
         <v>1</v>
@@ -4726,10 +4729,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -4747,7 +4750,7 @@
         <v>250.2</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -4762,18 +4765,18 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y19" s="4">
         <v>2000</v>
@@ -4782,10 +4785,10 @@
         <v>0</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AC19" s="4">
         <v>1003</v>
@@ -4794,10 +4797,10 @@
         <v>1</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG19" s="4">
         <v>2000</v>
@@ -4806,7 +4809,7 @@
         <v>2</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ19" s="4">
         <v>7</v>
@@ -4819,7 +4822,7 @@
         <v>0.75</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO19" s="4">
         <v>1</v>
@@ -4832,7 +4835,7 @@
         <v>0.75</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT19" s="4">
         <v>1</v>
@@ -4845,7 +4848,7 @@
         <v>0.75</v>
       </c>
       <c r="AX19" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY19" s="4">
         <v>1</v>
@@ -4858,7 +4861,7 @@
         <v>0.75</v>
       </c>
       <c r="BC19" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD19" s="4">
         <v>1</v>
@@ -4879,10 +4882,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -4900,7 +4903,7 @@
         <v>223.4</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -4915,18 +4918,18 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Y20" s="4">
         <v>2000</v>
@@ -4935,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AC20" s="4">
         <v>1000</v>
@@ -4947,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG20" s="4">
         <v>1001</v>
@@ -4959,7 +4962,7 @@
         <v>2</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ20" s="4">
         <v>7</v>
@@ -4972,7 +4975,7 @@
         <v>0.8</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO20" s="4">
         <v>1</v>
@@ -4985,7 +4988,7 @@
         <v>0.8</v>
       </c>
       <c r="AS20" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT20" s="4">
         <v>1</v>
@@ -4998,7 +5001,7 @@
         <v>0.8</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY20" s="4">
         <v>1</v>
@@ -5011,7 +5014,7 @@
         <v>0.8</v>
       </c>
       <c r="BC20" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD20" s="4">
         <v>1</v>
@@ -5032,10 +5035,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -5053,7 +5056,7 @@
         <v>893.8</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -5068,18 +5071,18 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Y21" s="4">
         <v>2000</v>
@@ -5088,10 +5091,10 @@
         <v>0</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AC21" s="4">
         <v>1003</v>
@@ -5100,10 +5103,10 @@
         <v>1</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AG21" s="4">
         <v>2000</v>
@@ -5112,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ21" s="4">
         <v>7</v>
@@ -5125,7 +5128,7 @@
         <v>0.85</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO21" s="4">
         <v>1</v>
@@ -5138,7 +5141,7 @@
         <v>0.85</v>
       </c>
       <c r="AS21" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT21" s="4">
         <v>1</v>
@@ -5151,7 +5154,7 @@
         <v>0.85</v>
       </c>
       <c r="AX21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY21" s="4">
         <v>1</v>
@@ -5164,7 +5167,7 @@
         <v>0.85</v>
       </c>
       <c r="BC21" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD21" s="4">
         <v>1</v>
@@ -5185,10 +5188,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -5206,7 +5209,7 @@
         <v>1199.9000000000001</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -5221,18 +5224,18 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Y22" s="4">
         <v>2000</v>
@@ -5241,10 +5244,10 @@
         <v>0</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AC22" s="4">
         <v>1000</v>
@@ -5253,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AG22" s="4">
         <v>2000</v>
@@ -5265,7 +5268,7 @@
         <v>2</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ22" s="4">
         <v>7</v>
@@ -5278,7 +5281,7 @@
         <v>0.9</v>
       </c>
       <c r="AN22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO22" s="4">
         <v>1</v>
@@ -5291,7 +5294,7 @@
         <v>0.9</v>
       </c>
       <c r="AS22" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT22" s="4">
         <v>1</v>
@@ -5304,7 +5307,7 @@
         <v>0.9</v>
       </c>
       <c r="AX22" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY22" s="4">
         <v>1</v>
@@ -5317,7 +5320,7 @@
         <v>0.9</v>
       </c>
       <c r="BC22" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD22" s="4">
         <v>1</v>
@@ -5338,10 +5341,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -5359,7 +5362,7 @@
         <v>1842.5</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -5374,18 +5377,18 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Y23" s="4">
         <v>2000</v>
@@ -5394,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AC23" s="4">
         <v>1003</v>
@@ -5406,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AG23" s="4">
         <v>1001</v>
@@ -5418,7 +5421,7 @@
         <v>2</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ23" s="4">
         <v>7</v>
@@ -5431,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO23" s="4">
         <v>1</v>
@@ -5444,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="AS23" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT23" s="4">
         <v>1</v>
@@ -5457,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="AX23" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY23" s="4">
         <v>1</v>
@@ -5470,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="BC23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD23" s="4">
         <v>1</v>
@@ -5491,10 +5494,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -5512,7 +5515,7 @@
         <v>2295.6</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -5527,18 +5530,18 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Y24" s="4">
         <v>2000</v>
@@ -5547,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AC24" s="4">
         <v>1000</v>
@@ -5559,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AG24" s="4">
         <v>2000</v>
@@ -5571,7 +5574,7 @@
         <v>1</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ24" s="4">
         <v>7</v>
@@ -5584,7 +5587,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO24" s="4">
         <v>1</v>
@@ -5597,7 +5600,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AS24" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT24" s="4">
         <v>1</v>
@@ -5610,7 +5613,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY24" s="4">
         <v>1</v>
@@ -5623,7 +5626,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="BC24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD24" s="4">
         <v>1</v>
@@ -5644,10 +5647,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -5665,7 +5668,7 @@
         <v>2692.7</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -5680,18 +5683,18 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Y25" s="4">
         <v>2000</v>
@@ -5700,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AC25" s="4">
         <v>1003</v>
@@ -5712,10 +5715,10 @@
         <v>1</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AG25" s="4">
         <v>2000</v>
@@ -5724,7 +5727,7 @@
         <v>2</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ25" s="4">
         <v>7</v>
@@ -5737,7 +5740,7 @@
         <v>1.2</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO25" s="4">
         <v>1</v>
@@ -5750,7 +5753,7 @@
         <v>1.2</v>
       </c>
       <c r="AS25" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT25" s="4">
         <v>1</v>
@@ -5763,7 +5766,7 @@
         <v>1.2</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY25" s="4">
         <v>1</v>
@@ -5776,7 +5779,7 @@
         <v>1.2</v>
       </c>
       <c r="BC25" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD25" s="4">
         <v>1</v>
@@ -5797,10 +5800,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -5827,18 +5830,18 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Y26" s="4">
         <v>2000</v>
@@ -5847,10 +5850,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AC26" s="4">
         <v>1000</v>
@@ -5859,10 +5862,10 @@
         <v>0</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AG26" s="4">
         <v>1001</v>
@@ -5871,7 +5874,7 @@
         <v>2</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ26" s="4">
         <v>7</v>
@@ -5884,7 +5887,7 @@
         <v>1.3</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO26" s="4">
         <v>1</v>
@@ -5897,7 +5900,7 @@
         <v>1.3</v>
       </c>
       <c r="AS26" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT26" s="4">
         <v>1</v>
@@ -5910,7 +5913,7 @@
         <v>1.3</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY26" s="4">
         <v>1</v>
@@ -5923,7 +5926,7 @@
         <v>1.3</v>
       </c>
       <c r="BC26" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD26" s="4">
         <v>1</v>
@@ -5944,10 +5947,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -5974,18 +5977,18 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Y27" s="4">
         <v>2000</v>
@@ -5994,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AC27" s="4">
         <v>1003</v>
@@ -6006,10 +6009,10 @@
         <v>1</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AG27" s="4">
         <v>2000</v>
@@ -6018,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ27" s="4">
         <v>7</v>
@@ -6031,7 +6034,7 @@
         <v>1.4</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO27" s="4">
         <v>1</v>
@@ -6044,7 +6047,7 @@
         <v>1.4</v>
       </c>
       <c r="AS27" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT27" s="4">
         <v>1</v>
@@ -6057,7 +6060,7 @@
         <v>1.4</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY27" s="4">
         <v>1</v>
@@ -6070,7 +6073,7 @@
         <v>1.4</v>
       </c>
       <c r="BC27" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD27" s="4">
         <v>1</v>
@@ -6091,10 +6094,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -6121,18 +6124,18 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Y28" s="4">
         <v>2000</v>
@@ -6141,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AC28" s="4">
         <v>1000</v>
@@ -6153,10 +6156,10 @@
         <v>0</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AG28" s="4">
         <v>2000</v>
@@ -6165,7 +6168,7 @@
         <v>2</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ28" s="4">
         <v>7</v>
@@ -6178,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO28" s="4">
         <v>1</v>
@@ -6191,7 +6194,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT28" s="4">
         <v>1</v>
@@ -6204,7 +6207,7 @@
         <v>1.5</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY28" s="4">
         <v>1</v>
@@ -6217,7 +6220,7 @@
         <v>1.5</v>
       </c>
       <c r="BC28" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD28" s="4">
         <v>1</v>
@@ -6238,10 +6241,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -6268,18 +6271,18 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Y29" s="4">
         <v>2000</v>
@@ -6288,10 +6291,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="AC29" s="4">
         <v>1003</v>
@@ -6300,10 +6303,10 @@
         <v>1</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="AG29" s="4">
         <v>1001</v>
@@ -6312,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="AI29" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ29" s="4">
         <v>7</v>
@@ -6325,7 +6328,7 @@
         <v>1.6</v>
       </c>
       <c r="AN29" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO29" s="4">
         <v>1</v>
@@ -6338,7 +6341,7 @@
         <v>1.6</v>
       </c>
       <c r="AS29" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT29" s="4">
         <v>1</v>
@@ -6351,7 +6354,7 @@
         <v>1.6</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY29" s="4">
         <v>1</v>
@@ -6364,7 +6367,7 @@
         <v>1.6</v>
       </c>
       <c r="BC29" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD29" s="4">
         <v>1</v>
@@ -6385,10 +6388,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -6415,18 +6418,18 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="8" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Y30" s="4">
         <v>2000</v>
@@ -6435,10 +6438,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AC30" s="4">
         <v>1000</v>
@@ -6447,10 +6450,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG30" s="4">
         <v>2000</v>
@@ -6459,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="AI30" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ30" s="4">
         <v>7</v>
@@ -6472,7 +6475,7 @@
         <v>1.7</v>
       </c>
       <c r="AN30" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO30" s="4">
         <v>1</v>
@@ -6485,7 +6488,7 @@
         <v>1.7</v>
       </c>
       <c r="AS30" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT30" s="4">
         <v>1</v>
@@ -6498,7 +6501,7 @@
         <v>1.7</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY30" s="4">
         <v>1</v>
@@ -6511,7 +6514,7 @@
         <v>1.7</v>
       </c>
       <c r="BC30" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD30" s="4">
         <v>1</v>
@@ -6532,10 +6535,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -6562,18 +6565,18 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Y31" s="4">
         <v>2000</v>
@@ -6582,10 +6585,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AC31" s="4">
         <v>1001</v>
@@ -6594,10 +6597,10 @@
         <v>2</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AG31" s="4">
         <v>2000</v>
@@ -6606,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ31" s="4">
         <v>7</v>
@@ -6619,7 +6622,7 @@
         <v>1.8</v>
       </c>
       <c r="AN31" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO31" s="4">
         <v>1</v>
@@ -6632,7 +6635,7 @@
         <v>1.8</v>
       </c>
       <c r="AS31" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT31" s="4">
         <v>1</v>
@@ -6645,7 +6648,7 @@
         <v>1.8</v>
       </c>
       <c r="AX31" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY31" s="4">
         <v>1</v>
@@ -6658,7 +6661,7 @@
         <v>1.8</v>
       </c>
       <c r="BC31" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD31" s="4">
         <v>1</v>
@@ -6679,10 +6682,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -6709,18 +6712,18 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Y32" s="4">
         <v>2000</v>
@@ -6729,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AC32" s="4">
         <v>1001</v>
@@ -6741,10 +6744,10 @@
         <v>2</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AG32" s="4">
         <v>2000</v>
@@ -6753,7 +6756,7 @@
         <v>2</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ32" s="4">
         <v>7</v>
@@ -6766,7 +6769,7 @@
         <v>1.9</v>
       </c>
       <c r="AN32" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO32" s="4">
         <v>1</v>
@@ -6779,7 +6782,7 @@
         <v>1.9</v>
       </c>
       <c r="AS32" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT32" s="4">
         <v>1</v>
@@ -6792,7 +6795,7 @@
         <v>1.9</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY32" s="4">
         <v>1</v>
@@ -6805,7 +6808,7 @@
         <v>1.9</v>
       </c>
       <c r="BC32" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD32" s="4">
         <v>1</v>
@@ -6826,10 +6829,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -6856,18 +6859,18 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Y33" s="4">
         <v>2000</v>
@@ -6876,10 +6879,10 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AC33" s="4">
         <v>2000</v>
@@ -6888,10 +6891,10 @@
         <v>1</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AG33" s="4">
         <v>1001</v>
@@ -6900,7 +6903,7 @@
         <v>2</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ33" s="4">
         <v>7</v>
@@ -6913,7 +6916,7 @@
         <v>2</v>
       </c>
       <c r="AN33" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO33" s="4">
         <v>1</v>
@@ -6926,7 +6929,7 @@
         <v>2</v>
       </c>
       <c r="AS33" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT33" s="4">
         <v>1</v>
@@ -6939,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="AX33" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY33" s="4">
         <v>1</v>
@@ -6952,7 +6955,7 @@
         <v>2</v>
       </c>
       <c r="BC33" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD33" s="4">
         <v>1</v>
@@ -6973,10 +6976,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -7003,18 +7006,18 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Y34" s="4">
         <v>2000</v>
@@ -7023,10 +7026,10 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AC34" s="4">
         <v>2000</v>
@@ -7035,10 +7038,10 @@
         <v>1</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AG34" s="4">
         <v>2000</v>
@@ -7047,7 +7050,7 @@
         <v>2</v>
       </c>
       <c r="AI34" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AJ34" s="4">
         <v>7</v>
@@ -7060,7 +7063,7 @@
         <v>2.25</v>
       </c>
       <c r="AN34" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO34" s="4">
         <v>1</v>
@@ -7073,7 +7076,7 @@
         <v>2.25</v>
       </c>
       <c r="AS34" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT34" s="4">
         <v>1</v>
@@ -7086,7 +7089,7 @@
         <v>2.25</v>
       </c>
       <c r="AX34" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY34" s="4">
         <v>1</v>
@@ -7099,7 +7102,7 @@
         <v>2.25</v>
       </c>
       <c r="BC34" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD34" s="4">
         <v>1</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA4D9B6-89BD-4CE3-994D-4D520E516CF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE7E55-014C-45EC-9628-7544EFBC18CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,12 +637,6 @@
     <t>突破大师4</t>
   </si>
   <si>
-    <t>核能大师1</t>
-  </si>
-  <si>
-    <t>核能全体1级</t>
-  </si>
-  <si>
     <t>三级士官</t>
   </si>
   <si>
@@ -751,12 +745,6 @@
     <t>突破大师6</t>
   </si>
   <si>
-    <t>精炼大师5</t>
-  </si>
-  <si>
-    <t>装备全体精炼+10</t>
-  </si>
-  <si>
     <t>四级准尉</t>
   </si>
   <si>
@@ -781,12 +769,6 @@
     <t>导弹炮强化到220</t>
   </si>
   <si>
-    <t>核能大师2</t>
-  </si>
-  <si>
-    <t>核能全体2级</t>
-  </si>
-  <si>
     <t>五级准尉</t>
   </si>
   <si>
@@ -838,12 +820,6 @@
     <t>突破大师7</t>
   </si>
   <si>
-    <t>精炼大师15</t>
-  </si>
-  <si>
-    <t>装备全体精炼+30</t>
-  </si>
-  <si>
     <t>中尉</t>
   </si>
   <si>
@@ -925,12 +901,6 @@
     <t>全体强化到400</t>
   </si>
   <si>
-    <t>精炼大师20</t>
-  </si>
-  <si>
-    <t>装备全体精炼+40</t>
-  </si>
-  <si>
     <t>中校</t>
   </si>
   <si>
@@ -1010,9 +980,6 @@
   </si>
   <si>
     <t>精炼大师30</t>
-  </si>
-  <si>
-    <t>装备全体精炼+60</t>
   </si>
   <si>
     <t>少将</t>
@@ -1351,11 +1318,55 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>精炼大师2</t>
+    <t>核能大师2</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>装备全体精炼+4</t>
+    <t>核能全体2级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能大师3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>核能全体3级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼10级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>把一个装置精炼到10级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼30级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>把一个装置精炼到30级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼60级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>把一个装置精炼到60级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备全体精炼+60</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精炼大师35</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备全体精炼+70</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1972,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="A12:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2655,7 +2666,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>140</v>
@@ -2679,10 +2690,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -2820,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="AC6" s="4">
         <v>1000</v>
@@ -3110,10 +3121,10 @@
         <v>3</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="AC8" s="4">
         <v>1001</v>
@@ -3122,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AG8" s="4">
         <v>1001</v>
@@ -3251,10 +3262,10 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="Y9" s="10">
         <v>2000</v>
@@ -3263,10 +3274,10 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -3408,10 +3419,10 @@
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="11" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="AC10" s="4">
         <v>2000</v>
@@ -3420,10 +3431,10 @@
         <v>0</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AG10" s="4">
         <v>1000</v>
@@ -3573,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="AG11" s="4">
         <v>2000</v>
@@ -3717,7 +3728,7 @@
         <v>193</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="AC12" s="4">
         <v>1003</v>
@@ -3726,10 +3737,10 @@
         <v>1</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>194</v>
+        <v>413</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>195</v>
+        <v>414</v>
       </c>
       <c r="AG12" s="4">
         <v>1001</v>
@@ -3811,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>149</v>
@@ -3832,7 +3843,7 @@
         <v>7795.3</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -3847,18 +3858,18 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y13" s="4">
         <v>2000</v>
@@ -3867,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC13" s="4">
         <v>1001</v>
@@ -3879,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG13" s="4">
         <v>2000</v>
@@ -3964,7 +3975,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>149</v>
@@ -3985,7 +3996,7 @@
         <v>21.7</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -4000,18 +4011,18 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Y14" s="4">
         <v>2000</v>
@@ -4020,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="AC14" s="4">
         <v>1003</v>
@@ -4032,10 +4043,10 @@
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG14" s="4">
         <v>6000</v>
@@ -4117,7 +4128,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>149</v>
@@ -4138,7 +4149,7 @@
         <v>42.8</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -4153,18 +4164,18 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Y15" s="4">
         <v>2000</v>
@@ -4173,10 +4184,10 @@
         <v>0</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC15" s="4">
         <v>1000</v>
@@ -4185,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG15" s="4">
         <v>6000</v>
@@ -4270,7 +4281,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>149</v>
@@ -4291,7 +4302,7 @@
         <v>48.3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -4306,18 +4317,18 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Y16" s="4">
         <v>2000</v>
@@ -4326,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="AC16" s="4">
         <v>1003</v>
@@ -4338,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>232</v>
+        <v>419</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>233</v>
+        <v>420</v>
       </c>
       <c r="AG16" s="4">
         <v>2000</v>
@@ -4423,7 +4434,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>149</v>
@@ -4444,7 +4455,7 @@
         <v>64.5</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -4459,18 +4470,18 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Y17" s="4">
         <v>2000</v>
@@ -4479,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AC17" s="4">
         <v>1001</v>
@@ -4491,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>242</v>
+        <v>415</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
       <c r="AG17" s="4">
         <v>1001</v>
@@ -4576,7 +4587,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>149</v>
@@ -4597,7 +4608,7 @@
         <v>148.80000000000001</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -4612,18 +4623,18 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="Y18" s="4">
         <v>2000</v>
@@ -4632,10 +4643,10 @@
         <v>0</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AC18" s="4">
         <v>1002</v>
@@ -4644,10 +4655,10 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AG18" s="4">
         <v>2000</v>
@@ -4729,7 +4740,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>149</v>
@@ -4750,7 +4761,7 @@
         <v>250.2</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -4765,18 +4776,18 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Y19" s="4">
         <v>2000</v>
@@ -4785,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="AC19" s="4">
         <v>1003</v>
@@ -4797,10 +4808,10 @@
         <v>1</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>261</v>
+        <v>421</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>262</v>
+        <v>422</v>
       </c>
       <c r="AG19" s="4">
         <v>2000</v>
@@ -4882,7 +4893,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>149</v>
@@ -4903,7 +4914,7 @@
         <v>223.4</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -4918,18 +4929,18 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Y20" s="4">
         <v>2000</v>
@@ -4938,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AC20" s="4">
         <v>1000</v>
@@ -4950,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AG20" s="4">
         <v>1001</v>
@@ -5035,7 +5046,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>149</v>
@@ -5056,7 +5067,7 @@
         <v>893.8</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -5071,18 +5082,18 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="Y21" s="4">
         <v>2000</v>
@@ -5091,10 +5102,10 @@
         <v>0</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="AC21" s="4">
         <v>1003</v>
@@ -5103,10 +5114,10 @@
         <v>1</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AG21" s="4">
         <v>2000</v>
@@ -5188,7 +5199,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>149</v>
@@ -5209,7 +5220,7 @@
         <v>1199.9000000000001</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -5224,18 +5235,18 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="8" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="Y22" s="4">
         <v>2000</v>
@@ -5244,10 +5255,10 @@
         <v>0</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="AC22" s="4">
         <v>1000</v>
@@ -5256,10 +5267,10 @@
         <v>0</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>291</v>
+        <v>423</v>
       </c>
       <c r="AG22" s="4">
         <v>2000</v>
@@ -5341,7 +5352,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>149</v>
@@ -5362,7 +5373,7 @@
         <v>1842.5</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -5377,18 +5388,18 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="Y23" s="4">
         <v>2000</v>
@@ -5397,10 +5408,10 @@
         <v>0</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="AC23" s="4">
         <v>1003</v>
@@ -5409,10 +5420,10 @@
         <v>1</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AG23" s="4">
         <v>1001</v>
@@ -5494,7 +5505,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>149</v>
@@ -5515,7 +5526,7 @@
         <v>2295.6</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -5530,18 +5541,18 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="8" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="Y24" s="4">
         <v>2000</v>
@@ -5550,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AC24" s="4">
         <v>1000</v>
@@ -5562,10 +5573,10 @@
         <v>0</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AG24" s="4">
         <v>2000</v>
@@ -5647,7 +5658,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>149</v>
@@ -5668,7 +5679,7 @@
         <v>2692.7</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -5683,18 +5694,18 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="8" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="Y25" s="4">
         <v>2000</v>
@@ -5703,10 +5714,10 @@
         <v>0</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="AC25" s="4">
         <v>1003</v>
@@ -5715,10 +5726,10 @@
         <v>1</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="AG25" s="4">
         <v>2000</v>
@@ -5800,7 +5811,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>149</v>
@@ -5830,18 +5841,18 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="8" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="Y26" s="4">
         <v>2000</v>
@@ -5850,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AC26" s="4">
         <v>1000</v>
@@ -5862,10 +5873,10 @@
         <v>0</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="AG26" s="4">
         <v>1001</v>
@@ -5947,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>149</v>
@@ -5977,18 +5988,18 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="9" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="Y27" s="4">
         <v>2000</v>
@@ -5997,10 +6008,10 @@
         <v>0</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AC27" s="4">
         <v>1003</v>
@@ -6009,10 +6020,10 @@
         <v>1</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AG27" s="4">
         <v>2000</v>
@@ -6094,7 +6105,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>149</v>
@@ -6124,18 +6135,18 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="8" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="Y28" s="4">
         <v>2000</v>
@@ -6144,10 +6155,10 @@
         <v>0</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AC28" s="4">
         <v>1000</v>
@@ -6156,10 +6167,10 @@
         <v>0</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AG28" s="4">
         <v>2000</v>
@@ -6241,7 +6252,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>149</v>
@@ -6271,18 +6282,18 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="9" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="Y29" s="4">
         <v>2000</v>
@@ -6291,10 +6302,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AC29" s="4">
         <v>1003</v>
@@ -6303,10 +6314,10 @@
         <v>1</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="AG29" s="4">
         <v>1001</v>
@@ -6388,7 +6399,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>149</v>
@@ -6418,18 +6429,18 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="8" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="Y30" s="4">
         <v>2000</v>
@@ -6438,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="AC30" s="4">
         <v>1000</v>
@@ -6450,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AG30" s="4">
         <v>2000</v>
@@ -6535,7 +6546,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>149</v>
@@ -6565,18 +6576,18 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="9" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="Y31" s="4">
         <v>2000</v>
@@ -6585,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="AC31" s="4">
         <v>1001</v>
@@ -6597,10 +6608,10 @@
         <v>2</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="AG31" s="4">
         <v>2000</v>
@@ -6682,7 +6693,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>149</v>
@@ -6712,18 +6723,18 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="8" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="Y32" s="4">
         <v>2000</v>
@@ -6732,10 +6743,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="AC32" s="4">
         <v>1001</v>
@@ -6744,10 +6755,10 @@
         <v>2</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="AG32" s="4">
         <v>2000</v>
@@ -6829,7 +6840,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>149</v>
@@ -6859,18 +6870,18 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="9" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Y33" s="4">
         <v>2000</v>
@@ -6879,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="AC33" s="4">
         <v>2000</v>
@@ -6891,10 +6902,10 @@
         <v>1</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="AG33" s="4">
         <v>1001</v>
@@ -6976,7 +6987,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>149</v>
@@ -7006,18 +7017,18 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="Y34" s="4">
         <v>2000</v>
@@ -7026,10 +7037,10 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="AC34" s="4">
         <v>2000</v>
@@ -7038,10 +7049,10 @@
         <v>1</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AG34" s="4">
         <v>2000</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE7E55-014C-45EC-9628-7544EFBC18CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC05973E-A3AD-436D-ACD7-3C653A3452BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,10 +1298,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>花费金币25M</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>导弹炮40级</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1367,6 +1363,10 @@
   </si>
   <si>
     <t>装备全体精炼+70</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费金币10M</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1983,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="A12:S12"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2666,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>140</v>
@@ -2690,10 +2690,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB5" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF8" s="4" t="s">
         <v>401</v>
@@ -3419,10 +3419,10 @@
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="11" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="AC10" s="4">
         <v>2000</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF11" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="AG11" s="4">
         <v>2000</v>
@@ -3737,10 +3737,10 @@
         <v>1</v>
       </c>
       <c r="AE12" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF12" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="AG12" s="4">
         <v>1001</v>
@@ -4349,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="AE16" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF16" s="4" t="s">
         <v>419</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>420</v>
       </c>
       <c r="AG16" s="4">
         <v>2000</v>
@@ -4502,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF17" s="4" t="s">
         <v>415</v>
-      </c>
-      <c r="AF17" s="4" t="s">
-        <v>416</v>
       </c>
       <c r="AG17" s="4">
         <v>1001</v>
@@ -4808,10 +4808,10 @@
         <v>1</v>
       </c>
       <c r="AE19" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF19" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="AG19" s="4">
         <v>2000</v>
@@ -5270,7 +5270,7 @@
         <v>308</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG22" s="4">
         <v>2000</v>
@@ -5726,10 +5726,10 @@
         <v>1</v>
       </c>
       <c r="AE25" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF25" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="AF25" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="AG25" s="4">
         <v>2000</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC05973E-A3AD-436D-ACD7-3C653A3452BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07D81C0-ECEA-4DA7-B43E-8C49BC7CF6F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1227,18 +1227,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>突破大师3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>主舰和辅炮进阶达到4代</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>主舰和辅炮进阶达到3代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>主舰和辅炮进阶达到5代</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1367,6 +1359,13 @@
   </si>
   <si>
     <t>花费金币10M</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高突破3突</t>
+  </si>
+  <si>
+    <t>主舰或辅炮进阶达到3代</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1576,7 +1575,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1612,6 +1611,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1983,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2668,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>140</v>
@@ -2690,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -2831,10 +2833,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AC6" s="4">
         <v>1000</v>
@@ -3133,10 +3135,10 @@
         <v>1</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AG8" s="4">
         <v>1001</v>
@@ -3262,10 +3264,10 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y9" s="10">
         <v>2000</v>
@@ -3274,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -3419,10 +3421,10 @@
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AC10" s="4">
         <v>2000</v>
@@ -3430,11 +3432,11 @@
       <c r="AD10" s="4">
         <v>0</v>
       </c>
-      <c r="AE10" s="4" t="s">
-        <v>390</v>
+      <c r="AE10" s="14" t="s">
+        <v>424</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="AG10" s="4">
         <v>1000</v>
@@ -3584,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG11" s="4">
         <v>2000</v>
@@ -3728,7 +3730,7 @@
         <v>193</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC12" s="4">
         <v>1003</v>
@@ -3737,10 +3739,10 @@
         <v>1</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG12" s="4">
         <v>1001</v>
@@ -4034,7 +4036,7 @@
         <v>210</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AC14" s="4">
         <v>1003</v>
@@ -4340,7 +4342,7 @@
         <v>229</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AC16" s="4">
         <v>1003</v>
@@ -4349,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG16" s="4">
         <v>2000</v>
@@ -4502,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG17" s="4">
         <v>1001</v>
@@ -4799,7 +4801,7 @@
         <v>254</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AC19" s="4">
         <v>1003</v>
@@ -4808,10 +4810,10 @@
         <v>1</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AG19" s="4">
         <v>2000</v>
@@ -5105,7 +5107,7 @@
         <v>271</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AC21" s="4">
         <v>1003</v>
@@ -5270,7 +5272,7 @@
         <v>308</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG22" s="4">
         <v>2000</v>
@@ -5411,7 +5413,7 @@
         <v>288</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AC23" s="4">
         <v>1003</v>
@@ -5717,7 +5719,7 @@
         <v>307</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AC25" s="4">
         <v>1003</v>
@@ -5726,10 +5728,10 @@
         <v>1</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG25" s="4">
         <v>2000</v>
@@ -6011,7 +6013,7 @@
         <v>323</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AC27" s="4">
         <v>1003</v>
@@ -6305,7 +6307,7 @@
         <v>340</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AC29" s="4">
         <v>1003</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07D81C0-ECEA-4DA7-B43E-8C49BC7CF6F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98BFC89-2144-4309-9D5A-8CA96E9EF5C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1263,10 +1263,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>导弹炮升级到40级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>花费钻石III</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1290,10 +1286,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>导弹炮40级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>武器1阶</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1366,6 +1358,14 @@
   </si>
   <si>
     <t>主舰或辅炮进阶达到3代</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰40级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰升级到40级</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1985,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2668,7 +2668,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>140</v>
@@ -2692,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -2833,10 +2833,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="AC6" s="4">
         <v>1000</v>
@@ -3135,10 +3135,10 @@
         <v>1</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="AG8" s="4">
         <v>1001</v>
@@ -3264,10 +3264,10 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="Y9" s="10">
         <v>2000</v>
@@ -3276,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -3421,10 +3421,10 @@
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AC10" s="4">
         <v>2000</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="AE10" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AG10" s="4">
         <v>1000</v>
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG11" s="4">
         <v>2000</v>
@@ -3739,10 +3739,10 @@
         <v>1</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG12" s="4">
         <v>1001</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AG16" s="4">
         <v>2000</v>
@@ -4504,10 +4504,10 @@
         <v>0</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG17" s="4">
         <v>1001</v>
@@ -4810,10 +4810,10 @@
         <v>1</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG19" s="4">
         <v>2000</v>
@@ -5272,7 +5272,7 @@
         <v>308</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG22" s="4">
         <v>2000</v>
@@ -5728,10 +5728,10 @@
         <v>1</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AG25" s="4">
         <v>2000</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98BFC89-2144-4309-9D5A-8CA96E9EF5C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855A8209-C0B6-4EBD-9C46-CD60C9A6A42D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1986,7 +1986,7 @@
   <dimension ref="A1:BG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3281,8 +3281,12 @@
       <c r="AB9" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
+      <c r="AC9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>1</v>
+      </c>
       <c r="AE9" s="5" t="s">
         <v>171</v>
       </c>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855A8209-C0B6-4EBD-9C46-CD60C9A6A42D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4D9C9B-42EE-4623-8C66-E84F5BD06F3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1985,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3141,7 +3141,7 @@
         <v>425</v>
       </c>
       <c r="AG8" s="4">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AH8" s="4">
         <v>0</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4D9C9B-42EE-4623-8C66-E84F5BD06F3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B341FCDE-526C-4D16-8071-A1AE2775E4E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1985,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3587,7 +3587,7 @@
         <v>1002</v>
       </c>
       <c r="AD11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="4" t="s">
         <v>412</v>
@@ -3893,7 +3893,7 @@
         <v>1001</v>
       </c>
       <c r="AD13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="4" t="s">
         <v>202</v>
@@ -4199,7 +4199,7 @@
         <v>1000</v>
       </c>
       <c r="AD15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="5" t="s">
         <v>221</v>
@@ -4505,7 +4505,7 @@
         <v>1001</v>
       </c>
       <c r="AD17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="4" t="s">
         <v>410</v>
@@ -4658,7 +4658,7 @@
         <v>1002</v>
       </c>
       <c r="AD18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="4" t="s">
         <v>246</v>
@@ -4964,7 +4964,7 @@
         <v>1000</v>
       </c>
       <c r="AD20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="4" t="s">
         <v>263</v>
@@ -5270,7 +5270,7 @@
         <v>1000</v>
       </c>
       <c r="AD22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="4" t="s">
         <v>308</v>
@@ -5576,7 +5576,7 @@
         <v>1000</v>
       </c>
       <c r="AD24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24" s="4" t="s">
         <v>299</v>
@@ -5876,7 +5876,7 @@
         <v>1000</v>
       </c>
       <c r="AD26" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="4" t="s">
         <v>316</v>
@@ -6170,7 +6170,7 @@
         <v>1000</v>
       </c>
       <c r="AD28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="4" t="s">
         <v>333</v>
@@ -6464,7 +6464,7 @@
         <v>1000</v>
       </c>
       <c r="AD30" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="4" t="s">
         <v>350</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B341FCDE-526C-4D16-8071-A1AE2775E4E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0852BB-C8EB-4E24-9FBF-0052EB1260A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1985,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0852BB-C8EB-4E24-9FBF-0052EB1260A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="18675" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16935" windowHeight="10800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="军阶" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426">
   <si>
     <t>sheet名</t>
   </si>
@@ -241,7 +235,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -252,7 +245,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -263,7 +255,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -475,6 +466,9 @@
     <t>金币</t>
   </si>
   <si>
+    <t>主舰10级</t>
+  </si>
+  <si>
     <t>主舰升级到10级</t>
   </si>
   <si>
@@ -484,6 +478,12 @@
     <t>主舰突破1级</t>
   </si>
   <si>
+    <t>武器1阶</t>
+  </si>
+  <si>
+    <t>火控系统装置到达1阶</t>
+  </si>
+  <si>
     <t>atk</t>
   </si>
   <si>
@@ -517,6 +517,12 @@
     <t>导弹炮1突</t>
   </si>
   <si>
+    <t>主舰20级</t>
+  </si>
+  <si>
+    <t>主舰升级到20级</t>
+  </si>
+  <si>
     <t>下士</t>
   </si>
   <si>
@@ -556,6 +562,18 @@
     <t>核能到1级</t>
   </si>
   <si>
+    <t>导弹炮2突</t>
+  </si>
+  <si>
+    <t>导弹炮进阶达到2代</t>
+  </si>
+  <si>
+    <t>主舰40级</t>
+  </si>
+  <si>
+    <t>主舰升级到40级</t>
+  </si>
+  <si>
     <t>参谋军士</t>
   </si>
   <si>
@@ -568,6 +586,18 @@
     <t>通关第5章</t>
   </si>
   <si>
+    <t>花费钻石III</t>
+  </si>
+  <si>
+    <t>花费200钻石</t>
+  </si>
+  <si>
+    <t>解锁僚炮2</t>
+  </si>
+  <si>
+    <t>解锁激光炮</t>
+  </si>
+  <si>
     <t>穿戴晶片2</t>
   </si>
   <si>
@@ -592,6 +622,15 @@
     <t>晶片总等级到5级</t>
   </si>
   <si>
+    <t>花费金币10M</t>
+  </si>
+  <si>
+    <t>最高突破3突</t>
+  </si>
+  <si>
+    <t>主舰或辅炮进阶达到3代</t>
+  </si>
+  <si>
     <t>一级士官</t>
   </si>
   <si>
@@ -616,6 +655,12 @@
     <t>激光炮强化到80</t>
   </si>
   <si>
+    <t>精炼10级</t>
+  </si>
+  <si>
+    <t>把一个装置精炼到10级</t>
+  </si>
+  <si>
     <t>二级士官</t>
   </si>
   <si>
@@ -637,6 +682,15 @@
     <t>突破大师4</t>
   </si>
   <si>
+    <t>主舰和辅炮进阶达到4代</t>
+  </si>
+  <si>
+    <t>核能大师2</t>
+  </si>
+  <si>
+    <t>核能全体2级</t>
+  </si>
+  <si>
     <t>三级士官</t>
   </si>
   <si>
@@ -688,6 +742,9 @@
     <t>突破大师5</t>
   </si>
   <si>
+    <t>主舰和辅炮进阶达到5代</t>
+  </si>
+  <si>
     <t>装备5连抽3</t>
   </si>
   <si>
@@ -745,6 +802,15 @@
     <t>突破大师6</t>
   </si>
   <si>
+    <t>主舰和辅炮进阶达到6代</t>
+  </si>
+  <si>
+    <t>精炼30级</t>
+  </si>
+  <si>
+    <t>把一个装置精炼到30级</t>
+  </si>
+  <si>
     <t>四级准尉</t>
   </si>
   <si>
@@ -769,6 +835,12 @@
     <t>导弹炮强化到220</t>
   </si>
   <si>
+    <t>核能大师3</t>
+  </si>
+  <si>
+    <t>核能全体3级</t>
+  </si>
+  <si>
     <t>五级准尉</t>
   </si>
   <si>
@@ -820,6 +892,15 @@
     <t>突破大师7</t>
   </si>
   <si>
+    <t>主舰和辅炮进阶达到7代</t>
+  </si>
+  <si>
+    <t>精炼60级</t>
+  </si>
+  <si>
+    <t>把一个装置精炼到60级</t>
+  </si>
+  <si>
     <t>中尉</t>
   </si>
   <si>
@@ -871,6 +952,9 @@
     <t>突破大师8</t>
   </si>
   <si>
+    <t>主舰和辅炮进阶达到8代</t>
+  </si>
+  <si>
     <t>装备进阶大师6</t>
   </si>
   <si>
@@ -901,6 +985,12 @@
     <t>全体强化到400</t>
   </si>
   <si>
+    <t>精炼大师30</t>
+  </si>
+  <si>
+    <t>装备全体精炼+60</t>
+  </si>
+  <si>
     <t>中校</t>
   </si>
   <si>
@@ -922,6 +1012,9 @@
     <t>突破大师9</t>
   </si>
   <si>
+    <t>主舰和辅炮进阶达到9代</t>
+  </si>
+  <si>
     <t>核能大师6</t>
   </si>
   <si>
@@ -979,7 +1072,13 @@
     <t>突破大师10</t>
   </si>
   <si>
-    <t>精炼大师30</t>
+    <t>主舰和辅炮进阶达到10代</t>
+  </si>
+  <si>
+    <t>精炼大师35</t>
+  </si>
+  <si>
+    <t>装备全体精炼+70</t>
   </si>
   <si>
     <t>少将</t>
@@ -1027,6 +1126,9 @@
     <t>突破大师11</t>
   </si>
   <si>
+    <t>主舰和辅炮进阶达到11代</t>
+  </si>
+  <si>
     <t>装备进阶大师8</t>
   </si>
   <si>
@@ -1078,6 +1180,9 @@
     <t>突破大师12</t>
   </si>
   <si>
+    <t>主舰和辅炮进阶达到12代</t>
+  </si>
+  <si>
     <t>核能大师8</t>
   </si>
   <si>
@@ -1217,163 +1322,19 @@
   </si>
   <si>
     <t>装备全体精炼+120</t>
-  </si>
-  <si>
-    <t>导弹炮2突</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>导弹炮进阶达到2代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰和辅炮进阶达到4代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰和辅炮进阶达到5代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰和辅炮进阶达到6代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰和辅炮进阶达到7代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰和辅炮进阶达到8代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰和辅炮进阶达到9代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰和辅炮进阶达到10代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰和辅炮进阶达到11代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰和辅炮进阶达到12代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费钻石III</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费200钻石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰20级</t>
-  </si>
-  <si>
-    <t>主舰升级到20级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁僚炮2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁激光炮</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器1阶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>火控系统装置到达1阶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰10级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能大师2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能全体2级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能大师3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>核能全体3级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>精炼10级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>把一个装置精炼到10级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>精炼30级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>把一个装置精炼到30级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>精炼60级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>把一个装置精炼到60级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备全体精炼+60</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>精炼大师35</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备全体精炼+70</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>花费金币10M</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高突破3突</t>
-  </si>
-  <si>
-    <t>主舰或辅炮进阶达到3代</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰40级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主舰升级到40级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1386,14 +1347,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1401,34 +1360,90 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1436,16 +1451,98 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1453,19 +1550,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1480,13 +1569,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,18 +1767,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
+        <fgColor theme="0" tint="-0.34934537797174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1533,6 +1808,104 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1544,107 +1917,295 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="33" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="超链接 2" xfId="57"/>
+    <cellStyle name="文本" xfId="58"/>
+    <cellStyle name="无效" xfId="59"/>
+    <cellStyle name="中文标题" xfId="60"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0000"/>
-      <color rgb="FF000000"/>
+      <color rgb="00FF0000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1902,19 +2463,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1925,7 +2486,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1948,7 +2509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="47.25" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1971,25 +2532,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:1">
+      <c r="A6" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="AA6" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
@@ -2026,7 +2588,7 @@
     <col min="35" max="59" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:59">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2205,7 +2767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:59">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2384,7 +2946,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" ht="15" spans="1:59">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
@@ -2563,7 +3125,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="16.5" spans="1:59">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2630,7 +3192,7 @@
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
     </row>
-    <row r="5" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="16.5" spans="1:59">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2668,10 +3230,10 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4" t="s">
-        <v>407</v>
+        <v>140</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U5" s="4">
         <v>1000</v>
@@ -2680,10 +3242,10 @@
         <v>1</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y5" s="4">
         <v>1000</v>
@@ -2692,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>405</v>
+        <v>144</v>
       </c>
       <c r="AB5" s="4" t="s">
-        <v>406</v>
+        <v>145</v>
       </c>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -2704,7 +3266,7 @@
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ5" s="4">
         <v>7</v>
@@ -2717,7 +3279,7 @@
         <v>0.02</v>
       </c>
       <c r="AN5" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO5" s="4">
         <v>1</v>
@@ -2730,7 +3292,7 @@
         <v>0.02</v>
       </c>
       <c r="AS5" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT5" s="4">
         <v>1</v>
@@ -2743,7 +3305,7 @@
         <v>0.02</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY5" s="4">
         <v>1</v>
@@ -2756,7 +3318,7 @@
         <v>0.02</v>
       </c>
       <c r="BC5" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD5" s="4">
         <v>1</v>
@@ -2769,7 +3331,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="16.5" spans="1:59">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2777,10 +3339,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -2798,7 +3360,7 @@
         <v>130.5</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
@@ -2813,18 +3375,18 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Y6" s="4">
         <v>1001</v>
@@ -2833,10 +3395,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>401</v>
+        <v>157</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>402</v>
+        <v>158</v>
       </c>
       <c r="AC6" s="4">
         <v>1000</v>
@@ -2849,7 +3411,7 @@
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ6" s="4">
         <v>7</v>
@@ -2862,7 +3424,7 @@
         <v>0.05</v>
       </c>
       <c r="AN6" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO6" s="4">
         <v>1</v>
@@ -2875,7 +3437,7 @@
         <v>0.05</v>
       </c>
       <c r="AS6" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT6" s="4">
         <v>1</v>
@@ -2888,7 +3450,7 @@
         <v>0.05</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY6" s="4">
         <v>1</v>
@@ -2901,7 +3463,7 @@
         <v>0.05</v>
       </c>
       <c r="BC6" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD6" s="4">
         <v>1</v>
@@ -2914,7 +3476,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="16.5" spans="1:59">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2922,10 +3484,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -2943,7 +3505,7 @@
         <v>205.1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -2958,18 +3520,18 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Y7" s="4">
         <v>6000</v>
@@ -2978,10 +3540,10 @@
         <v>2</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AC7" s="4">
         <v>2000</v>
@@ -2994,7 +3556,7 @@
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ7" s="4">
         <v>7</v>
@@ -3004,10 +3566,10 @@
       </c>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO7" s="4">
         <v>1</v>
@@ -3017,10 +3579,10 @@
       </c>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AS7" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT7" s="4">
         <v>1</v>
@@ -3030,10 +3592,10 @@
       </c>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AX7" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY7" s="4">
         <v>1</v>
@@ -3043,10 +3605,10 @@
       </c>
       <c r="BA7" s="4"/>
       <c r="BB7" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="BC7" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD7" s="4">
         <v>1</v>
@@ -3056,10 +3618,10 @@
       </c>
       <c r="BF7" s="4"/>
       <c r="BG7" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" ht="16.5" spans="1:59">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3067,10 +3629,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -3088,7 +3650,7 @@
         <v>329.4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -3103,18 +3665,18 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Y8" s="4">
         <v>1000</v>
@@ -3123,10 +3685,10 @@
         <v>3</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>388</v>
+        <v>172</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="AC8" s="4">
         <v>1001</v>
@@ -3135,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>424</v>
+        <v>174</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="AG8" s="4">
         <v>1000</v>
@@ -3147,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ8" s="4">
         <v>7</v>
@@ -3160,7 +3722,7 @@
         <v>0.1</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO8" s="4">
         <v>1</v>
@@ -3173,7 +3735,7 @@
         <v>0.1</v>
       </c>
       <c r="AS8" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT8" s="4">
         <v>1</v>
@@ -3186,7 +3748,7 @@
         <v>0.1</v>
       </c>
       <c r="AX8" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY8" s="4">
         <v>1</v>
@@ -3199,7 +3761,7 @@
         <v>0.1</v>
       </c>
       <c r="BC8" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD8" s="4">
         <v>1</v>
@@ -3212,7 +3774,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" ht="16.5" spans="1:59">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3220,10 +3782,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -3241,7 +3803,7 @@
         <v>487.8</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -3256,18 +3818,18 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5" t="s">
-        <v>399</v>
+        <v>180</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>400</v>
+        <v>181</v>
       </c>
       <c r="Y9" s="10">
         <v>2000</v>
@@ -3276,10 +3838,10 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>403</v>
+        <v>182</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>404</v>
+        <v>183</v>
       </c>
       <c r="AC9" s="4">
         <v>1000</v>
@@ -3288,17 +3850,17 @@
         <v>1</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="AG9" s="4">
         <v>3000</v>
       </c>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ9" s="4">
         <v>7</v>
@@ -3311,7 +3873,7 @@
         <v>0.15</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO9" s="4">
         <v>1</v>
@@ -3324,7 +3886,7 @@
         <v>0.15</v>
       </c>
       <c r="AS9" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT9" s="4">
         <v>1</v>
@@ -3337,7 +3899,7 @@
         <v>0.15</v>
       </c>
       <c r="AX9" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY9" s="4">
         <v>1</v>
@@ -3350,7 +3912,7 @@
         <v>0.15</v>
       </c>
       <c r="BC9" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD9" s="4">
         <v>1</v>
@@ -3363,7 +3925,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="18" customHeight="1" spans="1:59">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3371,10 +3933,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -3392,7 +3954,7 @@
         <v>675.5</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -3407,28 +3969,28 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="6" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="Y10" s="4">
         <v>3000</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="11" t="s">
-        <v>421</v>
+        <v>192</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>421</v>
+        <v>192</v>
       </c>
       <c r="AC10" s="4">
         <v>2000</v>
@@ -3436,11 +3998,11 @@
       <c r="AD10" s="4">
         <v>0</v>
       </c>
-      <c r="AE10" s="14" t="s">
-        <v>422</v>
+      <c r="AE10" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>423</v>
+        <v>194</v>
       </c>
       <c r="AG10" s="4">
         <v>1000</v>
@@ -3449,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ10" s="4">
         <v>7</v>
@@ -3462,7 +4024,7 @@
         <v>0.2</v>
       </c>
       <c r="AN10" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO10" s="4">
         <v>1</v>
@@ -3475,7 +4037,7 @@
         <v>0.2</v>
       </c>
       <c r="AS10" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT10" s="4">
         <v>1</v>
@@ -3488,7 +4050,7 @@
         <v>0.2</v>
       </c>
       <c r="AX10" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY10" s="4">
         <v>1</v>
@@ -3501,7 +4063,7 @@
         <v>0.2</v>
       </c>
       <c r="BC10" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD10" s="4">
         <v>1</v>
@@ -3514,7 +4076,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="16.5" spans="1:59">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -3522,10 +4084,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -3543,7 +4105,7 @@
         <v>2067.6</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -3558,18 +4120,18 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y11" s="4">
         <v>2000</v>
@@ -3578,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="AC11" s="4">
         <v>1002</v>
@@ -3590,10 +4152,10 @@
         <v>1</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>412</v>
+        <v>203</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>413</v>
+        <v>204</v>
       </c>
       <c r="AG11" s="4">
         <v>2000</v>
@@ -3602,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="AI11" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ11" s="4">
         <v>7</v>
@@ -3615,7 +4177,7 @@
         <v>0.25</v>
       </c>
       <c r="AN11" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO11" s="4">
         <v>1</v>
@@ -3628,7 +4190,7 @@
         <v>0.25</v>
       </c>
       <c r="AS11" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT11" s="4">
         <v>1</v>
@@ -3641,7 +4203,7 @@
         <v>0.25</v>
       </c>
       <c r="AX11" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY11" s="4">
         <v>1</v>
@@ -3654,7 +4216,7 @@
         <v>0.25</v>
       </c>
       <c r="BC11" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD11" s="4">
         <v>1</v>
@@ -3667,7 +4229,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="16.5" spans="1:59">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3675,10 +4237,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -3693,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>4404.8999999999996</v>
+        <v>4404.9</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -3711,18 +4273,18 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="Y12" s="4">
         <v>2000</v>
@@ -3731,22 +4293,22 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>390</v>
+        <v>212</v>
       </c>
       <c r="AC12" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD12" s="4">
         <v>1</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>408</v>
+        <v>213</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>409</v>
+        <v>214</v>
       </c>
       <c r="AG12" s="4">
         <v>1001</v>
@@ -3755,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="AI12" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ12" s="4">
         <v>7</v>
@@ -3768,7 +4330,7 @@
         <v>0.35</v>
       </c>
       <c r="AN12" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO12" s="4">
         <v>1</v>
@@ -3781,7 +4343,7 @@
         <v>0.35</v>
       </c>
       <c r="AS12" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT12" s="4">
         <v>1</v>
@@ -3794,7 +4356,7 @@
         <v>0.35</v>
       </c>
       <c r="AX12" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY12" s="4">
         <v>1</v>
@@ -3807,7 +4369,7 @@
         <v>0.35</v>
       </c>
       <c r="BC12" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD12" s="4">
         <v>1</v>
@@ -3820,7 +4382,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="16.5" spans="1:59">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -3828,10 +4390,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -3849,7 +4411,7 @@
         <v>7795.3</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -3864,18 +4426,18 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="8" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="Y13" s="4">
         <v>2000</v>
@@ -3884,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="AC13" s="4">
         <v>1001</v>
@@ -3896,10 +4458,10 @@
         <v>1</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="AG13" s="4">
         <v>2000</v>
@@ -3908,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="AI13" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ13" s="4">
         <v>7</v>
@@ -3921,7 +4483,7 @@
         <v>0.45</v>
       </c>
       <c r="AN13" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO13" s="4">
         <v>1</v>
@@ -3934,7 +4496,7 @@
         <v>0.45</v>
       </c>
       <c r="AS13" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT13" s="4">
         <v>1</v>
@@ -3947,7 +4509,7 @@
         <v>0.45</v>
       </c>
       <c r="AX13" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY13" s="4">
         <v>1</v>
@@ -3960,7 +4522,7 @@
         <v>0.45</v>
       </c>
       <c r="BC13" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD13" s="4">
         <v>1</v>
@@ -3973,7 +4535,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="16.5" spans="1:59">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3981,10 +4543,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -4002,7 +4564,7 @@
         <v>21.7</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -4017,18 +4579,18 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="8" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="Y14" s="4">
         <v>2000</v>
@@ -4037,22 +4599,22 @@
         <v>0</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>391</v>
+        <v>232</v>
       </c>
       <c r="AC14" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD14" s="4">
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="AG14" s="4">
         <v>6000</v>
@@ -4061,7 +4623,7 @@
         <v>2</v>
       </c>
       <c r="AI14" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ14" s="4">
         <v>7</v>
@@ -4074,7 +4636,7 @@
         <v>0.5</v>
       </c>
       <c r="AN14" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO14" s="4">
         <v>1</v>
@@ -4087,7 +4649,7 @@
         <v>0.5</v>
       </c>
       <c r="AS14" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT14" s="4">
         <v>1</v>
@@ -4100,7 +4662,7 @@
         <v>0.5</v>
       </c>
       <c r="AX14" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY14" s="4">
         <v>1</v>
@@ -4113,7 +4675,7 @@
         <v>0.5</v>
       </c>
       <c r="BC14" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD14" s="4">
         <v>1</v>
@@ -4126,7 +4688,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="16.5" spans="1:59">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -4134,10 +4696,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -4155,7 +4717,7 @@
         <v>42.8</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -4170,18 +4732,18 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="8" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="Y15" s="4">
         <v>2000</v>
@@ -4190,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="AC15" s="4">
         <v>1000</v>
@@ -4202,10 +4764,10 @@
         <v>1</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG15" s="4">
         <v>6000</v>
@@ -4214,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="AI15" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ15" s="4">
         <v>7</v>
@@ -4224,10 +4786,10 @@
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AN15" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO15" s="4">
         <v>1</v>
@@ -4237,10 +4799,10 @@
       </c>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AS15" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT15" s="4">
         <v>1</v>
@@ -4250,10 +4812,10 @@
       </c>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="AX15" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY15" s="4">
         <v>1</v>
@@ -4263,10 +4825,10 @@
       </c>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="BC15" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD15" s="4">
         <v>1</v>
@@ -4276,10 +4838,10 @@
       </c>
       <c r="BF15" s="4"/>
       <c r="BG15" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="16.5" spans="1:59">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -4287,10 +4849,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -4308,7 +4870,7 @@
         <v>48.3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -4323,18 +4885,18 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="7" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="Y16" s="4">
         <v>2000</v>
@@ -4343,22 +4905,22 @@
         <v>0</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>392</v>
+        <v>252</v>
       </c>
       <c r="AC16" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD16" s="4">
         <v>1</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>414</v>
+        <v>253</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>415</v>
+        <v>254</v>
       </c>
       <c r="AG16" s="4">
         <v>2000</v>
@@ -4367,7 +4929,7 @@
         <v>2</v>
       </c>
       <c r="AI16" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ16" s="4">
         <v>7</v>
@@ -4380,7 +4942,7 @@
         <v>0.6</v>
       </c>
       <c r="AN16" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO16" s="4">
         <v>1</v>
@@ -4393,7 +4955,7 @@
         <v>0.6</v>
       </c>
       <c r="AS16" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT16" s="4">
         <v>1</v>
@@ -4406,7 +4968,7 @@
         <v>0.6</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY16" s="4">
         <v>1</v>
@@ -4419,7 +4981,7 @@
         <v>0.6</v>
       </c>
       <c r="BC16" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD16" s="4">
         <v>1</v>
@@ -4432,7 +4994,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="16.5" spans="1:59">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -4440,10 +5002,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -4461,7 +5023,7 @@
         <v>64.5</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -4476,18 +5038,18 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="8" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="Y17" s="4">
         <v>2000</v>
@@ -4496,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="AC17" s="4">
         <v>1001</v>
@@ -4508,10 +5070,10 @@
         <v>1</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>410</v>
+        <v>263</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>411</v>
+        <v>264</v>
       </c>
       <c r="AG17" s="4">
         <v>1001</v>
@@ -4520,7 +5082,7 @@
         <v>2</v>
       </c>
       <c r="AI17" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ17" s="4">
         <v>7</v>
@@ -4533,7 +5095,7 @@
         <v>0.65</v>
       </c>
       <c r="AN17" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO17" s="4">
         <v>1</v>
@@ -4546,7 +5108,7 @@
         <v>0.65</v>
       </c>
       <c r="AS17" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT17" s="4">
         <v>1</v>
@@ -4559,7 +5121,7 @@
         <v>0.65</v>
       </c>
       <c r="AX17" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY17" s="4">
         <v>1</v>
@@ -4572,7 +5134,7 @@
         <v>0.65</v>
       </c>
       <c r="BC17" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD17" s="4">
         <v>1</v>
@@ -4585,7 +5147,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" ht="16.5" spans="1:59">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -4593,10 +5155,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -4611,10 +5173,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="4">
-        <v>148.80000000000001</v>
+        <v>148.8</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -4629,18 +5191,18 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="8" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="Y18" s="4">
         <v>2000</v>
@@ -4649,10 +5211,10 @@
         <v>0</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="AC18" s="4">
         <v>1002</v>
@@ -4661,10 +5223,10 @@
         <v>1</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AG18" s="4">
         <v>2000</v>
@@ -4673,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ18" s="4">
         <v>7</v>
@@ -4686,7 +5248,7 @@
         <v>0.7</v>
       </c>
       <c r="AN18" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO18" s="4">
         <v>1</v>
@@ -4699,7 +5261,7 @@
         <v>0.7</v>
       </c>
       <c r="AS18" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT18" s="4">
         <v>1</v>
@@ -4712,7 +5274,7 @@
         <v>0.7</v>
       </c>
       <c r="AX18" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY18" s="4">
         <v>1</v>
@@ -4725,7 +5287,7 @@
         <v>0.7</v>
       </c>
       <c r="BC18" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD18" s="4">
         <v>1</v>
@@ -4738,7 +5300,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" ht="16.5" spans="1:59">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -4746,10 +5308,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -4767,7 +5329,7 @@
         <v>250.2</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -4782,18 +5344,18 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="8" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="Y19" s="4">
         <v>2000</v>
@@ -4802,22 +5364,22 @@
         <v>0</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>393</v>
+        <v>282</v>
       </c>
       <c r="AC19" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD19" s="4">
         <v>1</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>416</v>
+        <v>283</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>417</v>
+        <v>284</v>
       </c>
       <c r="AG19" s="4">
         <v>2000</v>
@@ -4826,7 +5388,7 @@
         <v>2</v>
       </c>
       <c r="AI19" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ19" s="4">
         <v>7</v>
@@ -4839,7 +5401,7 @@
         <v>0.75</v>
       </c>
       <c r="AN19" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO19" s="4">
         <v>1</v>
@@ -4852,7 +5414,7 @@
         <v>0.75</v>
       </c>
       <c r="AS19" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT19" s="4">
         <v>1</v>
@@ -4865,7 +5427,7 @@
         <v>0.75</v>
       </c>
       <c r="AX19" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY19" s="4">
         <v>1</v>
@@ -4878,7 +5440,7 @@
         <v>0.75</v>
       </c>
       <c r="BC19" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD19" s="4">
         <v>1</v>
@@ -4891,7 +5453,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" ht="16.5" spans="1:59">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -4899,10 +5461,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -4920,7 +5482,7 @@
         <v>223.4</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -4935,18 +5497,18 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="7" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="Y20" s="4">
         <v>2000</v>
@@ -4955,10 +5517,10 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="AC20" s="4">
         <v>1000</v>
@@ -4967,10 +5529,10 @@
         <v>1</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="AG20" s="4">
         <v>1001</v>
@@ -4979,7 +5541,7 @@
         <v>2</v>
       </c>
       <c r="AI20" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ20" s="4">
         <v>7</v>
@@ -4992,7 +5554,7 @@
         <v>0.8</v>
       </c>
       <c r="AN20" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO20" s="4">
         <v>1</v>
@@ -5005,7 +5567,7 @@
         <v>0.8</v>
       </c>
       <c r="AS20" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT20" s="4">
         <v>1</v>
@@ -5018,7 +5580,7 @@
         <v>0.8</v>
       </c>
       <c r="AX20" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY20" s="4">
         <v>1</v>
@@ -5031,7 +5593,7 @@
         <v>0.8</v>
       </c>
       <c r="BC20" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD20" s="4">
         <v>1</v>
@@ -5044,7 +5606,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" ht="16.5" spans="1:59">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -5052,10 +5614,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -5073,7 +5635,7 @@
         <v>893.8</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -5088,18 +5650,18 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="8" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="Y21" s="4">
         <v>2000</v>
@@ -5108,22 +5670,22 @@
         <v>0</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="AC21" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD21" s="4">
         <v>1</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="AG21" s="4">
         <v>2000</v>
@@ -5132,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="AI21" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ21" s="4">
         <v>7</v>
@@ -5145,7 +5707,7 @@
         <v>0.85</v>
       </c>
       <c r="AN21" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO21" s="4">
         <v>1</v>
@@ -5158,7 +5720,7 @@
         <v>0.85</v>
       </c>
       <c r="AS21" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT21" s="4">
         <v>1</v>
@@ -5171,7 +5733,7 @@
         <v>0.85</v>
       </c>
       <c r="AX21" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY21" s="4">
         <v>1</v>
@@ -5184,7 +5746,7 @@
         <v>0.85</v>
       </c>
       <c r="BC21" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD21" s="4">
         <v>1</v>
@@ -5197,7 +5759,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="22" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" ht="16.5" spans="1:59">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -5205,10 +5767,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -5223,10 +5785,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="4">
-        <v>1199.9000000000001</v>
+        <v>1199.9</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -5241,18 +5803,18 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="8" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="Y22" s="4">
         <v>2000</v>
@@ -5261,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="AC22" s="4">
         <v>1000</v>
@@ -5273,10 +5835,10 @@
         <v>1</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>418</v>
+        <v>314</v>
       </c>
       <c r="AG22" s="4">
         <v>2000</v>
@@ -5285,7 +5847,7 @@
         <v>2</v>
       </c>
       <c r="AI22" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ22" s="4">
         <v>7</v>
@@ -5298,7 +5860,7 @@
         <v>0.9</v>
       </c>
       <c r="AN22" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO22" s="4">
         <v>1</v>
@@ -5311,7 +5873,7 @@
         <v>0.9</v>
       </c>
       <c r="AS22" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT22" s="4">
         <v>1</v>
@@ -5324,7 +5886,7 @@
         <v>0.9</v>
       </c>
       <c r="AX22" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY22" s="4">
         <v>1</v>
@@ -5337,7 +5899,7 @@
         <v>0.9</v>
       </c>
       <c r="BC22" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD22" s="4">
         <v>1</v>
@@ -5350,7 +5912,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" ht="16.5" spans="1:59">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -5358,10 +5920,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -5379,7 +5941,7 @@
         <v>1842.5</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -5394,18 +5956,18 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="8" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="Y23" s="4">
         <v>2000</v>
@@ -5414,22 +5976,22 @@
         <v>0</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="AC23" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD23" s="4">
         <v>1</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="AG23" s="4">
         <v>1001</v>
@@ -5438,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="AI23" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ23" s="4">
         <v>7</v>
@@ -5451,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="AN23" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO23" s="4">
         <v>1</v>
@@ -5464,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="AS23" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT23" s="4">
         <v>1</v>
@@ -5477,7 +6039,7 @@
         <v>1</v>
       </c>
       <c r="AX23" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY23" s="4">
         <v>1</v>
@@ -5490,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="BC23" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD23" s="4">
         <v>1</v>
@@ -5503,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="16.5" spans="1:59">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -5511,10 +6073,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -5532,7 +6094,7 @@
         <v>2295.6</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -5547,18 +6109,18 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="8" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="Y24" s="4">
         <v>2000</v>
@@ -5567,10 +6129,10 @@
         <v>0</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="AC24" s="4">
         <v>1000</v>
@@ -5579,10 +6141,10 @@
         <v>1</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="AG24" s="4">
         <v>2000</v>
@@ -5591,7 +6153,7 @@
         <v>1</v>
       </c>
       <c r="AI24" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ24" s="4">
         <v>7</v>
@@ -5601,10 +6163,10 @@
       </c>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AN24" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO24" s="4">
         <v>1</v>
@@ -5614,10 +6176,10 @@
       </c>
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AS24" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT24" s="4">
         <v>1</v>
@@ -5627,10 +6189,10 @@
       </c>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AX24" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY24" s="4">
         <v>1</v>
@@ -5640,10 +6202,10 @@
       </c>
       <c r="BA24" s="4"/>
       <c r="BB24" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="BC24" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD24" s="4">
         <v>1</v>
@@ -5653,10 +6215,10 @@
       </c>
       <c r="BF24" s="4"/>
       <c r="BG24" s="4">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
-    <row r="25" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="25" ht="16.5" spans="1:59">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -5664,10 +6226,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -5685,7 +6247,7 @@
         <v>2692.7</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -5700,18 +6262,18 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="8" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="Y25" s="4">
         <v>2000</v>
@@ -5720,22 +6282,22 @@
         <v>0</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="AC25" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD25" s="4">
         <v>1</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>419</v>
+        <v>343</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>420</v>
+        <v>344</v>
       </c>
       <c r="AG25" s="4">
         <v>2000</v>
@@ -5744,7 +6306,7 @@
         <v>2</v>
       </c>
       <c r="AI25" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ25" s="4">
         <v>7</v>
@@ -5757,7 +6319,7 @@
         <v>1.2</v>
       </c>
       <c r="AN25" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO25" s="4">
         <v>1</v>
@@ -5770,7 +6332,7 @@
         <v>1.2</v>
       </c>
       <c r="AS25" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT25" s="4">
         <v>1</v>
@@ -5783,7 +6345,7 @@
         <v>1.2</v>
       </c>
       <c r="AX25" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY25" s="4">
         <v>1</v>
@@ -5796,7 +6358,7 @@
         <v>1.2</v>
       </c>
       <c r="BC25" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD25" s="4">
         <v>1</v>
@@ -5809,7 +6371,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="26" ht="16.5" spans="1:59">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -5817,10 +6379,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -5847,18 +6409,18 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="8" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="Y26" s="4">
         <v>2000</v>
@@ -5867,10 +6429,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="AC26" s="4">
         <v>1000</v>
@@ -5879,10 +6441,10 @@
         <v>1</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="AG26" s="4">
         <v>1001</v>
@@ -5891,7 +6453,7 @@
         <v>2</v>
       </c>
       <c r="AI26" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ26" s="4">
         <v>7</v>
@@ -5904,7 +6466,7 @@
         <v>1.3</v>
       </c>
       <c r="AN26" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO26" s="4">
         <v>1</v>
@@ -5917,7 +6479,7 @@
         <v>1.3</v>
       </c>
       <c r="AS26" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT26" s="4">
         <v>1</v>
@@ -5930,7 +6492,7 @@
         <v>1.3</v>
       </c>
       <c r="AX26" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY26" s="4">
         <v>1</v>
@@ -5943,7 +6505,7 @@
         <v>1.3</v>
       </c>
       <c r="BC26" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD26" s="4">
         <v>1</v>
@@ -5956,7 +6518,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="27" ht="16.5" spans="1:59">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -5964,10 +6526,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -5994,18 +6556,18 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="9" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="Y27" s="4">
         <v>2000</v>
@@ -6014,22 +6576,22 @@
         <v>0</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="AC27" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD27" s="4">
         <v>1</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="AG27" s="4">
         <v>2000</v>
@@ -6038,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ27" s="4">
         <v>7</v>
@@ -6051,7 +6613,7 @@
         <v>1.4</v>
       </c>
       <c r="AN27" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO27" s="4">
         <v>1</v>
@@ -6064,7 +6626,7 @@
         <v>1.4</v>
       </c>
       <c r="AS27" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT27" s="4">
         <v>1</v>
@@ -6077,7 +6639,7 @@
         <v>1.4</v>
       </c>
       <c r="AX27" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY27" s="4">
         <v>1</v>
@@ -6090,7 +6652,7 @@
         <v>1.4</v>
       </c>
       <c r="BC27" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD27" s="4">
         <v>1</v>
@@ -6103,7 +6665,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:59">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -6111,10 +6673,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -6129,7 +6691,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="4">
-        <v>4625.1000000000004</v>
+        <v>4625.1</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -6141,18 +6703,18 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="8" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="Y28" s="4">
         <v>2000</v>
@@ -6161,10 +6723,10 @@
         <v>0</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AC28" s="4">
         <v>1000</v>
@@ -6173,10 +6735,10 @@
         <v>1</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="AG28" s="4">
         <v>2000</v>
@@ -6185,7 +6747,7 @@
         <v>2</v>
       </c>
       <c r="AI28" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ28" s="4">
         <v>7</v>
@@ -6198,7 +6760,7 @@
         <v>1.5</v>
       </c>
       <c r="AN28" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO28" s="4">
         <v>1</v>
@@ -6211,7 +6773,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT28" s="4">
         <v>1</v>
@@ -6224,7 +6786,7 @@
         <v>1.5</v>
       </c>
       <c r="AX28" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY28" s="4">
         <v>1</v>
@@ -6237,7 +6799,7 @@
         <v>1.5</v>
       </c>
       <c r="BC28" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD28" s="4">
         <v>1</v>
@@ -6250,7 +6812,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="29" ht="16.5" spans="1:59">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -6258,10 +6820,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -6288,18 +6850,18 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="9" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="Y29" s="4">
         <v>2000</v>
@@ -6308,22 +6870,22 @@
         <v>0</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="AC29" s="4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD29" s="4">
         <v>1</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="AG29" s="4">
         <v>1001</v>
@@ -6332,7 +6894,7 @@
         <v>2</v>
       </c>
       <c r="AI29" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ29" s="4">
         <v>7</v>
@@ -6345,7 +6907,7 @@
         <v>1.6</v>
       </c>
       <c r="AN29" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO29" s="4">
         <v>1</v>
@@ -6358,7 +6920,7 @@
         <v>1.6</v>
       </c>
       <c r="AS29" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT29" s="4">
         <v>1</v>
@@ -6371,7 +6933,7 @@
         <v>1.6</v>
       </c>
       <c r="AX29" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY29" s="4">
         <v>1</v>
@@ -6384,7 +6946,7 @@
         <v>1.6</v>
       </c>
       <c r="BC29" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD29" s="4">
         <v>1</v>
@@ -6397,7 +6959,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="30" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" ht="16.5" spans="1:59">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -6405,10 +6967,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -6435,18 +6997,18 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="8" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="Y30" s="4">
         <v>2000</v>
@@ -6455,10 +7017,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="AC30" s="4">
         <v>1000</v>
@@ -6467,10 +7029,10 @@
         <v>1</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="AG30" s="4">
         <v>2000</v>
@@ -6479,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="AI30" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ30" s="4">
         <v>7</v>
@@ -6492,7 +7054,7 @@
         <v>1.7</v>
       </c>
       <c r="AN30" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO30" s="4">
         <v>1</v>
@@ -6505,7 +7067,7 @@
         <v>1.7</v>
       </c>
       <c r="AS30" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT30" s="4">
         <v>1</v>
@@ -6518,7 +7080,7 @@
         <v>1.7</v>
       </c>
       <c r="AX30" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY30" s="4">
         <v>1</v>
@@ -6531,7 +7093,7 @@
         <v>1.7</v>
       </c>
       <c r="BC30" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD30" s="4">
         <v>1</v>
@@ -6544,7 +7106,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="31" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="31" ht="16.5" spans="1:59">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -6552,10 +7114,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -6570,7 +7132,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="4">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -6582,18 +7144,18 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="9" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="Y31" s="4">
         <v>2000</v>
@@ -6602,10 +7164,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="AC31" s="4">
         <v>1001</v>
@@ -6614,10 +7176,10 @@
         <v>2</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="AG31" s="4">
         <v>2000</v>
@@ -6626,7 +7188,7 @@
         <v>2</v>
       </c>
       <c r="AI31" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ31" s="4">
         <v>7</v>
@@ -6639,7 +7201,7 @@
         <v>1.8</v>
       </c>
       <c r="AN31" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO31" s="4">
         <v>1</v>
@@ -6652,7 +7214,7 @@
         <v>1.8</v>
       </c>
       <c r="AS31" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT31" s="4">
         <v>1</v>
@@ -6665,7 +7227,7 @@
         <v>1.8</v>
       </c>
       <c r="AX31" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY31" s="4">
         <v>1</v>
@@ -6678,7 +7240,7 @@
         <v>1.8</v>
       </c>
       <c r="BC31" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD31" s="4">
         <v>1</v>
@@ -6691,7 +7253,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="32" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="16.5" spans="1:59">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -6699,10 +7261,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -6729,18 +7291,18 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="8" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="Y32" s="4">
         <v>2000</v>
@@ -6749,10 +7311,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="AC32" s="4">
         <v>1001</v>
@@ -6761,10 +7323,10 @@
         <v>2</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="AG32" s="4">
         <v>2000</v>
@@ -6773,7 +7335,7 @@
         <v>2</v>
       </c>
       <c r="AI32" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ32" s="4">
         <v>7</v>
@@ -6786,7 +7348,7 @@
         <v>1.9</v>
       </c>
       <c r="AN32" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO32" s="4">
         <v>1</v>
@@ -6799,7 +7361,7 @@
         <v>1.9</v>
       </c>
       <c r="AS32" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT32" s="4">
         <v>1</v>
@@ -6812,7 +7374,7 @@
         <v>1.9</v>
       </c>
       <c r="AX32" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY32" s="4">
         <v>1</v>
@@ -6825,7 +7387,7 @@
         <v>1.9</v>
       </c>
       <c r="BC32" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD32" s="4">
         <v>1</v>
@@ -6838,7 +7400,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="33" ht="16.5" spans="1:59">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -6846,10 +7408,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -6876,18 +7438,18 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="9" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="Y33" s="4">
         <v>2000</v>
@@ -6896,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>376</v>
+        <v>414</v>
       </c>
       <c r="AC33" s="4">
         <v>2000</v>
@@ -6908,10 +7470,10 @@
         <v>1</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="AG33" s="4">
         <v>1001</v>
@@ -6920,7 +7482,7 @@
         <v>2</v>
       </c>
       <c r="AI33" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ33" s="4">
         <v>7</v>
@@ -6933,7 +7495,7 @@
         <v>2</v>
       </c>
       <c r="AN33" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO33" s="4">
         <v>1</v>
@@ -6946,7 +7508,7 @@
         <v>2</v>
       </c>
       <c r="AS33" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT33" s="4">
         <v>1</v>
@@ -6959,7 +7521,7 @@
         <v>2</v>
       </c>
       <c r="AX33" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY33" s="4">
         <v>1</v>
@@ -6972,7 +7534,7 @@
         <v>2</v>
       </c>
       <c r="BC33" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD33" s="4">
         <v>1</v>
@@ -6985,7 +7547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="34" ht="16.5" spans="1:59">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -6993,10 +7555,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -7011,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="I34" s="4">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -7023,18 +7585,18 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="7" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="Y34" s="4">
         <v>2000</v>
@@ -7043,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="AC34" s="4">
         <v>2000</v>
@@ -7055,10 +7617,10 @@
         <v>1</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="AG34" s="4">
         <v>2000</v>
@@ -7067,7 +7629,7 @@
         <v>2</v>
       </c>
       <c r="AI34" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AJ34" s="4">
         <v>7</v>
@@ -7080,7 +7642,7 @@
         <v>2.25</v>
       </c>
       <c r="AN34" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AO34" s="4">
         <v>1</v>
@@ -7093,7 +7655,7 @@
         <v>2.25</v>
       </c>
       <c r="AS34" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AT34" s="4">
         <v>1</v>
@@ -7106,7 +7668,7 @@
         <v>2.25</v>
       </c>
       <c r="AX34" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AY34" s="4">
         <v>1</v>
@@ -7119,7 +7681,7 @@
         <v>2.25</v>
       </c>
       <c r="BC34" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="BD34" s="4">
         <v>1</v>
@@ -7132,12 +7694,12 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="36" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="AD36" s="12"/>
+    <row r="36" ht="16.5" spans="30:30">
+      <c r="AD36" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C3BD90-CDC0-41CF-8212-041D35A2A7A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16935" windowHeight="10800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16935" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="426">
   <si>
     <t>sheet名</t>
   </si>
@@ -235,6 +241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,6 +252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,6 +263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1327,14 +1336,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,12 +1350,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1360,153 +1365,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1514,35 +1400,16 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1550,11 +1417,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1569,193 +1444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,24 +1462,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1808,104 +1497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1917,295 +1508,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="33" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
-      <color rgb="00000000"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2463,19 +1866,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -2486,7 +1889,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2509,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2532,26 +1935,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA6" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
@@ -2588,7 +1990,7 @@
     <col min="35" max="59" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:59">
+    <row r="1" spans="1:59" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2767,7 +2169,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2946,7 +2348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:59">
+    <row r="3" spans="1:59" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
@@ -3125,7 +2527,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:59">
+    <row r="4" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3192,7 +2594,7 @@
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
     </row>
-    <row r="5" ht="16.5" spans="1:59">
+    <row r="5" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3331,7 +2733,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:59">
+    <row r="6" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3476,7 +2878,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:59">
+    <row r="7" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3566,7 +2968,7 @@
       </c>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN7" s="4" t="s">
         <v>147</v>
@@ -3579,7 +2981,7 @@
       </c>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS7" s="4" t="s">
         <v>148</v>
@@ -3592,7 +2994,7 @@
       </c>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AX7" s="4" t="s">
         <v>149</v>
@@ -3605,7 +3007,7 @@
       </c>
       <c r="BA7" s="4"/>
       <c r="BB7" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="BC7" s="4" t="s">
         <v>150</v>
@@ -3618,10 +3020,10 @@
       </c>
       <c r="BF7" s="4"/>
       <c r="BG7" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:59">
+    <row r="8" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3774,7 +3176,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:59">
+    <row r="9" spans="1:59" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3925,7 +3327,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:59">
+    <row r="10" spans="1:59" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -4076,7 +3478,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:59">
+    <row r="11" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -4229,7 +3631,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:59">
+    <row r="12" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -4255,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>4404.9</v>
+        <v>4404.8999999999996</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>206</v>
@@ -4382,7 +3784,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:59">
+    <row r="13" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -4535,7 +3937,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:59">
+    <row r="14" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -4688,7 +4090,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:59">
+    <row r="15" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -4786,7 +4188,7 @@
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AN15" s="4" t="s">
         <v>147</v>
@@ -4799,7 +4201,7 @@
       </c>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AS15" s="4" t="s">
         <v>148</v>
@@ -4812,7 +4214,7 @@
       </c>
       <c r="AV15" s="4"/>
       <c r="AW15" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AX15" s="4" t="s">
         <v>149</v>
@@ -4825,7 +4227,7 @@
       </c>
       <c r="BA15" s="4"/>
       <c r="BB15" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BC15" s="4" t="s">
         <v>150</v>
@@ -4838,10 +4240,10 @@
       </c>
       <c r="BF15" s="4"/>
       <c r="BG15" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:59">
+    <row r="16" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -4994,7 +4396,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:59">
+    <row r="17" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -5147,7 +4549,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:59">
+    <row r="18" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -5173,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="4">
-        <v>148.8</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>266</v>
@@ -5300,7 +4702,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:59">
+    <row r="19" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -5453,7 +4855,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:59">
+    <row r="20" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -5606,7 +5008,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:59">
+    <row r="21" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -5759,7 +5161,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:59">
+    <row r="22" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -5785,7 +5187,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="4">
-        <v>1199.9</v>
+        <v>1199.9000000000001</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>306</v>
@@ -5912,7 +5314,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:59">
+    <row r="23" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -6065,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:59">
+    <row r="24" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -6163,7 +5565,7 @@
       </c>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN24" s="4" t="s">
         <v>147</v>
@@ -6176,7 +5578,7 @@
       </c>
       <c r="AQ24" s="4"/>
       <c r="AR24" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS24" s="4" t="s">
         <v>148</v>
@@ -6189,7 +5591,7 @@
       </c>
       <c r="AV24" s="4"/>
       <c r="AW24" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX24" s="4" t="s">
         <v>149</v>
@@ -6202,7 +5604,7 @@
       </c>
       <c r="BA24" s="4"/>
       <c r="BB24" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC24" s="4" t="s">
         <v>150</v>
@@ -6215,10 +5617,10 @@
       </c>
       <c r="BF24" s="4"/>
       <c r="BG24" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:59">
+    <row r="25" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -6371,7 +5773,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:59">
+    <row r="26" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -6518,7 +5920,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:59">
+    <row r="27" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -6665,7 +6067,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:59">
+    <row r="28" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -6691,7 +6093,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="4">
-        <v>4625.1</v>
+        <v>4625.1000000000004</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -6812,7 +6214,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:59">
+    <row r="29" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -6959,7 +6361,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:59">
+    <row r="30" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -7106,7 +6508,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:59">
+    <row r="31" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -7132,7 +6534,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -7253,7 +6655,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:59">
+    <row r="32" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -7400,7 +6802,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:59">
+    <row r="33" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -7547,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:59">
+    <row r="34" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -7573,7 +6975,7 @@
         <v>3</v>
       </c>
       <c r="I34" s="4">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -7694,12 +7096,12 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="30:30">
+    <row r="36" spans="1:59" ht="16.5" x14ac:dyDescent="0.2">
       <c r="AD36" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C3BD90-CDC0-41CF-8212-041D35A2A7A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97C6D50-7118-4DCD-93A6-78A0A21614B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16935" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="军阶" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -544,12 +544,6 @@
     <t>通关第3章</t>
   </si>
   <si>
-    <t>装备单抽1</t>
-  </si>
-  <si>
-    <t>进行一次装备抽</t>
-  </si>
-  <si>
     <t>花费金币1M</t>
   </si>
   <si>
@@ -754,12 +748,6 @@
     <t>主舰和辅炮进阶达到5代</t>
   </si>
   <si>
-    <t>装备5连抽3</t>
-  </si>
-  <si>
-    <t>进行3次装备5连抽</t>
-  </si>
-  <si>
     <t>二级准尉</t>
   </si>
   <si>
@@ -784,12 +772,6 @@
     <t>主舰强化到180</t>
   </si>
   <si>
-    <t>符文5连抽3</t>
-  </si>
-  <si>
-    <t>进行3次符文5连抽</t>
-  </si>
-  <si>
     <t>三级准尉</t>
   </si>
   <si>
@@ -1331,6 +1313,30 @@
   </si>
   <si>
     <t>装备全体精炼+120</t>
+  </si>
+  <si>
+    <t>装备单抽15次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备抽奖15次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文单抽20次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文抽奖20次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备单抽2次</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行2次装备抽</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1949,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2930,10 +2936,10 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4" t="s">
-        <v>163</v>
+        <v>424</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>164</v>
+        <v>425</v>
       </c>
       <c r="Y7" s="4">
         <v>6000</v>
@@ -2942,10 +2948,10 @@
         <v>2</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AC7" s="4">
         <v>2000</v>
@@ -3031,7 +3037,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>152</v>
@@ -3052,7 +3058,7 @@
         <v>329.4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -3067,18 +3073,18 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Y8" s="4">
         <v>1000</v>
@@ -3087,10 +3093,10 @@
         <v>3</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AC8" s="4">
         <v>1001</v>
@@ -3099,10 +3105,10 @@
         <v>1</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG8" s="4">
         <v>1000</v>
@@ -3184,7 +3190,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>152</v>
@@ -3205,7 +3211,7 @@
         <v>487.8</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -3220,18 +3226,18 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y9" s="10">
         <v>2000</v>
@@ -3240,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AC9" s="4">
         <v>1000</v>
@@ -3252,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG9" s="4">
         <v>3000</v>
@@ -3335,7 +3341,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>152</v>
@@ -3356,7 +3362,7 @@
         <v>675.5</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -3371,28 +3377,28 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Y10" s="4">
         <v>3000</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AC10" s="4">
         <v>2000</v>
@@ -3401,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="AE10" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG10" s="4">
         <v>1000</v>
@@ -3486,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>152</v>
@@ -3507,7 +3513,7 @@
         <v>2067.6</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -3522,18 +3528,18 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Y11" s="4">
         <v>2000</v>
@@ -3542,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AC11" s="4">
         <v>1002</v>
@@ -3554,10 +3560,10 @@
         <v>1</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG11" s="4">
         <v>2000</v>
@@ -3639,7 +3645,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>152</v>
@@ -3660,7 +3666,7 @@
         <v>4404.8999999999996</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -3675,18 +3681,18 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Y12" s="4">
         <v>2000</v>
@@ -3695,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AC12" s="4">
         <v>1002</v>
@@ -3707,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG12" s="4">
         <v>1001</v>
@@ -3792,7 +3798,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>152</v>
@@ -3813,7 +3819,7 @@
         <v>7795.3</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -3828,18 +3834,18 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Y13" s="4">
         <v>2000</v>
@@ -3848,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC13" s="4">
         <v>1001</v>
@@ -3860,10 +3866,10 @@
         <v>1</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG13" s="4">
         <v>2000</v>
@@ -3945,7 +3951,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>152</v>
@@ -3966,7 +3972,7 @@
         <v>21.7</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -3981,18 +3987,18 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Y14" s="4">
         <v>2000</v>
@@ -4001,10 +4007,10 @@
         <v>0</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AC14" s="4">
         <v>1002</v>
@@ -4013,10 +4019,10 @@
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>233</v>
+        <v>420</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="AG14" s="4">
         <v>6000</v>
@@ -4098,7 +4104,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>152</v>
@@ -4119,7 +4125,7 @@
         <v>42.8</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -4134,18 +4140,18 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Y15" s="4">
         <v>2000</v>
@@ -4154,10 +4160,10 @@
         <v>0</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AC15" s="4">
         <v>1000</v>
@@ -4166,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>243</v>
+        <v>422</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>244</v>
+        <v>423</v>
       </c>
       <c r="AG15" s="4">
         <v>6000</v>
@@ -4251,7 +4257,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>152</v>
@@ -4272,7 +4278,7 @@
         <v>48.3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -4287,18 +4293,18 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Y16" s="4">
         <v>2000</v>
@@ -4307,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AC16" s="4">
         <v>1002</v>
@@ -4319,10 +4325,10 @@
         <v>1</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AG16" s="4">
         <v>2000</v>
@@ -4404,7 +4410,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>152</v>
@@ -4425,7 +4431,7 @@
         <v>64.5</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -4440,18 +4446,18 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="8" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Y17" s="4">
         <v>2000</v>
@@ -4460,10 +4466,10 @@
         <v>0</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AC17" s="4">
         <v>1001</v>
@@ -4472,10 +4478,10 @@
         <v>1</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AG17" s="4">
         <v>1001</v>
@@ -4557,7 +4563,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>152</v>
@@ -4578,7 +4584,7 @@
         <v>148.80000000000001</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -4593,18 +4599,18 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Y18" s="4">
         <v>2000</v>
@@ -4613,10 +4619,10 @@
         <v>0</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="AC18" s="4">
         <v>1002</v>
@@ -4625,10 +4631,10 @@
         <v>1</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AG18" s="4">
         <v>2000</v>
@@ -4710,7 +4716,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>152</v>
@@ -4731,7 +4737,7 @@
         <v>250.2</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -4746,18 +4752,18 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Y19" s="4">
         <v>2000</v>
@@ -4766,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AC19" s="4">
         <v>1002</v>
@@ -4778,10 +4784,10 @@
         <v>1</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AG19" s="4">
         <v>2000</v>
@@ -4863,7 +4869,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>152</v>
@@ -4884,7 +4890,7 @@
         <v>223.4</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -4899,18 +4905,18 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Y20" s="4">
         <v>2000</v>
@@ -4919,10 +4925,10 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AC20" s="4">
         <v>1000</v>
@@ -4931,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AG20" s="4">
         <v>1001</v>
@@ -5016,7 +5022,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>152</v>
@@ -5037,7 +5043,7 @@
         <v>893.8</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -5052,18 +5058,18 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="8" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Y21" s="4">
         <v>2000</v>
@@ -5072,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AC21" s="4">
         <v>1002</v>
@@ -5084,10 +5090,10 @@
         <v>1</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AG21" s="4">
         <v>2000</v>
@@ -5169,7 +5175,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>152</v>
@@ -5190,7 +5196,7 @@
         <v>1199.9000000000001</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -5205,18 +5211,18 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="8" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y22" s="4">
         <v>2000</v>
@@ -5225,10 +5231,10 @@
         <v>0</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AC22" s="4">
         <v>1000</v>
@@ -5237,10 +5243,10 @@
         <v>1</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AG22" s="4">
         <v>2000</v>
@@ -5322,7 +5328,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>152</v>
@@ -5343,7 +5349,7 @@
         <v>1842.5</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -5358,18 +5364,18 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Y23" s="4">
         <v>2000</v>
@@ -5378,10 +5384,10 @@
         <v>0</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AC23" s="4">
         <v>1002</v>
@@ -5390,10 +5396,10 @@
         <v>1</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AG23" s="4">
         <v>1001</v>
@@ -5475,7 +5481,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>152</v>
@@ -5496,7 +5502,7 @@
         <v>2295.6</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -5511,18 +5517,18 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="8" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Y24" s="4">
         <v>2000</v>
@@ -5531,10 +5537,10 @@
         <v>0</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AC24" s="4">
         <v>1000</v>
@@ -5543,10 +5549,10 @@
         <v>1</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AG24" s="4">
         <v>2000</v>
@@ -5628,7 +5634,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>152</v>
@@ -5649,7 +5655,7 @@
         <v>2692.7</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -5664,18 +5670,18 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="8" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Y25" s="4">
         <v>2000</v>
@@ -5684,10 +5690,10 @@
         <v>0</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AC25" s="4">
         <v>1002</v>
@@ -5696,10 +5702,10 @@
         <v>1</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AG25" s="4">
         <v>2000</v>
@@ -5781,7 +5787,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>152</v>
@@ -5811,18 +5817,18 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Y26" s="4">
         <v>2000</v>
@@ -5831,10 +5837,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AC26" s="4">
         <v>1000</v>
@@ -5843,10 +5849,10 @@
         <v>1</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AG26" s="4">
         <v>1001</v>
@@ -5928,7 +5934,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>152</v>
@@ -5958,18 +5964,18 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Y27" s="4">
         <v>2000</v>
@@ -5978,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AC27" s="4">
         <v>1002</v>
@@ -5990,10 +5996,10 @@
         <v>1</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AG27" s="4">
         <v>2000</v>
@@ -6075,7 +6081,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>152</v>
@@ -6105,18 +6111,18 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="8" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Y28" s="4">
         <v>2000</v>
@@ -6125,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AC28" s="4">
         <v>1000</v>
@@ -6137,10 +6143,10 @@
         <v>1</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AG28" s="4">
         <v>2000</v>
@@ -6222,7 +6228,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>152</v>
@@ -6252,18 +6258,18 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Y29" s="4">
         <v>2000</v>
@@ -6272,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AC29" s="4">
         <v>1002</v>
@@ -6284,10 +6290,10 @@
         <v>1</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="AG29" s="4">
         <v>1001</v>
@@ -6369,7 +6375,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>152</v>
@@ -6399,18 +6405,18 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="8" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="Y30" s="4">
         <v>2000</v>
@@ -6419,10 +6425,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AC30" s="4">
         <v>1000</v>
@@ -6431,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AG30" s="4">
         <v>2000</v>
@@ -6516,7 +6522,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>152</v>
@@ -6546,18 +6552,18 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="9" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="Y31" s="4">
         <v>2000</v>
@@ -6566,10 +6572,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AC31" s="4">
         <v>1001</v>
@@ -6578,10 +6584,10 @@
         <v>2</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AG31" s="4">
         <v>2000</v>
@@ -6663,7 +6669,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>152</v>
@@ -6693,18 +6699,18 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="8" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Y32" s="4">
         <v>2000</v>
@@ -6713,10 +6719,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="AC32" s="4">
         <v>1001</v>
@@ -6725,10 +6731,10 @@
         <v>2</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AG32" s="4">
         <v>2000</v>
@@ -6810,7 +6816,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>152</v>
@@ -6840,18 +6846,18 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="9" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Y33" s="4">
         <v>2000</v>
@@ -6860,10 +6866,10 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AC33" s="4">
         <v>2000</v>
@@ -6872,10 +6878,10 @@
         <v>1</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AG33" s="4">
         <v>1001</v>
@@ -6957,7 +6963,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>152</v>
@@ -6987,18 +6993,18 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Y34" s="4">
         <v>2000</v>
@@ -7007,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AC34" s="4">
         <v>2000</v>
@@ -7019,10 +7025,10 @@
         <v>1</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AG34" s="4">
         <v>2000</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97C6D50-7118-4DCD-93A6-78A0A21614B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4C0584-AD1C-4ADC-92D8-C3B6F6174D01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16935" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="427">
   <si>
     <t>sheet名</t>
   </si>
@@ -478,19 +478,19 @@
     <t>主舰10级</t>
   </si>
   <si>
-    <t>主舰升级到10级</t>
+    <t>主舰升级至10级</t>
   </si>
   <si>
     <t>主舰1突</t>
   </si>
   <si>
-    <t>主舰突破1级</t>
+    <t>主舰进阶1次</t>
   </si>
   <si>
     <t>武器1阶</t>
   </si>
   <si>
-    <t>火控系统装置到达1阶</t>
+    <t>火力装置达到1阶</t>
   </si>
   <si>
     <t>atk</t>
@@ -526,10 +526,13 @@
     <t>导弹炮1突</t>
   </si>
   <si>
+    <t>导弹炮进阶1次</t>
+  </si>
+  <si>
     <t>主舰20级</t>
   </si>
   <si>
-    <t>主舰升级到20级</t>
+    <t>主舰升级至20级</t>
   </si>
   <si>
     <t>下士</t>
@@ -544,6 +547,12 @@
     <t>通关第3章</t>
   </si>
   <si>
+    <t>装备单抽2次</t>
+  </si>
+  <si>
+    <t>进行2次装置抽取</t>
+  </si>
+  <si>
     <t>花费金币1M</t>
   </si>
   <si>
@@ -562,19 +571,19 @@
     <t>主舰核能1</t>
   </si>
   <si>
-    <t>核能到1级</t>
+    <t>主舰核能达到1级</t>
   </si>
   <si>
     <t>导弹炮2突</t>
   </si>
   <si>
-    <t>导弹炮进阶达到2代</t>
+    <t>导弹炮进阶至2代</t>
   </si>
   <si>
     <t>主舰40级</t>
   </si>
   <si>
-    <t>主舰升级到40级</t>
+    <t>主舰升级至40级</t>
   </si>
   <si>
     <t>参谋军士</t>
@@ -649,19 +658,19 @@
     <t>装备全体强化+80</t>
   </si>
   <si>
-    <t>装备强化到80</t>
+    <t>全部装置强化到80</t>
   </si>
   <si>
     <t>激光炮80级</t>
   </si>
   <si>
-    <t>激光炮强化到80</t>
+    <t>激光炮升级至80级</t>
   </si>
   <si>
     <t>精炼10级</t>
   </si>
   <si>
-    <t>把一个装置精炼到10级</t>
+    <t>将一件装置精炼至10级</t>
   </si>
   <si>
     <t>二级士官</t>
@@ -679,19 +688,19 @@
     <t>装备全体强化+100</t>
   </si>
   <si>
-    <t>装备强化到100</t>
+    <t>全部装置强化到100</t>
   </si>
   <si>
     <t>突破大师4</t>
   </si>
   <si>
-    <t>主舰和辅炮进阶达到4代</t>
+    <t>主舰和辅炮全部进阶至4代</t>
   </si>
   <si>
     <t>核能大师2</t>
   </si>
   <si>
-    <t>核能全体2级</t>
+    <t>核能全体达到2级</t>
   </si>
   <si>
     <t>三级士官</t>
@@ -709,19 +718,19 @@
     <t>装备全体强化+120</t>
   </si>
   <si>
-    <t>装备强化到120</t>
+    <t>全部装置强化到120</t>
   </si>
   <si>
     <t>导弹炮120级</t>
   </si>
   <si>
-    <t>导弹炮强化到120</t>
+    <t>导弹炮升级至120级</t>
   </si>
   <si>
     <t>装备进阶大师2</t>
   </si>
   <si>
-    <t>装备全体2阶以上</t>
+    <t>装置全体2阶以上</t>
   </si>
   <si>
     <t>一级准尉</t>
@@ -739,13 +748,19 @@
     <t>装备全体强化+150</t>
   </si>
   <si>
-    <t>装备强化到150</t>
+    <t>全部装置强化到150</t>
   </si>
   <si>
     <t>突破大师5</t>
   </si>
   <si>
-    <t>主舰和辅炮进阶达到5代</t>
+    <t>主舰和辅炮全部进阶至5代</t>
+  </si>
+  <si>
+    <t>装备单抽15次</t>
+  </si>
+  <si>
+    <t>装置抽取15次</t>
   </si>
   <si>
     <t>二级准尉</t>
@@ -763,13 +778,19 @@
     <t>装备全体强化+180</t>
   </si>
   <si>
-    <t>装备强化到180</t>
+    <t>全部装置强化到180</t>
   </si>
   <si>
     <t>主舰180级</t>
   </si>
   <si>
-    <t>主舰强化到180</t>
+    <t>主舰升级至180级</t>
+  </si>
+  <si>
+    <t>符文单抽20次</t>
+  </si>
+  <si>
+    <t>晶片抽取20次</t>
   </si>
   <si>
     <t>三级准尉</t>
@@ -787,19 +808,19 @@
     <t>装备全体强化+200</t>
   </si>
   <si>
-    <t>装备强化到200</t>
+    <t>全部装置强化到200</t>
   </si>
   <si>
     <t>突破大师6</t>
   </si>
   <si>
-    <t>主舰和辅炮进阶达到6代</t>
+    <t>主舰和辅炮全部进阶至6代</t>
   </si>
   <si>
     <t>精炼30级</t>
   </si>
   <si>
-    <t>把一个装置精炼到30级</t>
+    <t>将一件装置精炼至30级</t>
   </si>
   <si>
     <t>四级准尉</t>
@@ -817,19 +838,19 @@
     <t>装备全体强化+220</t>
   </si>
   <si>
-    <t>装备强化到220</t>
+    <t>全部装置强化到220</t>
   </si>
   <si>
     <t>导弹炮220级</t>
   </si>
   <si>
-    <t>导弹炮强化到220</t>
+    <t>导弹炮升级至220级</t>
   </si>
   <si>
     <t>核能大师3</t>
   </si>
   <si>
-    <t>核能全体3级</t>
+    <t>核能全体达到3级</t>
   </si>
   <si>
     <t>五级准尉</t>
@@ -847,19 +868,19 @@
     <t>装备全体强化+250</t>
   </si>
   <si>
-    <t>装备强化到250</t>
+    <t>全部装置强化到250</t>
   </si>
   <si>
     <t>激光炮250级</t>
   </si>
   <si>
-    <t>激光炮强化到250</t>
+    <t>激光炮升级至250级</t>
   </si>
   <si>
     <t>装备进阶大师4</t>
   </si>
   <si>
-    <t>装备全体4阶以上</t>
+    <t>装置全体4阶以上</t>
   </si>
   <si>
     <t>少尉</t>
@@ -877,19 +898,19 @@
     <t>装备全体强化+280</t>
   </si>
   <si>
-    <t>装备强化到280</t>
+    <t>全部装置强化到280</t>
   </si>
   <si>
     <t>突破大师7</t>
   </si>
   <si>
-    <t>主舰和辅炮进阶达到7代</t>
+    <t>主舰和辅炮全部进阶至7代</t>
   </si>
   <si>
     <t>精炼60级</t>
   </si>
   <si>
-    <t>把一个装置精炼到60级</t>
+    <t>将一件装置精炼至60级</t>
   </si>
   <si>
     <t>中尉</t>
@@ -907,13 +928,13 @@
     <t>装备全体强化+300</t>
   </si>
   <si>
-    <t>装备强化到300</t>
+    <t>全部装置强化到300</t>
   </si>
   <si>
     <t>全体300级</t>
   </si>
   <si>
-    <t>全体强化到300</t>
+    <t>全体升级至300级</t>
   </si>
   <si>
     <t>核能大师4</t>
@@ -937,19 +958,19 @@
     <t>装备全体强化+350</t>
   </si>
   <si>
-    <t>装备强化到350</t>
+    <t>全部装置强化到350</t>
   </si>
   <si>
     <t>突破大师8</t>
   </si>
   <si>
-    <t>主舰和辅炮进阶达到8代</t>
+    <t>主舰和辅炮全部进阶至8代</t>
   </si>
   <si>
     <t>装备进阶大师6</t>
   </si>
   <si>
-    <t>装备全体6阶以上</t>
+    <t>装置全体6阶以上</t>
   </si>
   <si>
     <t>少校</t>
@@ -967,19 +988,19 @@
     <t>装备全体强化+400</t>
   </si>
   <si>
-    <t>装备强化到400</t>
+    <t>全部装置强化到400</t>
   </si>
   <si>
     <t>全体400级</t>
   </si>
   <si>
-    <t>全体强化到400</t>
+    <t>全体升级至400级</t>
   </si>
   <si>
     <t>精炼大师30</t>
   </si>
   <si>
-    <t>装备全体精炼+60</t>
+    <t>装置全体精炼至60级</t>
   </si>
   <si>
     <t>中校</t>
@@ -997,13 +1018,13 @@
     <t>装备全体强化+450</t>
   </si>
   <si>
-    <t>装备强化到450</t>
+    <t>全部装置强化到450</t>
   </si>
   <si>
     <t>突破大师9</t>
   </si>
   <si>
-    <t>主舰和辅炮进阶达到9代</t>
+    <t>主舰和辅炮全部进阶至9代</t>
   </si>
   <si>
     <t>核能大师6</t>
@@ -1027,19 +1048,19 @@
     <t>装备全体强化+500</t>
   </si>
   <si>
-    <t>装备强化到500</t>
+    <t>全部装置强化到500</t>
   </si>
   <si>
     <t>全体500级</t>
   </si>
   <si>
-    <t>全体强化到500</t>
+    <t>全体升级至500级</t>
   </si>
   <si>
     <t>装备进阶大师7</t>
   </si>
   <si>
-    <t>装备全体7阶以上</t>
+    <t>装置全体7阶以上</t>
   </si>
   <si>
     <t>准将</t>
@@ -1057,19 +1078,19 @@
     <t>装备全体强化+550</t>
   </si>
   <si>
-    <t>装备强化到550</t>
+    <t>全部装置强化到550</t>
   </si>
   <si>
     <t>突破大师10</t>
   </si>
   <si>
-    <t>主舰和辅炮进阶达到10代</t>
+    <t>主舰和辅炮全部进阶至10代</t>
   </si>
   <si>
     <t>精炼大师35</t>
   </si>
   <si>
-    <t>装备全体精炼+70</t>
+    <t>装置全体精炼至70级</t>
   </si>
   <si>
     <t>少将</t>
@@ -1084,13 +1105,13 @@
     <t>装备全体强化+600</t>
   </si>
   <si>
-    <t>装备强化到600</t>
+    <t>全部装置强化到600</t>
   </si>
   <si>
     <t>全体600级</t>
   </si>
   <si>
-    <t>全体强化到600</t>
+    <t>全体升级至600级</t>
   </si>
   <si>
     <t>核能大师7</t>
@@ -1111,19 +1132,19 @@
     <t>装备全体强化+650</t>
   </si>
   <si>
-    <t>装备强化到650</t>
+    <t>全部装置强化到650</t>
   </si>
   <si>
     <t>突破大师11</t>
   </si>
   <si>
-    <t>主舰和辅炮进阶达到11代</t>
+    <t>主舰和辅炮全部进阶至11代</t>
   </si>
   <si>
     <t>装备进阶大师8</t>
   </si>
   <si>
-    <t>装备全体8阶以上</t>
+    <t>装置全体8阶以上</t>
   </si>
   <si>
     <t>上将</t>
@@ -1138,19 +1159,19 @@
     <t>装备全体强化+700</t>
   </si>
   <si>
-    <t>装备强化到700</t>
+    <t>全部装置强化到700</t>
   </si>
   <si>
     <t>全体700级</t>
   </si>
   <si>
-    <t>全体强化到700</t>
+    <t>全体升级至700级</t>
   </si>
   <si>
     <t>精炼大师40</t>
   </si>
   <si>
-    <t>装备全体精炼+80</t>
+    <t>装置全体精炼至80级</t>
   </si>
   <si>
     <t>元帅</t>
@@ -1165,13 +1186,13 @@
     <t>装备全体强化+750</t>
   </si>
   <si>
-    <t>装备强化到750</t>
+    <t>全部装置强化到750</t>
   </si>
   <si>
     <t>突破大师12</t>
   </si>
   <si>
-    <t>主舰和辅炮进阶达到12代</t>
+    <t>主舰和辅炮全部进阶至12代</t>
   </si>
   <si>
     <t>核能大师8</t>
@@ -1192,19 +1213,19 @@
     <t>装备全体强化+800</t>
   </si>
   <si>
-    <t>装备强化到800</t>
+    <t>全部装置强化到800</t>
   </si>
   <si>
     <t>全体800级</t>
   </si>
   <si>
-    <t>全体强化到800</t>
+    <t>全体升级至800级</t>
   </si>
   <si>
     <t>装备进阶大师9</t>
   </si>
   <si>
-    <t>装备全体9阶以上</t>
+    <t>装置全体9阶以上</t>
   </si>
   <si>
     <t>二星元帅</t>
@@ -1219,7 +1240,7 @@
     <t>装备全体强化+850</t>
   </si>
   <si>
-    <t>装备强化到850</t>
+    <t>全部装置强化到850</t>
   </si>
   <si>
     <t>核能大师9</t>
@@ -1231,7 +1252,7 @@
     <t>精炼大师45</t>
   </si>
   <si>
-    <t>装备全体精炼+90</t>
+    <t>装置全体精炼至90级</t>
   </si>
   <si>
     <t>三星元帅</t>
@@ -1246,7 +1267,7 @@
     <t>装备全体强化+900</t>
   </si>
   <si>
-    <t>装备强化到900</t>
+    <t>全部装置强化到900</t>
   </si>
   <si>
     <t>核能大师10</t>
@@ -1258,7 +1279,7 @@
     <t>精炼大师50</t>
   </si>
   <si>
-    <t>装备全体精炼+100</t>
+    <t>装置全体精炼至100级</t>
   </si>
   <si>
     <t>四星元帅</t>
@@ -1273,13 +1294,13 @@
     <t>装备全体强化+950</t>
   </si>
   <si>
-    <t>装备强化到950</t>
+    <t>全部装置强化到950</t>
   </si>
   <si>
     <t>装备进阶大师11</t>
   </si>
   <si>
-    <t>装备全体11阶以上</t>
+    <t>装置全体11阶以上</t>
   </si>
   <si>
     <t>核能大师12</t>
@@ -1300,43 +1321,19 @@
     <t>装备全体强化+1000</t>
   </si>
   <si>
-    <t>装备强化到1000</t>
+    <t>全部装置强化到1000</t>
   </si>
   <si>
     <t>装备进阶大师12</t>
   </si>
   <si>
-    <t>装备全体12阶以上</t>
+    <t>装置全体12阶以上</t>
   </si>
   <si>
     <t>精炼大师60</t>
   </si>
   <si>
-    <t>装备全体精炼+120</t>
-  </si>
-  <si>
-    <t>装备单抽15次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备抽奖15次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>符文单抽20次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>符文抽奖20次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备单抽2次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行2次装备抽</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>装置全体精炼至120级</t>
   </si>
 </sst>
 </file>
@@ -1394,14 +1391,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -1412,6 +1401,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -1450,25 +1447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,30 +1513,30 @@
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -1955,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1982,7 +1979,8 @@
     <col min="20" max="20" width="20.875" customWidth="1"/>
     <col min="21" max="21" width="22.375" customWidth="1"/>
     <col min="22" max="22" width="26.625" customWidth="1"/>
-    <col min="23" max="24" width="18.125" customWidth="1"/>
+    <col min="23" max="23" width="18.125" customWidth="1"/>
+    <col min="24" max="24" width="20.25" customWidth="1"/>
     <col min="25" max="25" width="22.375" customWidth="1"/>
     <col min="26" max="26" width="26.625" customWidth="1"/>
     <col min="27" max="27" width="25" customWidth="1"/>
@@ -2626,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -2765,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <v>130.5</v>
+        <v>45</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>153</v>
@@ -2794,7 +2792,7 @@
         <v>156</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y6" s="4">
         <v>1001</v>
@@ -2803,10 +2801,10 @@
         <v>1</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AC6" s="4">
         <v>1000</v>
@@ -2892,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>152</v>
@@ -2910,10 +2908,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>205.1</v>
+        <v>65</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -2928,18 +2926,18 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4" t="s">
-        <v>424</v>
+        <v>164</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>425</v>
+        <v>165</v>
       </c>
       <c r="Y7" s="4">
         <v>6000</v>
@@ -2948,10 +2946,10 @@
         <v>2</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AC7" s="4">
         <v>2000</v>
@@ -3037,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>152</v>
@@ -3055,10 +3053,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>329.4</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
@@ -3073,18 +3071,18 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y8" s="4">
         <v>1000</v>
@@ -3093,10 +3091,10 @@
         <v>3</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AC8" s="4">
         <v>1001</v>
@@ -3105,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AG8" s="4">
         <v>1000</v>
@@ -3190,7 +3188,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>152</v>
@@ -3208,10 +3206,10 @@
         <v>1</v>
       </c>
       <c r="I9" s="4">
-        <v>487.8</v>
+        <v>110.8</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -3226,18 +3224,18 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Y9" s="10">
         <v>2000</v>
@@ -3246,10 +3244,10 @@
         <v>1</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AC9" s="4">
         <v>1000</v>
@@ -3258,10 +3256,10 @@
         <v>1</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AG9" s="4">
         <v>3000</v>
@@ -3341,7 +3339,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>152</v>
@@ -3359,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>675.5</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
@@ -3377,28 +3375,28 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y10" s="4">
         <v>3000</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AC10" s="4">
         <v>2000</v>
@@ -3407,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="AE10" s="12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG10" s="4">
         <v>1000</v>
@@ -3492,7 +3490,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>152</v>
@@ -3510,10 +3508,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>2067.6</v>
+        <v>361</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -3528,18 +3526,18 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Y11" s="4">
         <v>2000</v>
@@ -3548,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AC11" s="4">
         <v>1002</v>
@@ -3560,10 +3558,10 @@
         <v>1</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG11" s="4">
         <v>2000</v>
@@ -3645,7 +3643,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>152</v>
@@ -3663,10 +3661,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>4404.8999999999996</v>
+        <v>863.3</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -3681,18 +3679,18 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Y12" s="4">
         <v>2000</v>
@@ -3701,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AC12" s="4">
         <v>1002</v>
@@ -3713,10 +3711,10 @@
         <v>1</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AG12" s="4">
         <v>1001</v>
@@ -3798,7 +3796,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>152</v>
@@ -3816,10 +3814,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="4">
-        <v>7795.3</v>
+        <v>1375.8</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -3834,18 +3832,18 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y13" s="4">
         <v>2000</v>
@@ -3854,10 +3852,10 @@
         <v>0</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AC13" s="4">
         <v>1001</v>
@@ -3866,10 +3864,10 @@
         <v>1</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AG13" s="4">
         <v>2000</v>
@@ -3951,7 +3949,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>152</v>
@@ -3966,13 +3964,13 @@
         <v>139</v>
       </c>
       <c r="H14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4">
-        <v>21.7</v>
+        <v>3965.1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -3987,18 +3985,18 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Y14" s="4">
         <v>2000</v>
@@ -4007,10 +4005,10 @@
         <v>0</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AC14" s="4">
         <v>1002</v>
@@ -4019,10 +4017,10 @@
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>420</v>
+        <v>234</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="AG14" s="4">
         <v>6000</v>
@@ -4104,7 +4102,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>152</v>
@@ -4119,13 +4117,13 @@
         <v>139</v>
       </c>
       <c r="H15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4">
-        <v>42.8</v>
+        <v>7952.8</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -4140,18 +4138,18 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Y15" s="4">
         <v>2000</v>
@@ -4160,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AB15" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AC15" s="4">
         <v>1000</v>
@@ -4172,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>422</v>
+        <v>244</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>423</v>
+        <v>245</v>
       </c>
       <c r="AG15" s="4">
         <v>6000</v>
@@ -4257,7 +4255,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>152</v>
@@ -4272,13 +4270,13 @@
         <v>139</v>
       </c>
       <c r="H16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
-        <v>48.3</v>
+        <v>9244.2000000000007</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -4293,18 +4291,18 @@
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
       <c r="S16" s="4" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Y16" s="4">
         <v>2000</v>
@@ -4313,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="AC16" s="4">
         <v>1002</v>
@@ -4325,10 +4323,10 @@
         <v>1</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AG16" s="4">
         <v>2000</v>
@@ -4410,7 +4408,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>152</v>
@@ -4428,10 +4426,10 @@
         <v>2</v>
       </c>
       <c r="I17" s="4">
-        <v>64.5</v>
+        <v>14.3</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -4446,18 +4444,18 @@
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="8" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Y17" s="4">
         <v>2000</v>
@@ -4466,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AB17" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AC17" s="4">
         <v>1001</v>
@@ -4478,10 +4476,10 @@
         <v>1</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AG17" s="4">
         <v>1001</v>
@@ -4563,7 +4561,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>152</v>
@@ -4581,10 +4579,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="4">
-        <v>148.80000000000001</v>
+        <v>45.1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -4599,18 +4597,18 @@
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Y18" s="4">
         <v>2000</v>
@@ -4619,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="AA18" s="9" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="AB18" s="4" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AC18" s="4">
         <v>1002</v>
@@ -4631,10 +4629,10 @@
         <v>1</v>
       </c>
       <c r="AE18" s="4" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="AG18" s="4">
         <v>2000</v>
@@ -4716,7 +4714,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>152</v>
@@ -4734,10 +4732,10 @@
         <v>2</v>
       </c>
       <c r="I19" s="4">
-        <v>250.2</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -4752,18 +4750,18 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="8" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Y19" s="4">
         <v>2000</v>
@@ -4772,10 +4770,10 @@
         <v>0</v>
       </c>
       <c r="AA19" s="9" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AB19" s="4" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AC19" s="4">
         <v>1002</v>
@@ -4784,10 +4782,10 @@
         <v>1</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="AG19" s="4">
         <v>2000</v>
@@ -4869,7 +4867,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>152</v>
@@ -4887,10 +4885,10 @@
         <v>2</v>
       </c>
       <c r="I20" s="4">
-        <v>223.4</v>
+        <v>75.5</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -4905,18 +4903,18 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Y20" s="4">
         <v>2000</v>
@@ -4925,10 +4923,10 @@
         <v>0</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AB20" s="4" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="AC20" s="4">
         <v>1000</v>
@@ -4937,10 +4935,10 @@
         <v>1</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AG20" s="4">
         <v>1001</v>
@@ -5022,7 +5020,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>152</v>
@@ -5040,10 +5038,10 @@
         <v>2</v>
       </c>
       <c r="I21" s="4">
-        <v>893.8</v>
+        <v>367.8</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -5058,18 +5056,18 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="8" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Y21" s="4">
         <v>2000</v>
@@ -5078,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AB21" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="AC21" s="4">
         <v>1002</v>
@@ -5090,10 +5088,10 @@
         <v>1</v>
       </c>
       <c r="AE21" s="4" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AG21" s="4">
         <v>2000</v>
@@ -5175,7 +5173,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>152</v>
@@ -5193,10 +5191,10 @@
         <v>2</v>
       </c>
       <c r="I22" s="4">
-        <v>1199.9000000000001</v>
+        <v>521.4</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -5211,18 +5209,18 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="8" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Y22" s="4">
         <v>2000</v>
@@ -5231,10 +5229,10 @@
         <v>0</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AB22" s="4" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AC22" s="4">
         <v>1000</v>
@@ -5243,10 +5241,10 @@
         <v>1</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="AG22" s="4">
         <v>2000</v>
@@ -5328,7 +5326,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>152</v>
@@ -5346,10 +5344,10 @@
         <v>2</v>
       </c>
       <c r="I23" s="4">
-        <v>1842.5</v>
+        <v>845.9</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -5364,18 +5362,18 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="Y23" s="4">
         <v>2000</v>
@@ -5384,10 +5382,10 @@
         <v>0</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AB23" s="4" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="AC23" s="4">
         <v>1002</v>
@@ -5396,10 +5394,10 @@
         <v>1</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="AF23" s="4" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AG23" s="4">
         <v>1001</v>
@@ -5481,7 +5479,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>152</v>
@@ -5499,10 +5497,10 @@
         <v>2</v>
       </c>
       <c r="I24" s="4">
-        <v>2295.6</v>
+        <v>1112.0999999999999</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
@@ -5517,18 +5515,18 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="4" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="8" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Y24" s="4">
         <v>2000</v>
@@ -5537,10 +5535,10 @@
         <v>0</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AB24" s="4" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AC24" s="4">
         <v>1000</v>
@@ -5549,10 +5547,10 @@
         <v>1</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AF24" s="4" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AG24" s="4">
         <v>2000</v>
@@ -5634,7 +5632,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>152</v>
@@ -5652,10 +5650,10 @@
         <v>2</v>
       </c>
       <c r="I25" s="4">
-        <v>2692.7</v>
+        <v>1385.6</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
@@ -5670,18 +5668,18 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="8" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Y25" s="4">
         <v>2000</v>
@@ -5690,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AB25" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AC25" s="4">
         <v>1002</v>
@@ -5702,10 +5700,10 @@
         <v>1</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AF25" s="4" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AG25" s="4">
         <v>2000</v>
@@ -5787,7 +5785,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>152</v>
@@ -5805,7 +5803,7 @@
         <v>2</v>
       </c>
       <c r="I26" s="4">
-        <v>3136.9</v>
+        <v>1628.8</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -5817,18 +5815,18 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="8" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Y26" s="4">
         <v>2000</v>
@@ -5837,10 +5835,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AB26" s="4" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AC26" s="4">
         <v>1000</v>
@@ -5849,10 +5847,10 @@
         <v>1</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AF26" s="4" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AG26" s="4">
         <v>1001</v>
@@ -5934,7 +5932,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>152</v>
@@ -5952,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="4">
-        <v>3875.8</v>
+        <v>2206.1999999999998</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -5964,18 +5962,18 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="9" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Y27" s="4">
         <v>2000</v>
@@ -5984,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AC27" s="4">
         <v>1002</v>
@@ -5996,10 +5994,10 @@
         <v>1</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AF27" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="AG27" s="4">
         <v>2000</v>
@@ -6081,7 +6079,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>152</v>
@@ -6099,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="I28" s="4">
-        <v>4625.1000000000004</v>
+        <v>2752.8</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -6111,18 +6109,18 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="8" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Y28" s="4">
         <v>2000</v>
@@ -6131,10 +6129,10 @@
         <v>0</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AC28" s="4">
         <v>1000</v>
@@ -6143,10 +6141,10 @@
         <v>1</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="AF28" s="4" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AG28" s="4">
         <v>2000</v>
@@ -6228,7 +6226,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>152</v>
@@ -6246,7 +6244,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="4">
-        <v>5385.4</v>
+        <v>3310.4</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -6258,18 +6256,18 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="9" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Y29" s="4">
         <v>2000</v>
@@ -6278,10 +6276,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AB29" s="4" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AC29" s="4">
         <v>1002</v>
@@ -6290,10 +6288,10 @@
         <v>1</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AF29" s="4" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AG29" s="4">
         <v>1001</v>
@@ -6375,7 +6373,7 @@
         <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>152</v>
@@ -6393,7 +6391,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="4">
-        <v>6143.3</v>
+        <v>4263.8</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -6405,18 +6403,18 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="8" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Y30" s="4">
         <v>2000</v>
@@ -6425,10 +6423,10 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="AB30" s="4" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AC30" s="4">
         <v>1000</v>
@@ -6437,10 +6435,10 @@
         <v>1</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AF30" s="4" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AG30" s="4">
         <v>2000</v>
@@ -6522,7 +6520,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>152</v>
@@ -6537,10 +6535,10 @@
         <v>139</v>
       </c>
       <c r="H31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="4">
-        <v>10.199999999999999</v>
+        <v>9619.9</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -6552,18 +6550,18 @@
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="9" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="Y31" s="4">
         <v>2000</v>
@@ -6572,10 +6570,10 @@
         <v>0</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AB31" s="4" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AC31" s="4">
         <v>1001</v>
@@ -6584,10 +6582,10 @@
         <v>2</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AF31" s="4" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AG31" s="4">
         <v>2000</v>
@@ -6669,7 +6667,7 @@
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>152</v>
@@ -6687,7 +6685,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="4">
-        <v>18</v>
+        <v>11.8</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -6699,18 +6697,18 @@
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="8" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Y32" s="4">
         <v>2000</v>
@@ -6719,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AB32" s="4" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AC32" s="4">
         <v>1001</v>
@@ -6731,10 +6729,10 @@
         <v>2</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AF32" s="4" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AG32" s="4">
         <v>2000</v>
@@ -6816,7 +6814,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>152</v>
@@ -6834,7 +6832,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="4">
-        <v>26.5</v>
+        <v>13.1</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -6846,18 +6844,18 @@
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="9" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="Y33" s="4">
         <v>2000</v>
@@ -6866,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AB33" s="4" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AC33" s="4">
         <v>2000</v>
@@ -6878,10 +6876,10 @@
         <v>1</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AF33" s="4" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AG33" s="4">
         <v>1001</v>
@@ -6963,7 +6961,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>152</v>
@@ -6981,7 +6979,7 @@
         <v>3</v>
       </c>
       <c r="I34" s="4">
-        <v>35.799999999999997</v>
+        <v>14.5</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -6993,18 +6991,18 @@
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="Y34" s="4">
         <v>2000</v>
@@ -7013,10 +7011,10 @@
         <v>0</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="AB34" s="4" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="AC34" s="4">
         <v>2000</v>
@@ -7025,10 +7023,10 @@
         <v>1</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="AF34" s="4" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="AG34" s="4">
         <v>2000</v>

--- a/Excel/mr.军阶.xlsx
+++ b/Excel/mr.军阶.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4C0584-AD1C-4ADC-92D8-C3B6F6174D01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A46B1A9-45BA-4555-8D7E-91A153A6B723}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="11610" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1953,7 +1953,7 @@
   <dimension ref="A1:BG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
